--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,16 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349C5A97-07A9-4316-ADFF-4725BDBE98E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA96C99-46E4-4F7D-AD88-266E0458ABA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
-    <sheet name="操作方法" sheetId="2" r:id="rId2"/>
-    <sheet name="処理一覧" sheetId="3" r:id="rId3"/>
-    <sheet name="素材一覧" sheetId="5" r:id="rId4"/>
-    <sheet name="モデル一覧" sheetId="4" r:id="rId5"/>
+    <sheet name="スケジュール" sheetId="8" r:id="rId2"/>
+    <sheet name="操作方法" sheetId="2" r:id="rId3"/>
+    <sheet name="処理一覧" sheetId="3" r:id="rId4"/>
+    <sheet name="素材一覧" sheetId="5" r:id="rId5"/>
+    <sheet name="2D素材" sheetId="6" r:id="rId6"/>
+    <sheet name="３D素材" sheetId="7" r:id="rId7"/>
+    <sheet name="モデル一覧" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -257,13 +260,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>素材一覧</t>
-    <rPh sb="0" eb="4">
-      <t>ソザイイチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>リンク</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -318,6 +314,48 @@
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素材一覧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピクモン（仮）</t>
+    <rPh sb="5" eb="6">
+      <t>カリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -403,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -711,11 +749,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,6 +816,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -787,6 +867,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,11 +882,51 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,7 +1211,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1099,104 +1222,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="C4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1216,10 +1341,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
+  <dimension ref="B1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B2" s="35">
+        <v>45089</v>
+      </c>
+      <c r="C2" s="36">
+        <v>45090</v>
+      </c>
+      <c r="D2" s="36">
+        <v>45091</v>
+      </c>
+      <c r="E2" s="36">
+        <v>45092</v>
+      </c>
+      <c r="F2" s="36">
+        <v>45093</v>
+      </c>
+      <c r="G2" s="36">
+        <v>45094</v>
+      </c>
+      <c r="H2" s="36">
+        <v>45095</v>
+      </c>
+      <c r="I2" s="36">
+        <v>45096</v>
+      </c>
+      <c r="J2" s="36">
+        <v>45097</v>
+      </c>
+      <c r="K2" s="36">
+        <v>45098</v>
+      </c>
+      <c r="L2" s="37">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="42"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEC8416-3621-4557-8CDA-D6E2CC6057AF}">
   <dimension ref="B2:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1230,28 +1462,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1263,8 +1495,162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD263BC5-0CB3-4F2E-8178-5A59DACE2FEF}">
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="32"/>
+      <c r="C3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF075404-624B-4B69-8F57-26B115BE545E}">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB0A75-CF67-4257-836C-A6491D0D4021}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1276,63 +1662,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF075404-624B-4B69-8F57-26B115BE545E}">
-  <dimension ref="B1:F5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D93A0-2F7F-4900-970C-F0DE8151FB2F}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D3:F3"/>
-  </mergeCells>
+  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6185C4-81E2-4107-B7AE-6D3082665C6D}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA96C99-46E4-4F7D-AD88-266E0458ABA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8C8B7-CF8C-4225-8B22-6390480CD9AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
     <sheet name="スケジュール" sheetId="8" r:id="rId2"/>
     <sheet name="操作方法" sheetId="2" r:id="rId3"/>
-    <sheet name="処理一覧" sheetId="3" r:id="rId4"/>
-    <sheet name="素材一覧" sheetId="5" r:id="rId5"/>
-    <sheet name="2D素材" sheetId="6" r:id="rId6"/>
-    <sheet name="３D素材" sheetId="7" r:id="rId7"/>
-    <sheet name="モデル一覧" sheetId="4" r:id="rId8"/>
+    <sheet name="素材一覧" sheetId="5" r:id="rId4"/>
+    <sheet name="詳細" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -260,10 +257,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>リンク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -271,18 +264,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>素材</t>
-    <rPh sb="0" eb="2">
-      <t>ソザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モデル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -318,37 +300,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>処理一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>素材一覧</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -357,6 +308,90 @@
     <rPh sb="5" eb="6">
       <t>カリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデルパーツ・モーションの実装</t>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>カメラ・ライト・オブジェクト３D・Xの処理実装　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素材種類</t>
+    <rPh sb="0" eb="4">
+      <t>ソザイシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font_000.PNG</t>
+  </si>
+  <si>
+    <t>フォントデータ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サウンド</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -364,7 +399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +443,34 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,8 +501,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -714,51 +781,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -792,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,13 +834,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -867,73 +882,188 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF88888"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFACF6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF88888"/>
+      <color rgb="FFACF6FE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1222,106 +1352,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1342,117 +1472,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
-  <dimension ref="B1:L5"/>
+  <dimension ref="B1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="2" max="12" width="50.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="35">
+    <row r="2" spans="2:12" s="27" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B2" s="24">
         <v>45089</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="25">
         <v>45090</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="25">
         <v>45091</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="25">
         <v>45092</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="25">
         <v>45093</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="25">
         <v>45094</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="25">
         <v>45095</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="25">
         <v>45096</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="25">
         <v>45097</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="25">
         <v>45098</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="26">
         <v>45099</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="42"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="43"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
+    <row r="3" spans="2:12" s="37" customFormat="1">
+      <c r="B3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="2:12" s="37" customFormat="1">
+      <c r="B4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="2:12" s="37" customFormat="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="2:12" s="37" customFormat="1">
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="38"/>
+    </row>
+    <row r="7" spans="2:12" s="37" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="B7" s="34"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEC8416-3621-4557-8CDA-D6E2CC6057AF}">
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1462,28 +1624,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1496,11 +1663,674 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD263BC5-0CB3-4F2E-8178-5A59DACE2FEF}">
-  <dimension ref="B2:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF075404-624B-4B69-8F57-26B115BE545E}">
+  <dimension ref="B1:G63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="7" width="8.796875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:7">
+      <c r="B2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="43">
+        <v>1</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="41">
+        <v>2</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="41">
+        <v>3</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="41">
+        <v>4</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="41">
+        <v>5</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="41">
+        <v>6</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="41">
+        <v>7</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="41">
+        <v>8</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="41">
+        <v>9</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="41">
+        <v>10</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="41">
+        <v>11</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="41">
+        <v>12</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="41">
+        <v>13</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="41">
+        <v>14</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="41">
+        <v>15</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="41">
+        <v>16</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="41">
+        <v>17</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="41">
+        <v>18</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="41">
+        <v>19</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="41">
+        <v>20</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="41">
+        <v>21</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="41">
+        <v>22</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="41">
+        <v>23</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="41">
+        <v>24</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="41">
+        <v>25</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="41">
+        <v>26</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="41">
+        <v>27</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="41">
+        <v>28</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="41">
+        <v>29</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="41">
+        <v>30</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="41">
+        <v>31</v>
+      </c>
+      <c r="C34" s="51"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="41">
+        <v>32</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="41">
+        <v>33</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="41">
+        <v>34</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="41">
+        <v>35</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="41">
+        <v>36</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="41">
+        <v>37</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="41">
+        <v>38</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="41">
+        <v>39</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="41">
+        <v>40</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="41">
+        <v>41</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="41">
+        <v>42</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="41">
+        <v>43</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="41">
+        <v>44</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="41">
+        <v>45</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="41">
+        <v>46</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="41">
+        <v>47</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="41">
+        <v>48</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="41">
+        <v>49</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="41">
+        <v>50</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="52"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="52"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="52"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="52"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="52"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="52"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="52"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="52"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="52"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C4:C53">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="2D">
+      <formula>NOT(ISERROR(SEARCH("2D",C4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"3D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"モデル"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"サウンド"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E01551D7-A11E-4CC3-861F-385B64152B5C}">
+          <x14:formula1>
+            <xm:f>詳細!B$3:B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C53</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81ED12A-57EE-499C-8835-D7AAF7A83610}">
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1508,181 +2338,32 @@
     <col min="1" max="1" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="32"/>
-      <c r="C3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13">
-        <v>10</v>
+    <row r="2" spans="2:2">
+      <c r="B2" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="41" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF075404-624B-4B69-8F57-26B115BE545E}">
-  <dimension ref="B1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D3:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB0A75-CF67-4257-836C-A6491D0D4021}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D93A0-2F7F-4900-970C-F0DE8151FB2F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6185C4-81E2-4107-B7AE-6D3082665C6D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8C8B7-CF8C-4225-8B22-6390480CD9AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86F337B-515E-4FD0-A2D9-9B91E6070338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -392,6 +392,26 @@
   </si>
   <si>
     <t>サウンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル・パーツ処理の実装</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラの修正・プレイヤーの移動修正</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イドウシュウセイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -834,57 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="56" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,49 +864,113 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,54 +980,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFACF6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1008,41 +1011,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFACF6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1352,106 +1321,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1474,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -1485,123 +1454,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:12" s="27" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B2" s="24">
+    <row r="2" spans="2:12" s="10" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B2" s="7">
         <v>45089</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="8">
         <v>45090</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="8">
         <v>45091</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="8">
         <v>45092</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="8">
         <v>45093</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="8">
         <v>45094</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="8">
         <v>45095</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="8">
         <v>45096</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="8">
         <v>45097</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="8">
         <v>45098</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="9">
         <v>45099</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="37" customFormat="1">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:12" s="12" customFormat="1">
+      <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35" t="s">
+      <c r="C3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="2:12" s="37" customFormat="1">
-      <c r="B4" s="33"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="38"/>
-    </row>
-    <row r="5" spans="2:12" s="37" customFormat="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="2:12" s="37" customFormat="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="38"/>
-    </row>
-    <row r="7" spans="2:12" s="37" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="2:12" s="12" customFormat="1">
+      <c r="B4" s="45"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="2:12" s="12" customFormat="1">
+      <c r="B5" s="45"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="2:12" s="12" customFormat="1">
+      <c r="B6" s="45"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" s="12" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="B7" s="46"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="K3:K7"/>
     <mergeCell ref="L3:L7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,28 +1597,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -1666,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF075404-624B-4B69-8F57-26B115BE545E}">
   <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8:G8"/>
     </sheetView>
   </sheetViews>
@@ -1675,572 +1648,617 @@
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" customWidth="1"/>
     <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="7" width="8.796875" style="37"/>
+    <col min="5" max="7" width="8.796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="43">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="41">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="41">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="41">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="41">
+      <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="41">
+      <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="41">
+      <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="41">
+      <c r="B11" s="13">
         <v>8</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="41">
+      <c r="B12" s="13">
         <v>9</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="41">
+      <c r="B13" s="13">
         <v>10</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="41">
+      <c r="B14" s="13">
         <v>11</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="41">
+      <c r="B15" s="13">
         <v>12</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="41">
+      <c r="B16" s="13">
         <v>13</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="41">
+      <c r="B17" s="13">
         <v>14</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="41">
+      <c r="B18" s="13">
         <v>15</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="41">
+      <c r="B19" s="13">
         <v>16</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="41">
+      <c r="B20" s="13">
         <v>17</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="41">
+      <c r="B21" s="13">
         <v>18</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="41">
+      <c r="B22" s="13">
         <v>19</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="41">
+      <c r="B23" s="13">
         <v>20</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="41">
+      <c r="B24" s="13">
         <v>21</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="41">
+      <c r="B25" s="13">
         <v>22</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="41">
+      <c r="B26" s="13">
         <v>23</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="41">
+      <c r="B27" s="13">
         <v>24</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="41">
+      <c r="B28" s="13">
         <v>25</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="41">
+      <c r="B29" s="13">
         <v>26</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="41">
+      <c r="B30" s="13">
         <v>27</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="41">
+      <c r="B31" s="13">
         <v>28</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="41">
+      <c r="B32" s="13">
         <v>29</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="41">
+      <c r="B33" s="13">
         <v>30</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="41">
+      <c r="B34" s="13">
         <v>31</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="41">
+      <c r="B35" s="13">
         <v>32</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="41">
+      <c r="B36" s="13">
         <v>33</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="41">
+      <c r="B37" s="13">
         <v>34</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="41">
+      <c r="B38" s="13">
         <v>35</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="41">
+      <c r="B39" s="13">
         <v>36</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="41">
+      <c r="B40" s="13">
         <v>37</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="41">
+      <c r="B41" s="13">
         <v>38</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="41">
+      <c r="B42" s="13">
         <v>39</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="41">
+      <c r="B43" s="13">
         <v>40</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="41">
+      <c r="B44" s="13">
         <v>41</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="41">
+      <c r="B45" s="13">
         <v>42</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="41">
+      <c r="B46" s="13">
         <v>43</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="41">
+      <c r="B47" s="13">
         <v>44</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="41">
+      <c r="B48" s="13">
         <v>45</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="41">
+      <c r="B49" s="13">
         <v>46</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="41">
+      <c r="B50" s="13">
         <v>47</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="41">
+      <c r="B51" s="13">
         <v>48</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="41">
+      <c r="B52" s="13">
         <v>49</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="41">
+      <c r="B53" s="13">
         <v>50</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="52"/>
+      <c r="B54" s="21"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="52"/>
+      <c r="B55" s="21"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="52"/>
+      <c r="B56" s="21"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="52"/>
+      <c r="B57" s="21"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="52"/>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="52"/>
+      <c r="B59" s="21"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="52"/>
+      <c r="B60" s="21"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="52"/>
+      <c r="B61" s="21"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="52"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="52"/>
+      <c r="B63" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="E47:G47"/>
@@ -2248,64 +2266,19 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:C53">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="2D">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="2D">
       <formula>NOT(ISERROR(SEARCH("2D",C4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"3D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"モデル"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"サウンド"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2339,27 +2312,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="13" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86F337B-515E-4FD0-A2D9-9B91E6070338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4EDB3-285A-4CFB-AFF5-66302B738758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -395,22 +395,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モデル・パーツ処理の実装</t>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カメラの修正・プレイヤーの移動修正</t>
     <rPh sb="4" eb="6">
       <t>シュウセイ</t>
     </rPh>
     <rPh sb="13" eb="17">
       <t>イドウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル・パーツ処理の実装　テクスチャの管理修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -944,6 +945,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -953,24 +963,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -987,6 +985,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1443,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -1490,28 +1491,34 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>35</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
-      <c r="L3" s="41"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1">
-      <c r="B4" s="45"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -1521,10 +1528,10 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
-      <c r="L4" s="42"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1">
-      <c r="B5" s="45"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -1534,10 +1541,10 @@
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
-      <c r="L5" s="42"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1">
-      <c r="B6" s="45"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
@@ -1547,10 +1554,10 @@
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
-      <c r="L6" s="42"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B7" s="46"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
@@ -1560,21 +1567,21 @@
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
-      <c r="L7" s="43"/>
+      <c r="L7" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1653,14 +1660,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="17"/>
@@ -1670,11 +1677,11 @@
       <c r="D3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15">
@@ -1686,11 +1693,11 @@
       <c r="D4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="13">
@@ -1698,9 +1705,9 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="13">
@@ -1708,9 +1715,9 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="13">
@@ -1718,9 +1725,9 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="13">
@@ -1728,9 +1735,9 @@
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="13">
@@ -1738,9 +1745,9 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="13">
@@ -1748,9 +1755,9 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="13">
@@ -1758,9 +1765,9 @@
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="13">
@@ -1768,9 +1775,9 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13">
@@ -1778,9 +1785,9 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="13">
@@ -1788,9 +1795,9 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="13">
@@ -1798,9 +1805,9 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="13">
@@ -1808,9 +1815,9 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="13">
@@ -1818,9 +1825,9 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="13">
@@ -1828,9 +1835,9 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="13">
@@ -1838,9 +1845,9 @@
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13">
@@ -1848,9 +1855,9 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="13">
@@ -1858,9 +1865,9 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="13">
@@ -1868,9 +1875,9 @@
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="13">
@@ -1878,9 +1885,9 @@
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="13">
@@ -1888,9 +1895,9 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="13">
@@ -1898,9 +1905,9 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="13">
@@ -1908,9 +1915,9 @@
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="13">
@@ -1918,9 +1925,9 @@
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="13">
@@ -1928,9 +1935,9 @@
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="13">
@@ -1938,9 +1945,9 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="13">
@@ -1948,9 +1955,9 @@
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="13">
@@ -1958,9 +1965,9 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="13">
@@ -1968,9 +1975,9 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="13">
@@ -1978,9 +1985,9 @@
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="13">
@@ -1988,9 +1995,9 @@
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="13">
@@ -1998,9 +2005,9 @@
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="13">
@@ -2008,9 +2015,9 @@
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="13">
@@ -2018,9 +2025,9 @@
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="13">
@@ -2028,9 +2035,9 @@
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="13">
@@ -2038,9 +2045,9 @@
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="13">
@@ -2048,9 +2055,9 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="13">
@@ -2058,9 +2065,9 @@
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="13">
@@ -2068,9 +2075,9 @@
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="13">
@@ -2078,9 +2085,9 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="13">
@@ -2088,9 +2095,9 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="13">
@@ -2098,9 +2105,9 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="13">
@@ -2108,9 +2115,9 @@
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="13">
@@ -2118,9 +2125,9 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="13">
@@ -2128,9 +2135,9 @@
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="13">
@@ -2138,9 +2145,9 @@
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="13">
@@ -2148,9 +2155,9 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="13">
@@ -2158,9 +2165,9 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="13">
@@ -2168,9 +2175,9 @@
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="13">
@@ -2178,9 +2185,9 @@
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="21"/>
@@ -2214,51 +2221,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="E47:G47"/>
@@ -2266,6 +2228,51 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:C53">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4EDB3-285A-4CFB-AFF5-66302B738758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF29E3F-3CAA-489C-A21D-5F37B8C6B64F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -314,13 +314,6 @@
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデルパーツ・モーションの実装</t>
-    <rPh sb="13" eb="15">
-      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -395,23 +388,215 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カメラの修正・プレイヤーの移動修正</t>
-    <rPh sb="4" eb="6">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>イドウシュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデル・パーツ処理の実装　テクスチャの管理修正</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>無し</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">カメラの修正・プレイヤーの移動修正 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イドウシュウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">モデル・パーツ処理の実装　テクスチャの管理修正 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="24" eb="25">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">モデルパーツ・モーションのcpp.h 追加 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">パーツモデルの表示　実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾cpp.hの追加
+弾発射の実装
+敵との当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>タマハッシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの回転・回転推移の実装</t>
+    <rPh sb="6" eb="8">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カイテンスイイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックcpp.hの追加
+弾との当たり判定
+プレイヤーとの当たり判定
+敵との当たり判定
+プレイヤーのジャンプ実装</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾が地面・壁に配置する処理
+配置した弾の消滅</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウメツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -420,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +675,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -529,7 +723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -831,11 +1025,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,6 +1207,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I7"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -1492,7 +1725,7 @@
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1">
       <c r="B3" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>35</v>
@@ -1501,21 +1734,29 @@
         <v>36</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="44"/>
+        <v>34</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1">
       <c r="B4" s="42"/>
@@ -1527,7 +1768,7 @@
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1">
@@ -1540,7 +1781,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1">
@@ -1553,7 +1794,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="18.600000000000001" thickBot="1">
@@ -1566,11 +1807,237 @@
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="46"/>
     </row>
+    <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="11" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B11" s="7">
+        <v>45100</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45101</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45102</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45103</v>
+      </c>
+      <c r="F11" s="7">
+        <v>45104</v>
+      </c>
+      <c r="G11" s="7">
+        <v>45105</v>
+      </c>
+      <c r="H11" s="7">
+        <v>45106</v>
+      </c>
+      <c r="I11" s="7">
+        <v>45107</v>
+      </c>
+      <c r="J11" s="7">
+        <v>45108</v>
+      </c>
+      <c r="K11" s="7">
+        <v>45109</v>
+      </c>
+      <c r="L11" s="7">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="44"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="42"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="42"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="42"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B16" s="43"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="20" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B20" s="7">
+        <v>45111</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45112</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45113</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45114</v>
+      </c>
+      <c r="F20" s="7">
+        <v>45115</v>
+      </c>
+      <c r="G20" s="7">
+        <v>45116</v>
+      </c>
+      <c r="H20" s="7">
+        <v>45117</v>
+      </c>
+      <c r="I20" s="7">
+        <v>45118</v>
+      </c>
+      <c r="J20" s="7">
+        <v>45119</v>
+      </c>
+      <c r="K20" s="7">
+        <v>45120</v>
+      </c>
+      <c r="L20" s="7">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="41"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="44"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="42"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="42"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="45"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="42"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B25" s="43"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="33">
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="J3:J7"/>
@@ -1672,10 +2139,10 @@
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>14</v>
@@ -1688,13 +2155,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="54" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
@@ -2320,17 +2787,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -2340,7 +2807,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF29E3F-3CAA-489C-A21D-5F37B8C6B64F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116C9BA-C423-490F-B829-0E220B021F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,19 +521,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プレイヤーの回転・回転推移の実装</t>
-    <rPh sb="6" eb="8">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>カイテンスイイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ブロックcpp.hの追加
 弾との当たり判定
 プレイヤーとの当たり判定
@@ -600,12 +587,84 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">プレイヤーの回転・回転推移の実装
+ブロックの表示　実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">単体モデル用のcpp/hの追加 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カイテンスイイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +743,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1053,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,6 +1220,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1164,22 +1248,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1187,6 +1268,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1205,22 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1677,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -1727,88 +1796,88 @@
       <c r="B3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="51" t="s">
         <v>40</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1">
       <c r="B4" s="42"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1">
       <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1">
       <c r="B6" s="42"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="11" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -1847,71 +1916,71 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="44"/>
+      <c r="B12" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="42"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="42"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="42"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B16" s="43"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="20" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -1951,71 +2020,88 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="41"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="42"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="39"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="42"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="42"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="43"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -2032,23 +2118,6 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2071,13 +2140,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -2089,10 +2158,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -2127,14 +2196,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="17"/>
@@ -2144,11 +2213,11 @@
       <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15">
@@ -2160,11 +2229,11 @@
       <c r="D4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="13">
@@ -2172,9 +2241,9 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="13">
@@ -2182,9 +2251,9 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="13">
@@ -2192,9 +2261,9 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="13">
@@ -2202,9 +2271,9 @@
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="13">
@@ -2212,9 +2281,9 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="13">
@@ -2222,9 +2291,9 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="13">
@@ -2232,9 +2301,9 @@
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="13">
@@ -2242,9 +2311,9 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13">
@@ -2252,9 +2321,9 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="13">
@@ -2262,9 +2331,9 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="13">
@@ -2272,9 +2341,9 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="13">
@@ -2282,9 +2351,9 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="13">
@@ -2292,9 +2361,9 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="13">
@@ -2302,9 +2371,9 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="13">
@@ -2312,9 +2381,9 @@
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13">
@@ -2322,9 +2391,9 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="13">
@@ -2332,9 +2401,9 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="13">
@@ -2342,9 +2411,9 @@
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="13">
@@ -2352,9 +2421,9 @@
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="13">
@@ -2362,9 +2431,9 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="13">
@@ -2372,9 +2441,9 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="13">
@@ -2382,9 +2451,9 @@
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="13">
@@ -2392,9 +2461,9 @@
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="13">
@@ -2402,9 +2471,9 @@
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="13">
@@ -2412,9 +2481,9 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="13">
@@ -2422,9 +2491,9 @@
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="13">
@@ -2432,9 +2501,9 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="13">
@@ -2442,9 +2511,9 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="13">
@@ -2452,9 +2521,9 @@
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="13">
@@ -2462,9 +2531,9 @@
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="13">
@@ -2472,9 +2541,9 @@
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="13">
@@ -2482,9 +2551,9 @@
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="13">
@@ -2492,9 +2561,9 @@
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="13">
@@ -2502,9 +2571,9 @@
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="13">
@@ -2512,9 +2581,9 @@
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="13">
@@ -2522,9 +2591,9 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="13">
@@ -2532,9 +2601,9 @@
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="13">
@@ -2542,9 +2611,9 @@
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="13">
@@ -2552,9 +2621,9 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="13">
@@ -2562,9 +2631,9 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="13">
@@ -2572,9 +2641,9 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="13">
@@ -2582,9 +2651,9 @@
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="13">
@@ -2592,9 +2661,9 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="13">
@@ -2602,9 +2671,9 @@
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="13">
@@ -2612,9 +2681,9 @@
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="13">
@@ -2622,9 +2691,9 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="13">
@@ -2632,9 +2701,9 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="13">
@@ -2642,9 +2711,9 @@
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="13">
@@ -2652,9 +2721,9 @@
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="21"/>
@@ -2688,6 +2757,51 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="E47:G47"/>
@@ -2695,51 +2809,6 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:C53">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116C9BA-C423-490F-B829-0E220B021F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793389F7-D905-48D0-A97F-6C4FDAB24AA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
     <sheet name="スケジュール" sheetId="8" r:id="rId2"/>
-    <sheet name="操作方法" sheetId="2" r:id="rId3"/>
-    <sheet name="素材一覧" sheetId="5" r:id="rId4"/>
-    <sheet name="詳細" sheetId="9" r:id="rId5"/>
+    <sheet name="未実装の処理" sheetId="11" r:id="rId3"/>
+    <sheet name="未実装のモデル" sheetId="12" r:id="rId4"/>
+    <sheet name="操作方法" sheetId="2" r:id="rId5"/>
+    <sheet name="素材一覧" sheetId="5" r:id="rId6"/>
+    <sheet name="詳細" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -494,103 +496,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>弾cpp.hの追加
-弾発射の実装
-敵との当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>タマハッシャ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブロックcpp.hの追加
-弾との当たり判定
-プレイヤーとの当たり判定
-敵との当たり判定
-プレイヤーのジャンプ実装</t>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弾が地面・壁に配置する処理
-配置した弾の消滅</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジメン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">プレイヤーの回転・回転推移の実装
-ブロックの表示　実装 </t>
+      <t xml:space="preserve">ブロックの表示　実装 </t>
     </r>
     <r>
       <rPr>
@@ -625,37 +532,404 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ブロックcpp.hの追加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">　済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草ブロックの作成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　済</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">弾との当たり判定
+プレイヤーとの当たり判定
+敵との当たり判定
+弾が地面・壁に配置する処理
+配置した弾（ブロック）の消滅
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">プレイヤーの回転・回転推移の実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>済</t>
     </r>
-    <rPh sb="6" eb="8">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>カイテンスイイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+プレイヤーのジャンプ実装</t>
+    </r>
+    <rPh sb="17" eb="18">
       <t>スミ</t>
     </rPh>
-    <rPh sb="30" eb="32">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>スミ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>csvの読み込み・書き込み</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデルの当たり判定</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁・床に当たった時の弾（ブロック）の配置</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾発射</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクト・パーティクル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面推移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフゲージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の召喚</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップツール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パーティクルツール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング　名前入力</t>
+    <rPh sb="6" eb="10">
+      <t>ナマエニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル　メニュー処理</t>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポーズ処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エネミーの移動処理</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銃</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵A</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵B</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵C</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボスA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボスB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵D</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵E</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁A</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地面B</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地面C</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁B</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁C</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクトA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクトB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾のゲージ</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾モデルの作成
+弾発射の実装</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1220,77 +1494,77 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,9 +1572,19 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFACF6FE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1314,17 +1598,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFACF6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1746,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J7"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -1796,88 +2070,88 @@
       <c r="B3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="J3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="51" t="s">
-        <v>40</v>
+      <c r="K3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1">
       <c r="B4" s="42"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1">
       <c r="B5" s="42"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1">
       <c r="B6" s="42"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="11" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -1916,71 +2190,73 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="38"/>
+      <c r="B12" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="42"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="42"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="42"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B16" s="43"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="20" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -2020,88 +2296,71 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="41"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="42"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="42"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="42"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="43"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -2118,6 +2377,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2126,6 +2402,207 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7E5AE-160F-450B-971C-941D281FA974}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35C9-75AF-4587-A9BB-6FF718ECB1B7}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEC8416-3621-4557-8CDA-D6E2CC6057AF}">
   <dimension ref="B2:F4"/>
   <sheetViews>
@@ -2140,13 +2617,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -2158,10 +2635,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -2178,7 +2655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF075404-624B-4B69-8F57-26B115BE545E}">
   <dimension ref="B1:G63"/>
   <sheetViews>
@@ -2241,9 +2718,9 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="13">
@@ -2251,9 +2728,9 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="13">
@@ -2261,9 +2738,9 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="13">
@@ -2271,9 +2748,9 @@
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="13">
@@ -2281,9 +2758,9 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="13">
@@ -2291,9 +2768,9 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="13">
@@ -2301,9 +2778,9 @@
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="13">
@@ -2311,9 +2788,9 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13">
@@ -2321,9 +2798,9 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="13">
@@ -2331,9 +2808,9 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="13">
@@ -2341,9 +2818,9 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="13">
@@ -2351,9 +2828,9 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="13">
@@ -2361,9 +2838,9 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="13">
@@ -2371,9 +2848,9 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="13">
@@ -2381,9 +2858,9 @@
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13">
@@ -2391,9 +2868,9 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="13">
@@ -2401,9 +2878,9 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="13">
@@ -2411,9 +2888,9 @@
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="13">
@@ -2421,9 +2898,9 @@
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="13">
@@ -2431,9 +2908,9 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="13">
@@ -2441,9 +2918,9 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="13">
@@ -2451,9 +2928,9 @@
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="13">
@@ -2461,9 +2938,9 @@
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="13">
@@ -2471,9 +2948,9 @@
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="13">
@@ -2481,9 +2958,9 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="13">
@@ -2491,9 +2968,9 @@
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="13">
@@ -2501,9 +2978,9 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="13">
@@ -2511,9 +2988,9 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="13">
@@ -2521,9 +2998,9 @@
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="13">
@@ -2531,9 +3008,9 @@
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="13">
@@ -2541,9 +3018,9 @@
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="13">
@@ -2551,9 +3028,9 @@
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="13">
@@ -2561,9 +3038,9 @@
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="13">
@@ -2571,9 +3048,9 @@
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="13">
@@ -2581,9 +3058,9 @@
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="13">
@@ -2591,9 +3068,9 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="13">
@@ -2601,9 +3078,9 @@
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="13">
@@ -2611,9 +3088,9 @@
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="13">
@@ -2621,9 +3098,9 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="13">
@@ -2631,9 +3108,9 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="13">
@@ -2641,9 +3118,9 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="13">
@@ -2651,9 +3128,9 @@
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="13">
@@ -2661,9 +3138,9 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="13">
@@ -2671,9 +3148,9 @@
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="13">
@@ -2681,9 +3158,9 @@
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="13">
@@ -2691,9 +3168,9 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="13">
@@ -2701,9 +3178,9 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="13">
@@ -2711,9 +3188,9 @@
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="13">
@@ -2721,9 +3198,9 @@
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="21"/>
@@ -2757,51 +3234,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="E47:G47"/>
@@ -2809,20 +3241,65 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:C53">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="2D">
-      <formula>NOT(ISERROR(SEARCH("2D",C4)))</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"サウンド"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"モデル"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"3D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"モデル"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"サウンド"</formula>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="2D">
+      <formula>NOT(ISERROR(SEARCH("2D",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2841,7 +3318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81ED12A-57EE-499C-8835-D7AAF7A83610}">
   <dimension ref="B2:B6"/>
   <sheetViews>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793389F7-D905-48D0-A97F-6C4FDAB24AA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5627923-D6B2-419E-BE07-3AD52F2C1C1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,17 +615,320 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">弾との当たり判定
-プレイヤーとの当たり判定
-敵との当たり判定
-弾が地面・壁に配置する処理
-配置した弾（ブロック）の消滅
-</t>
+    <t>csvの読み込み・書き込み</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデルの当たり判定</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁・床に当たった時の弾（ブロック）の配置</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾発射</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクト・パーティクル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面推移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフゲージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の召喚</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップツール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パーティクルツール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング　名前入力</t>
+    <rPh sb="6" eb="10">
+      <t>ナマエニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル　メニュー処理</t>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポーズ処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エネミーの移動処理</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銃</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵A</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵B</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵C</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボスA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボスB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵D</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵E</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁A</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地面B</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地面C</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁B</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁C</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクトA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクトB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾のゲージ</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">プレイヤーの回転・回転推移の実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">弾発射実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">弾とブロックの仮当たり判定 </t>
     </r>
     <r>
       <rPr>
@@ -649,288 +952,190 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-プレイヤーのジャンプ実装</t>
+弾(ブロック)の仮配置 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
     </r>
     <rPh sb="17" eb="18">
       <t>スミ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>csvの読み込み・書き込み</t>
-    <rPh sb="4" eb="5">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデルの当たり判定</t>
-    <rPh sb="4" eb="5">
+    <rPh sb="19" eb="20">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
       <t>ア</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="38" eb="40">
       <t>ハンテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弾</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="41" eb="42">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
       <t>タマ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブロック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>壁・床に当たった時の弾（ブロック）の配置</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="51" eb="52">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">csvファイルの入出力の実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ファイルでのブロック配置 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+弾とブロックの当たり判定 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+弾(ブロック)配置 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済？</t>
+    </r>
+    <rPh sb="8" eb="11">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
       <t>ア</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="43" eb="45">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
       <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>弾発射</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エフェクト・パーティクル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面推移</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スイイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ライフゲージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵の召喚</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マップツール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パーティクルツール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランキング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランキング　名前入力</t>
-    <rPh sb="6" eb="10">
-      <t>ナマエニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル　メニュー処理</t>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ポーズ処理</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エネミーの移動処理</t>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>銃</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵A</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵B</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵C</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ボスA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ボスB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵D</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵E</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>壁A</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>地面B</t>
-    <rPh sb="0" eb="2">
-      <t>ジメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>地面C</t>
-    <rPh sb="0" eb="2">
-      <t>ジメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>壁B</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>壁C</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エフェクトA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エフェクトB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ライフ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カメラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弾のゲージ</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弾モデルの作成
-弾発射の実装</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
+    <t>プレイヤーとの当たり判定
+敵との当たり判定</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1494,6 +1699,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1504,13 +1727,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1527,24 +1744,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1561,9 +1769,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2021,7 +2226,7 @@
   <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B16"/>
+      <selection activeCell="C12" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -2070,88 +2275,88 @@
       <c r="B3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="48" t="s">
-        <v>41</v>
+      <c r="L3" s="52" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1">
       <c r="B4" s="42"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="49"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1">
       <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1">
       <c r="B6" s="42"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="49"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="50"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="11" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -2190,73 +2395,73 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="52"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="42"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="49"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="42"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="49"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="42"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="49"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B16" s="43"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="50"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="20" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -2296,71 +2501,88 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="41"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="52"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="42"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="49"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="39"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="42"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="49"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="42"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="49"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="43"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="50"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -2377,23 +2599,6 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2413,102 +2618,102 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2529,71 +2734,71 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2673,14 +2878,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="17"/>
@@ -2690,11 +2895,11 @@
       <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15">
@@ -2706,11 +2911,11 @@
       <c r="D4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="13">
@@ -2718,9 +2923,9 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="13">
@@ -2728,9 +2933,9 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="13">
@@ -2738,9 +2943,9 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="13">
@@ -2748,9 +2953,9 @@
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="13">
@@ -2758,9 +2963,9 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="13">
@@ -2768,9 +2973,9 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="13">
@@ -2778,9 +2983,9 @@
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="13">
@@ -2788,9 +2993,9 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13">
@@ -2798,9 +3003,9 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="13">
@@ -2808,9 +3013,9 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="13">
@@ -2818,9 +3023,9 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="13">
@@ -2828,9 +3033,9 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="13">
@@ -2838,9 +3043,9 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="13">
@@ -2848,9 +3053,9 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="13">
@@ -2858,9 +3063,9 @@
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13">
@@ -2868,9 +3073,9 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="13">
@@ -2878,9 +3083,9 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="13">
@@ -2888,9 +3093,9 @@
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="13">
@@ -2898,9 +3103,9 @@
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="13">
@@ -2908,9 +3113,9 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="13">
@@ -2918,9 +3123,9 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="13">
@@ -2928,9 +3133,9 @@
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="13">
@@ -2938,9 +3143,9 @@
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="13">
@@ -2948,9 +3153,9 @@
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="13">
@@ -2958,9 +3163,9 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="13">
@@ -2968,9 +3173,9 @@
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="13">
@@ -2978,9 +3183,9 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="13">
@@ -2988,9 +3193,9 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="13">
@@ -2998,9 +3203,9 @@
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="13">
@@ -3008,9 +3213,9 @@
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="13">
@@ -3018,9 +3223,9 @@
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="13">
@@ -3028,9 +3233,9 @@
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="13">
@@ -3038,9 +3243,9 @@
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="13">
@@ -3048,9 +3253,9 @@
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="13">
@@ -3058,9 +3263,9 @@
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="13">
@@ -3068,9 +3273,9 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="13">
@@ -3078,9 +3283,9 @@
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="13">
@@ -3088,9 +3293,9 @@
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="13">
@@ -3098,9 +3303,9 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="13">
@@ -3108,9 +3313,9 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="13">
@@ -3118,9 +3323,9 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="13">
@@ -3128,9 +3333,9 @@
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="13">
@@ -3138,9 +3343,9 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="13">
@@ -3148,9 +3353,9 @@
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="13">
@@ -3158,9 +3363,9 @@
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="13">
@@ -3168,9 +3373,9 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="13">
@@ -3178,9 +3383,9 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="13">
@@ -3188,9 +3393,9 @@
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="13">
@@ -3198,9 +3403,9 @@
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="21"/>
@@ -3234,6 +3439,51 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="E47:G47"/>
@@ -3241,51 +3491,6 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:C53">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5627923-D6B2-419E-BE07-3AD52F2C1C1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E2CA58-E480-41F8-932B-4D320F2D4E0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="素材一覧" sheetId="5" r:id="rId6"/>
     <sheet name="詳細" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -1011,6 +1011,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>プレイヤーとの当たり判定
+敵との当たり判定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">csvファイルの入出力の実装 </t>
     </r>
@@ -1048,7 +1053,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>済？</t>
+      <t>済</t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1065,35 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-弾とブロックの当たり判定 </t>
+</t>
+    </r>
+    <rPh sb="8" eb="11">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">弾とブロックの当たり判定 </t>
     </r>
     <r>
       <rPr>
@@ -1072,7 +1105,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>済？</t>
+      <t>済</t>
     </r>
     <r>
       <rPr>
@@ -1096,46 +1129,41 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>済？</t>
+      <t>済</t>
     </r>
-    <rPh sb="8" eb="11">
-      <t>ニュウシュツリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+仮プレイヤーの当たり判定</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>スミ</t>
     </rPh>
-    <rPh sb="27" eb="29">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="25" eb="26">
       <t>スミ</t>
     </rPh>
-    <rPh sb="33" eb="34">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
+    <rPh sb="27" eb="28">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
       <t>ア</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="37" eb="39">
       <t>ハンテイ</t>
     </rPh>
-    <rPh sb="46" eb="47">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤーとの当たり判定
-敵との当たり判定</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1699,60 +1727,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1769,6 +1794,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2225,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -2275,88 +2303,88 @@
       <c r="B3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="48" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1">
       <c r="B4" s="42"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1">
       <c r="B5" s="42"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1">
       <c r="B6" s="42"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="11" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -2395,73 +2423,79 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="42"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="42"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="42"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B16" s="43"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="20" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -2501,88 +2535,71 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="41"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="42"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="42"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="42"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="43"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -2599,6 +2616,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2865,7 +2899,7 @@
   <dimension ref="B1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2878,14 +2912,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="17"/>
@@ -2895,11 +2929,11 @@
       <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15">
@@ -2911,11 +2945,11 @@
       <c r="D4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="13">
@@ -2923,9 +2957,9 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="13">
@@ -2933,9 +2967,9 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="13">
@@ -2943,9 +2977,9 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="13">
@@ -2953,9 +2987,9 @@
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="13">
@@ -2963,9 +2997,9 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="13">
@@ -2973,9 +3007,9 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="13">
@@ -2983,9 +3017,9 @@
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="13">
@@ -2993,9 +3027,9 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13">
@@ -3003,9 +3037,9 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="13">
@@ -3013,9 +3047,9 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="13">
@@ -3023,9 +3057,9 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="13">
@@ -3033,9 +3067,9 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="13">
@@ -3043,9 +3077,9 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="13">
@@ -3053,9 +3087,9 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="13">
@@ -3063,9 +3097,9 @@
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13">
@@ -3073,9 +3107,9 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="13">
@@ -3083,9 +3117,9 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="13">
@@ -3093,9 +3127,9 @@
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="13">
@@ -3103,9 +3137,9 @@
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="13">
@@ -3113,9 +3147,9 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="13">
@@ -3123,9 +3157,9 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="13">
@@ -3133,9 +3167,9 @@
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="13">
@@ -3143,9 +3177,9 @@
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="13">
@@ -3153,9 +3187,9 @@
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="13">
@@ -3163,9 +3197,9 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="13">
@@ -3173,9 +3207,9 @@
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="13">
@@ -3183,9 +3217,9 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="13">
@@ -3193,9 +3227,9 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="13">
@@ -3203,9 +3237,9 @@
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="13">
@@ -3213,9 +3247,9 @@
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="13">
@@ -3223,9 +3257,9 @@
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="13">
@@ -3233,9 +3267,9 @@
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="13">
@@ -3243,9 +3277,9 @@
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="13">
@@ -3253,9 +3287,9 @@
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="13">
@@ -3263,9 +3297,9 @@
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="13">
@@ -3273,9 +3307,9 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="13">
@@ -3283,9 +3317,9 @@
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="13">
@@ -3293,9 +3327,9 @@
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="13">
@@ -3303,9 +3337,9 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="13">
@@ -3313,9 +3347,9 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="13">
@@ -3323,9 +3357,9 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="13">
@@ -3333,9 +3367,9 @@
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="13">
@@ -3343,9 +3377,9 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="13">
@@ -3353,9 +3387,9 @@
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="13">
@@ -3363,9 +3397,9 @@
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="13">
@@ -3373,9 +3407,9 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="13">
@@ -3383,9 +3417,9 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="13">
@@ -3393,9 +3427,9 @@
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="13">
@@ -3403,9 +3437,9 @@
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="21"/>
@@ -3439,51 +3473,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="E47:G47"/>
@@ -3491,6 +3480,51 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:C53">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E2CA58-E480-41F8-932B-4D320F2D4E0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF76D3-A2A5-4791-98C6-DEDA950A2635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
     <sheet name="スケジュール" sheetId="8" r:id="rId2"/>
     <sheet name="未実装の処理" sheetId="11" r:id="rId3"/>
-    <sheet name="未実装のモデル" sheetId="12" r:id="rId4"/>
-    <sheet name="操作方法" sheetId="2" r:id="rId5"/>
-    <sheet name="素材一覧" sheetId="5" r:id="rId6"/>
-    <sheet name="詳細" sheetId="9" r:id="rId7"/>
+    <sheet name="操作方法" sheetId="2" r:id="rId4"/>
+    <sheet name="素材一覧" sheetId="5" r:id="rId5"/>
+    <sheet name="テクスチャ一覧" sheetId="14" r:id="rId6"/>
+    <sheet name="モデル一覧" sheetId="13" r:id="rId7"/>
+    <sheet name="未実装のモデル" sheetId="12" r:id="rId8"/>
+    <sheet name="詳細" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -493,6 +495,531 @@
     <rPh sb="13" eb="14">
       <t>スミ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデルの当たり判定</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁・床に当たった時の弾（ブロック）の配置</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクト・パーティクル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面推移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフゲージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の召喚</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップツール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パーティクルツール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング　名前入力</t>
+    <rPh sb="6" eb="10">
+      <t>ナマエニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル　メニュー処理</t>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポーズ処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エネミーの移動処理</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銃</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵A</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵B</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵C</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボスA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボスB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵D</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵E</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁A</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地面B</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地面C</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁B</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁C</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクトA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクトB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾のゲージ</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーとの当たり判定
+敵との当たり判定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草ブロック</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土ブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石ブロック</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>地形モデル</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の攻撃・足場</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アシバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>視点</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>撃つ</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WASD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ENTER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SPACE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左スティック・十字ボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右スティック</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地形</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構造物</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>頭</t>
+    <rPh sb="0" eb="1">
+      <t>アタマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左手</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右手</t>
+    <rPh sb="0" eb="2">
+      <t>ミギテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左足</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリアシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右足</t>
+    <rPh sb="0" eb="2">
+      <t>ミギアシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Player_body.x</t>
+  </si>
+  <si>
+    <t>Player_left_arm.x</t>
+  </si>
+  <si>
+    <t>Player_left_arm.x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Player_left_foot.x</t>
+  </si>
+  <si>
+    <t>Player_right_arm.x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Player_right_foot.x</t>
+  </si>
+  <si>
+    <t>grass000.x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草ブロック 1×1</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土ブロック 1×1</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石ブロック 1×1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>soil000.x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stone000.x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bullet000.x</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -514,6 +1041,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Yu Gothic"/>
         <family val="3"/>
@@ -537,6 +1065,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
@@ -561,6 +1090,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
@@ -615,272 +1145,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>csvの読み込み・書き込み</t>
-    <rPh sb="4" eb="5">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデルの当たり判定</t>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弾</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブロック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>壁・床に当たった時の弾（ブロック）の配置</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弾発射</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エフェクト・パーティクル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面推移</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スイイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ライフゲージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵の召喚</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マップツール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パーティクルツール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランキング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランキング　名前入力</t>
-    <rPh sb="6" eb="10">
-      <t>ナマエニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル　メニュー処理</t>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ポーズ処理</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エネミーの移動処理</t>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>銃</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵A</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵B</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵C</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ボスA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ボスB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵D</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵E</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>壁A</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>地面B</t>
-    <rPh sb="0" eb="2">
-      <t>ジメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>地面C</t>
-    <rPh sb="0" eb="2">
-      <t>ジメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>壁B</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>壁C</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エフェクトA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エフェクトB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ライフ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カメラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弾のゲージ</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">プレイヤーの回転・回転推移の実装 </t>
     </r>
@@ -899,6 +1163,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Yu Gothic"/>
         <family val="3"/>
@@ -922,6 +1187,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Yu Gothic"/>
         <family val="3"/>
@@ -944,6 +1210,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
@@ -1011,11 +1278,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プレイヤーとの当たり判定
-敵との当たり判定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">csvファイルの入出力の実装 </t>
     </r>
@@ -1033,6 +1295,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
@@ -1057,6 +1320,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
@@ -1081,13 +1345,6 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1109,6 +1366,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
@@ -1129,10 +1387,35 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>済</t>
+      <t xml:space="preserve">済
+</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草ブロックの作成 1×1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
@@ -1141,7 +1424,44 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-仮プレイヤーの当たり判定</t>
+仮プレイヤーの当たり判定 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+プレイヤーよブロックの当たり判定 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
     </r>
     <rPh sb="7" eb="8">
       <t>ア</t>
@@ -1156,13 +1476,34 @@
       <t>スミ</t>
     </rPh>
     <rPh sb="27" eb="28">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
       <t>カリ</t>
     </rPh>
-    <rPh sb="34" eb="35">
+    <rPh sb="49" eb="50">
       <t>ア</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="52" eb="54">
       <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1171,7 +1512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1225,14 +1566,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1251,7 +1584,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1296,7 +1656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1622,11 +1982,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1727,51 +2113,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1798,12 +2139,124 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE285"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1839,6 +2292,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFFFE285"/>
       <color rgb="FFF88888"/>
       <color rgb="FFACF6FE"/>
     </mruColors>
@@ -2253,7 +2708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" workbookViewId="0">
       <selection activeCell="E12" sqref="E12:E16"/>
     </sheetView>
   </sheetViews>
@@ -2300,93 +2755,131 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="45" t="s">
+      <c r="J3" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="48" t="s">
-        <v>78</v>
+      <c r="L3" s="59" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="49"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="49"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="50"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="67"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+    </row>
     <row r="11" spans="2:12" ht="20.399999999999999" thickBot="1">
       <c r="B11" s="7">
         <v>45100</v>
@@ -2423,81 +2916,119 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="52"/>
+      <c r="B12" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="42"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="49"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="42"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="49"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="63"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="42"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B16" s="43"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="50"/>
-    </row>
-    <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="67"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+    </row>
+    <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+    </row>
     <row r="20" spans="2:12" ht="20.399999999999999" thickBot="1">
       <c r="B20" s="7">
         <v>45111</v>
@@ -2534,69 +3065,69 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="41"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="52"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="42"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="49"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="63"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="42"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="49"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="63"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="42"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="49"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="43"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="50"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -2642,112 +3173,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7E5AE-160F-450B-971C-941D281FA974}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2757,149 +3275,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35C9-75AF-4587-A9BB-6FF718ECB1B7}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEC8416-3621-4557-8CDA-D6E2CC6057AF}">
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
+    <row r="2" spans="2:6">
+      <c r="B2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEC8416-3621-4557-8CDA-D6E2CC6057AF}">
-  <dimension ref="B2:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="54"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E3:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF075404-624B-4B69-8F57-26B115BE545E}">
   <dimension ref="B1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2912,14 +3411,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="17"/>
@@ -2929,11 +3428,11 @@
       <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15">
@@ -2945,51 +3444,75 @@
       <c r="D4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="13">
@@ -2997,9 +3520,9 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="13">
@@ -3007,9 +3530,9 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="13">
@@ -3017,9 +3540,9 @@
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="13">
@@ -3027,9 +3550,9 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13">
@@ -3037,9 +3560,9 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="13">
@@ -3047,9 +3570,9 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="13">
@@ -3057,9 +3580,9 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="13">
@@ -3067,9 +3590,9 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="13">
@@ -3077,9 +3600,9 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="13">
@@ -3087,9 +3610,9 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="13">
@@ -3097,9 +3620,9 @@
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13">
@@ -3107,9 +3630,9 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="13">
@@ -3117,9 +3640,9 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="13">
@@ -3127,9 +3650,9 @@
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="13">
@@ -3137,9 +3660,9 @@
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="13">
@@ -3147,9 +3670,9 @@
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="13">
@@ -3157,9 +3680,9 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="13">
@@ -3167,9 +3690,9 @@
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="13">
@@ -3177,9 +3700,9 @@
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="13">
@@ -3187,9 +3710,9 @@
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="13">
@@ -3197,9 +3720,9 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="13">
@@ -3207,9 +3730,9 @@
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="13">
@@ -3217,9 +3740,9 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="13">
@@ -3227,9 +3750,9 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="13">
@@ -3237,9 +3760,9 @@
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="13">
@@ -3247,9 +3770,9 @@
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="13">
@@ -3257,9 +3780,9 @@
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="13">
@@ -3267,9 +3790,9 @@
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="13">
@@ -3277,9 +3800,9 @@
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="13">
@@ -3287,9 +3810,9 @@
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="13">
@@ -3297,9 +3820,9 @@
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="13">
@@ -3307,9 +3830,9 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="13">
@@ -3317,9 +3840,9 @@
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="13">
@@ -3327,9 +3850,9 @@
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="13">
@@ -3337,9 +3860,9 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="13">
@@ -3347,9 +3870,9 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="13">
@@ -3357,9 +3880,9 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="13">
@@ -3367,9 +3890,9 @@
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="13">
@@ -3377,9 +3900,9 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="13">
@@ -3387,9 +3910,9 @@
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="13">
@@ -3397,9 +3920,9 @@
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="13">
@@ -3407,9 +3930,9 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="13">
@@ -3417,9 +3940,9 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="13">
@@ -3427,9 +3950,9 @@
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="13">
@@ -3437,9 +3960,9 @@
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="21"/>
@@ -3528,16 +4051,16 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:C53">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"サウンド"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"モデル"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"3D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="2D">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="2D">
       <formula>NOT(ISERROR(SEARCH("2D",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3557,42 +4080,1292 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81ED12A-57EE-499C-8835-D7AAF7A83610}">
-  <dimension ref="B2:B6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734EE494-249A-4514-8C28-9C67237E5299}">
+  <dimension ref="B2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:6">
+      <c r="B2" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="14">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="14">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="14">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="14">
+        <v>16</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="14">
+        <v>17</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="14">
+        <v>18</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="14">
+        <v>19</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="14">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="14">
+        <v>21</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="14">
+        <v>22</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="14">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="14">
+        <v>24</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="14">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="14">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="14">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="14">
+        <v>28</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="14">
+        <v>29</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="14">
+        <v>30</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="14">
+        <v>31</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="14">
+        <v>32</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="14">
+        <v>33</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="14">
+        <v>34</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="14">
+        <v>35</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="14">
+        <v>36</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="14">
+        <v>37</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="14">
+        <v>38</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="14">
+        <v>39</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="14">
+        <v>40</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="14">
+        <v>41</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="14">
+        <v>42</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="14">
+        <v>43</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="14">
+        <v>44</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="14">
+        <v>45</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="14">
+        <v>46</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="14">
+        <v>47</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="14">
+        <v>48</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="14">
+        <v>49</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="14">
+        <v>50</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33585262-3460-4696-818B-42735907EE25}">
+  <dimension ref="B2:G52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="54"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="14">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="14">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="14">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="14">
+        <v>16</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="14">
+        <v>17</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="14">
+        <v>18</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="14">
+        <v>19</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="14">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="14">
+        <v>21</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="14">
+        <v>22</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="14">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="14">
+        <v>24</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="14">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="14">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="14">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="14">
+        <v>28</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="14">
+        <v>29</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="14">
+        <v>30</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="14">
+        <v>31</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="14">
+        <v>32</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="54"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="14">
+        <v>33</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="14">
+        <v>34</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="14">
+        <v>35</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="14">
+        <v>36</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="14">
+        <v>37</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="14">
+        <v>38</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="54"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="14">
+        <v>39</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="14">
+        <v>40</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="14">
+        <v>41</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="54"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="14">
+        <v>42</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="14">
+        <v>43</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="54"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="14">
+        <v>44</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="54"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="14">
+        <v>45</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="54"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="14">
+        <v>46</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="54"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="14">
+        <v>47</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="54"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="14">
+        <v>48</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="14">
+        <v>49</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="14">
+        <v>50</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C3:C52">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="地形">
+      <formula>NOT(ISERROR(SEARCH("地形",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="武器">
+      <formula>NOT(ISERROR(SEARCH("武器",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="キャラクター">
+      <formula>NOT(ISERROR(SEARCH("キャラクター",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="エネミー">
+      <formula>NOT(ISERROR(SEARCH("エネミー",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="エフェクト">
+      <formula>NOT(ISERROR(SEARCH("エフェクト",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="構造物">
+      <formula>NOT(ISERROR(SEARCH("構造物",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97E79784-8AB3-4285-AF0D-FE006946E121}">
+          <x14:formula1>
+            <xm:f>詳細!D$3:D$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C52</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35C9-75AF-4587-A9BB-6FF718ECB1B7}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81ED12A-57EE-499C-8835-D7AAF7A83610}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="3" max="3" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
       <c r="B2" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="13" t="s">
         <v>33</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF76D3-A2A5-4791-98C6-DEDA950A2635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C613B5-7BB8-4393-A5E5-F3004C7BB607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1411,7 +1411,31 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 済</t>
+      <t xml:space="preserve"> 済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">土ブロックの作成 1×1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
     </r>
     <r>
       <rPr>
@@ -1485,24 +1509,27 @@
       <t>スミ</t>
     </rPh>
     <rPh sb="42" eb="43">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
       <t>カリ</t>
     </rPh>
-    <rPh sb="49" eb="50">
+    <rPh sb="64" eb="65">
       <t>ア</t>
     </rPh>
-    <rPh sb="52" eb="54">
+    <rPh sb="67" eb="69">
       <t>ハンテイ</t>
     </rPh>
-    <rPh sb="55" eb="56">
+    <rPh sb="70" eb="71">
       <t>スミ</t>
     </rPh>
-    <rPh sb="68" eb="69">
+    <rPh sb="83" eb="84">
       <t>ア</t>
     </rPh>
-    <rPh sb="71" eb="73">
+    <rPh sb="86" eb="88">
       <t>ハンテイ</t>
     </rPh>
-    <rPh sb="74" eb="75">
+    <rPh sb="89" eb="90">
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C613B5-7BB8-4393-A5E5-F3004C7BB607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5969B0BB-2880-4FD3-834C-EA4EB0BA68DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
     <sheet name="スケジュール" sheetId="8" r:id="rId2"/>
     <sheet name="未実装の処理" sheetId="11" r:id="rId3"/>
     <sheet name="操作方法" sheetId="2" r:id="rId4"/>
-    <sheet name="素材一覧" sheetId="5" r:id="rId5"/>
-    <sheet name="テクスチャ一覧" sheetId="14" r:id="rId6"/>
-    <sheet name="モデル一覧" sheetId="13" r:id="rId7"/>
-    <sheet name="未実装のモデル" sheetId="12" r:id="rId8"/>
-    <sheet name="詳細" sheetId="9" r:id="rId9"/>
+    <sheet name="テクスチャ一覧" sheetId="14" r:id="rId5"/>
+    <sheet name="モデル一覧" sheetId="13" r:id="rId6"/>
+    <sheet name="未実装のモデル" sheetId="12" r:id="rId7"/>
+    <sheet name="詳細" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -301,10 +301,6 @@
     <rPh sb="0" eb="2">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>素材一覧</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -371,20 +367,10 @@
   </si>
   <si>
     <t>2D</t>
-  </si>
-  <si>
-    <t>2D</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>font_000.PNG</t>
-  </si>
-  <si>
-    <t>フォントデータ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -738,65 +724,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プレイヤーとの当たり判定
-敵との当たり判定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>無し</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>草ブロック</t>
-    <rPh sb="0" eb="1">
-      <t>クサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>土ブロック</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>石ブロック</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弾</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデル</t>
-  </si>
-  <si>
-    <t>地形モデル</t>
-    <rPh sb="0" eb="2">
-      <t>チケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵の攻撃・足場</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>アシバ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1344,6 +1274,52 @@
       <t>ハイチ</t>
     </rPh>
     <rPh sb="30" eb="31">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>カメラの平行投影・透視投影の切り替え　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+敵との当たり判定</t>
+    </r>
+    <rPh sb="4" eb="8">
+      <t>ヘイコウトウエイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>トウシトウエイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1473,7 +1449,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-プレイヤーよブロックの当たり判定 </t>
+プレイヤーとブロックの当たり判定 </t>
     </r>
     <r>
       <rPr>
@@ -1683,7 +1659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1934,19 +1910,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2039,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2059,13 +2022,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="6" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="56" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2077,21 +2040,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2140,115 +2095,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2285,33 +2208,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF88888"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFACF6FE"/>
+          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2613,106 +2512,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2736,7 +2635,7 @@
   <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E16"/>
+      <selection activeCell="F12" sqref="F12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -2781,131 +2680,131 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="12" customFormat="1">
-      <c r="B3" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="57" t="s">
+    <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="12" customFormat="1">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
-    </row>
-    <row r="5" spans="2:12" s="12" customFormat="1">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-    </row>
-    <row r="6" spans="2:12" s="12" customFormat="1">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-    </row>
-    <row r="7" spans="2:12" s="12" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
+      <c r="J3" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B5" s="38"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="20.399999999999999" thickBot="1">
       <c r="B11" s="7">
@@ -2942,119 +2841,119 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="70"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="63"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="63"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="63"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="67"/>
+    <row r="12" spans="2:12" ht="19.95" customHeight="1">
+      <c r="B12" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="19.95" customHeight="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="2:12" ht="19.95" customHeight="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="2:12" ht="19.95" customHeight="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="2:12" ht="20.399999999999999" thickBot="1">
       <c r="B20" s="7">
@@ -3092,72 +2991,89 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="70"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="63"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="35"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="63"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="63"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="67"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -3174,23 +3090,6 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3210,89 +3109,89 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3317,13 +3216,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -3335,75 +3234,75 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="39"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+        <v>81</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+        <v>82</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+        <v>83</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+        <v>84</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+        <v>85</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3421,693 +3320,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF075404-624B-4B69-8F57-26B115BE545E}">
-  <dimension ref="B1:G63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="7" width="8.796875" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:7">
-      <c r="B2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="13">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="13">
-        <v>4</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="13">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="13">
-        <v>6</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="13">
-        <v>7</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="13">
-        <v>8</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="13">
-        <v>9</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="13">
-        <v>11</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="13">
-        <v>12</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="13">
-        <v>13</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="13">
-        <v>14</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="13">
-        <v>15</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="13">
-        <v>16</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="13">
-        <v>17</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="13">
-        <v>18</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="13">
-        <v>19</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="13">
-        <v>20</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="13">
-        <v>21</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="13">
-        <v>22</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="13">
-        <v>23</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="13">
-        <v>24</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="13">
-        <v>25</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="13">
-        <v>26</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="13">
-        <v>27</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="13">
-        <v>28</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="13">
-        <v>29</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="13">
-        <v>30</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="13">
-        <v>31</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="13">
-        <v>32</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="13">
-        <v>33</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="13">
-        <v>34</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="13">
-        <v>35</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="13">
-        <v>36</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="13">
-        <v>37</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="13">
-        <v>38</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="13">
-        <v>39</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="13">
-        <v>40</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="13">
-        <v>41</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="13">
-        <v>42</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="13">
-        <v>43</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="13">
-        <v>44</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="13">
-        <v>45</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="13">
-        <v>46</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="13">
-        <v>47</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="13">
-        <v>48</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="13">
-        <v>49</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="13">
-        <v>50</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="21"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="21"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="21"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="21"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="21"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="21"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="21"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="21"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:C53">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"サウンド"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"モデル"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"3D"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="2D">
-      <formula>NOT(ISERROR(SEARCH("2D",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E01551D7-A11E-4CC3-861F-385B64152B5C}">
-          <x14:formula1>
-            <xm:f>詳細!B$3:B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C53</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734EE494-249A-4514-8C28-9C67237E5299}">
   <dimension ref="B2:F52"/>
   <sheetViews>
@@ -4124,19 +3336,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14">
@@ -4597,12 +3809,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33585262-3460-4696-818B-42735907EE25}">
   <dimension ref="B2:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4613,34 +3825,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="54"/>
+        <v>109</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="55"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -4650,135 +3862,135 @@
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="54"/>
+        <v>113</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="54"/>
+        <v>114</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="54"/>
+        <v>115</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="54"/>
+        <v>103</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="14">
         <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="54"/>
+        <v>105</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="54"/>
+      <c r="E9" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="54"/>
+        <v>107</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="54"/>
+        <v>106</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="14">
         <v>10</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="54"/>
+        <v>108</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="14">
@@ -4786,8 +3998,8 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="14">
@@ -4795,8 +4007,8 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="14">
@@ -4804,8 +4016,8 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="14">
@@ -4813,8 +4025,8 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -4822,8 +4034,8 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -4831,8 +4043,8 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -4840,8 +4052,8 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -4849,8 +4061,8 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -4858,8 +4070,8 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -4867,8 +4079,8 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -4876,8 +4088,8 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -4885,8 +4097,8 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -4894,8 +4106,8 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -4903,8 +4115,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -4912,8 +4124,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -4921,8 +4133,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -4930,8 +4142,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -4939,8 +4151,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -4948,8 +4160,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -4957,8 +4169,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -4966,8 +4178,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -4975,8 +4187,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -4984,8 +4196,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="55"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -4993,8 +4205,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -5002,8 +4214,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -5011,8 +4223,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -5020,8 +4232,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -5029,8 +4241,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="55"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -5038,8 +4250,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -5047,8 +4259,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -5056,8 +4268,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -5065,8 +4277,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="55"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -5074,8 +4286,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -5083,8 +4295,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -5092,8 +4304,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="55"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -5101,8 +4313,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -5110,8 +4322,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="55"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -5119,8 +4331,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -5128,8 +4340,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -5137,11 +4349,53 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E52:F52"/>
@@ -5151,68 +4405,26 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C52">
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="地形">
-      <formula>NOT(ISERROR(SEARCH("地形",C3)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="構造物">
+      <formula>NOT(ISERROR(SEARCH("構造物",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="武器">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="エフェクト">
+      <formula>NOT(ISERROR(SEARCH("エフェクト",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="エネミー">
+      <formula>NOT(ISERROR(SEARCH("エネミー",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="キャラクター">
+      <formula>NOT(ISERROR(SEARCH("キャラクター",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="武器">
       <formula>NOT(ISERROR(SEARCH("武器",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="キャラクター">
-      <formula>NOT(ISERROR(SEARCH("キャラクター",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="エネミー">
-      <formula>NOT(ISERROR(SEARCH("エネミー",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="エフェクト">
-      <formula>NOT(ISERROR(SEARCH("エフェクト",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="構造物">
-      <formula>NOT(ISERROR(SEARCH("構造物",C3)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="地形">
+      <formula>NOT(ISERROR(SEARCH("地形",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5232,7 +4444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35C9-75AF-4587-A9BB-6FF718ECB1B7}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -5244,71 +4456,71 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5317,7 +4529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81ED12A-57EE-499C-8835-D7AAF7A83610}">
   <dimension ref="B2:D8"/>
   <sheetViews>
@@ -5333,34 +4545,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>101</v>
+      <c r="B2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -5369,30 +4581,30 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5969B0BB-2880-4FD3-834C-EA4EB0BA68DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECEEDF1-5455-47C5-8451-924C3B85D040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -1274,52 +1274,6 @@
       <t>ハイチ</t>
     </rPh>
     <rPh sb="30" eb="31">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>カメラの平行投影・透視投影の切り替え　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-敵との当たり判定</t>
-    </r>
-    <rPh sb="4" eb="8">
-      <t>ヘイコウトウエイ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>トウシトウエイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1507,6 +1461,219 @@
     </rPh>
     <rPh sb="89" eb="90">
       <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>data\\TEXTURE\\block.png</t>
+  </si>
+  <si>
+    <t>地面</t>
+  </si>
+  <si>
+    <t>壁・北</t>
+  </si>
+  <si>
+    <t>壁・西</t>
+  </si>
+  <si>
+    <t>壁・東</t>
+  </si>
+  <si>
+    <t>壁・南</t>
+  </si>
+  <si>
+    <r>
+      <t>カメラの平行投影・透視投影の切り替え　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プレイヤーとブロックの当たり判定の修正</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">　済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タイムの実装</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+敵との当たり判定 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="4" eb="8">
+      <t>ヘイコウトウエイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>トウシトウエイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮パーティクルの実装
+CSVファイルの修正
+敵の読み込み・配置処理
+モーションの修正</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コントローラの入力修正
+プレイヤー(コントローラ)の入力処理 修正
+マップツールの作成準備</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップツールの作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2002,7 +2169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2166,6 +2333,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2634,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -2852,14 +3022,20 @@
         <v>71</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+        <v>126</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>129</v>
+      </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="34"/>
@@ -3811,10 +3987,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33585262-3460-4696-818B-42735907EE25}">
-  <dimension ref="B2:G52"/>
+  <dimension ref="B2:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3824,7 +4000,7 @@
     <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="16" t="s">
         <v>86</v>
       </c>
@@ -3839,7 +4015,7 @@
       </c>
       <c r="F2" s="57"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:9">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -3856,8 +4032,11 @@
       <c r="G3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="14">
         <v>2</v>
       </c>
@@ -3872,7 +4051,7 @@
       </c>
       <c r="F4" s="55"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -3887,7 +4066,7 @@
       </c>
       <c r="F5" s="55"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:9">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -3902,7 +4081,7 @@
       </c>
       <c r="F6" s="55"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="14">
         <v>5</v>
       </c>
@@ -3917,7 +4096,7 @@
       </c>
       <c r="F7" s="55"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:9">
       <c r="B8" s="14">
         <v>6</v>
       </c>
@@ -3932,7 +4111,7 @@
       </c>
       <c r="F8" s="55"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:9">
       <c r="B9" s="14">
         <v>7</v>
       </c>
@@ -3947,7 +4126,7 @@
       </c>
       <c r="F9" s="55"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:9">
       <c r="B10" s="14">
         <v>8</v>
       </c>
@@ -3962,7 +4141,7 @@
       </c>
       <c r="F10" s="55"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:9">
       <c r="B11" s="14">
         <v>9</v>
       </c>
@@ -3977,7 +4156,7 @@
       </c>
       <c r="F11" s="55"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:9">
       <c r="B12" s="14">
         <v>10</v>
       </c>
@@ -3992,7 +4171,7 @@
       </c>
       <c r="F12" s="55"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:9">
       <c r="B13" s="14">
         <v>11</v>
       </c>
@@ -4001,7 +4180,7 @@
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:9">
       <c r="B14" s="14">
         <v>12</v>
       </c>
@@ -4010,7 +4189,7 @@
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:9">
       <c r="B15" s="14">
         <v>13</v>
       </c>
@@ -4019,7 +4198,7 @@
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:9">
       <c r="B16" s="14">
         <v>14</v>
       </c>
@@ -4531,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81ED12A-57EE-499C-8835-D7AAF7A83610}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4544,7 +4723,7 @@
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:9">
       <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
@@ -4555,7 +4734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:9">
       <c r="B3" s="14" t="s">
         <v>27</v>
       </c>
@@ -4566,7 +4745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:9">
       <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
@@ -4575,7 +4754,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:9">
       <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
@@ -4584,7 +4763,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:9">
       <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
@@ -4593,18 +4772,252 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:9">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:9">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="58">
+        <v>0</v>
+      </c>
+      <c r="D10" s="58">
+        <v>-400</v>
+      </c>
+      <c r="E10" s="58">
+        <v>-40</v>
+      </c>
+      <c r="F10" s="58">
+        <v>-400</v>
+      </c>
+      <c r="G10" s="58">
+        <v>21</v>
+      </c>
+      <c r="H10" s="58">
+        <v>1</v>
+      </c>
+      <c r="I10" s="58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="58">
+        <v>0</v>
+      </c>
+      <c r="D11" s="58">
+        <v>-400</v>
+      </c>
+      <c r="E11" s="58">
+        <v>320</v>
+      </c>
+      <c r="F11" s="58">
+        <v>-440</v>
+      </c>
+      <c r="G11" s="58">
+        <v>21</v>
+      </c>
+      <c r="H11" s="58">
+        <v>1</v>
+      </c>
+      <c r="I11" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="58">
+        <v>0</v>
+      </c>
+      <c r="D12" s="58">
+        <v>-440</v>
+      </c>
+      <c r="E12" s="58">
+        <v>320</v>
+      </c>
+      <c r="F12" s="58">
+        <v>-440</v>
+      </c>
+      <c r="G12" s="58">
+        <v>1</v>
+      </c>
+      <c r="H12" s="58">
+        <v>1</v>
+      </c>
+      <c r="I12" s="58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="58">
+        <v>0</v>
+      </c>
+      <c r="D13" s="58">
+        <v>440</v>
+      </c>
+      <c r="E13" s="58">
+        <v>320</v>
+      </c>
+      <c r="F13" s="58">
+        <v>-440</v>
+      </c>
+      <c r="G13" s="58">
+        <v>1</v>
+      </c>
+      <c r="H13" s="58">
+        <v>1</v>
+      </c>
+      <c r="I13" s="58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="58">
+        <v>0</v>
+      </c>
+      <c r="D14" s="58">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="58">
+        <v>320</v>
+      </c>
+      <c r="F14" s="58">
+        <v>440</v>
+      </c>
+      <c r="G14" s="58">
+        <v>21</v>
+      </c>
+      <c r="H14" s="58">
+        <v>1</v>
+      </c>
+      <c r="I14" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="58">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58">
+        <v>-400</v>
+      </c>
+      <c r="E15" s="58">
+        <v>-40</v>
+      </c>
+      <c r="F15" s="58">
+        <v>-440</v>
+      </c>
+      <c r="G15" s="58">
+        <v>21</v>
+      </c>
+      <c r="H15" s="58">
+        <v>9</v>
+      </c>
+      <c r="I15" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="58">
+        <v>1</v>
+      </c>
+      <c r="D16" s="58">
+        <v>-440</v>
+      </c>
+      <c r="E16" s="58">
+        <v>-40</v>
+      </c>
+      <c r="F16" s="58">
+        <v>-440</v>
+      </c>
+      <c r="G16" s="58">
+        <v>1</v>
+      </c>
+      <c r="H16" s="58">
+        <v>9</v>
+      </c>
+      <c r="I16" s="58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="58">
+        <v>1</v>
+      </c>
+      <c r="D17" s="58">
+        <v>440</v>
+      </c>
+      <c r="E17" s="58">
+        <v>-40</v>
+      </c>
+      <c r="F17" s="58">
+        <v>-440</v>
+      </c>
+      <c r="G17" s="58">
+        <v>1</v>
+      </c>
+      <c r="H17" s="58">
+        <v>9</v>
+      </c>
+      <c r="I17" s="58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="58">
+        <v>1</v>
+      </c>
+      <c r="D18" s="58">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="58">
+        <v>-40</v>
+      </c>
+      <c r="F18" s="58">
+        <v>440</v>
+      </c>
+      <c r="G18" s="58">
+        <v>21</v>
+      </c>
+      <c r="H18" s="58">
+        <v>9</v>
+      </c>
+      <c r="I18" s="58">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECEEDF1-5455-47C5-8451-924C3B85D040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC357816-2D1D-4D0E-A50B-660417CD5712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="詳細" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1483,6 +1482,74 @@
     <t>壁・南</t>
   </si>
   <si>
+    <t>仮パーティクルの実装
+CSVファイルの修正
+敵の読み込み・配置処理
+モーションの修正</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コントローラの入力修正
+プレイヤー(コントローラ)の入力処理 修正
+マップツールの作成準備</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップツールの作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t>カメラの平行投影・透視投影の切り替え　</t>
     </r>
@@ -1557,7 +1624,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-敵との当たり判定 </t>
+敵と弾の当たり判定 </t>
     </r>
     <r>
       <rPr>
@@ -1604,76 +1671,11 @@
     <rPh sb="50" eb="51">
       <t>スミ</t>
     </rPh>
-    <rPh sb="61" eb="62">
+    <rPh sb="54" eb="55">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
       <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仮パーティクルの実装
-CSVファイルの修正
-敵の読み込み・配置処理
-モーションの修正</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コントローラの入力修正
-プレイヤー(コントローラ)の入力処理 修正
-マップツールの作成準備</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マップツールの作成</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2214,6 +2216,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2262,51 +2267,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2333,9 +2338,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2682,106 +2684,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2804,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -2851,91 +2853,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="35"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="38"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="35"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="35"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="39"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="36"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3012,85 +3014,85 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="H12" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="I12" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="35"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="35"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="38"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -3167,89 +3169,72 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="37"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="34"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="38"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="35"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="38"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="35"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="38"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="35"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="36"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -3266,6 +3251,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,13 +3394,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -3410,10 +3412,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
@@ -3425,8 +3427,8 @@
       <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
@@ -3438,8 +3440,8 @@
       <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
@@ -3451,8 +3453,8 @@
       <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
@@ -3464,8 +3466,8 @@
       <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
@@ -3477,8 +3479,8 @@
       <c r="D8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3521,10 +3523,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14">
@@ -4010,10 +4012,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="14">
@@ -4025,10 +4027,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="56"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -4046,10 +4048,10 @@
       <c r="D4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="14">
@@ -4061,10 +4063,10 @@
       <c r="D5" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="14">
@@ -4076,10 +4078,10 @@
       <c r="D6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="14">
@@ -4091,10 +4093,10 @@
       <c r="D7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="14">
@@ -4106,10 +4108,10 @@
       <c r="D8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="14">
@@ -4121,10 +4123,10 @@
       <c r="D9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="14">
@@ -4136,10 +4138,10 @@
       <c r="D10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="14">
@@ -4151,10 +4153,10 @@
       <c r="D11" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="14">
@@ -4166,10 +4168,10 @@
       <c r="D12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="14">
@@ -4177,8 +4179,8 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="14">
@@ -4186,8 +4188,8 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="14">
@@ -4195,8 +4197,8 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="14">
@@ -4204,8 +4206,8 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -4213,8 +4215,8 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -4222,8 +4224,8 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -4231,8 +4233,8 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -4240,8 +4242,8 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -4249,8 +4251,8 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -4258,8 +4260,8 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -4267,8 +4269,8 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -4276,8 +4278,8 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -4285,8 +4287,8 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -4294,8 +4296,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -4303,8 +4305,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -4312,8 +4314,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -4321,8 +4323,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -4330,8 +4332,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -4339,8 +4341,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -4348,8 +4350,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -4357,8 +4359,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -4366,8 +4368,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -4375,8 +4377,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -4384,8 +4386,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -4393,8 +4395,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -4402,8 +4404,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -4411,8 +4413,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -4420,8 +4422,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -4429,8 +4431,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -4438,8 +4440,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -4447,8 +4449,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -4456,8 +4458,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -4465,8 +4467,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="56"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -4474,8 +4476,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -4483,8 +4485,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -4492,8 +4494,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -4501,8 +4503,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -4510,8 +4512,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -4519,8 +4521,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -4528,17 +4530,44 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -4551,39 +4580,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C52">
@@ -4787,236 +4789,236 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="18">
         <v>0</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="18">
         <v>-400</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="18">
         <v>-40</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="18">
         <v>-400</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="18">
         <v>21</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="18">
         <v>1</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="18">
         <v>0</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="18">
         <v>-400</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="18">
         <v>320</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="18">
         <v>-440</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="18">
         <v>21</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="18">
         <v>1</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="18">
         <v>0</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="18">
         <v>-440</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="18">
         <v>320</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="18">
         <v>-440</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="18">
         <v>1</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="18">
         <v>0</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="18">
         <v>440</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="18">
         <v>320</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="18">
         <v>-440</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="18">
         <v>1</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="18">
         <v>0</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="18">
         <v>-400</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="18">
         <v>320</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="18">
         <v>440</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="18">
         <v>21</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="18">
         <v>1</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="18">
         <v>-400</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="18">
         <v>-40</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="18">
         <v>-440</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="18">
         <v>21</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="18">
         <v>9</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="18">
         <v>-440</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="18">
         <v>-40</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="18">
         <v>-440</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="18">
         <v>9</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="18">
         <v>1</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="18">
         <v>440</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="18">
         <v>-40</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="18">
         <v>-440</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="18">
         <v>9</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="18">
         <v>-400</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="18">
         <v>-40</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="18">
         <v>440</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="18">
         <v>21</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="18">
         <v>9</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="18">
         <v>1</v>
       </c>
     </row>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECEEDF1-5455-47C5-8451-924C3B85D040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA78DDE-7859-4871-8189-B8A8C3FFEF2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="詳細" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1610,70 +1609,150 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仮パーティクルの実装
-CSVファイルの修正
-敵の読み込み・配置処理
-モーションの修正</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コントローラの入力修正
-プレイヤー(コントローラ)の入力処理 修正
-マップツールの作成準備</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マップツールの作成</t>
     <rPh sb="7" eb="9">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">仮パーティクルの実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+敵との当たり判定 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+敵の状態推移 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ジョウタイスイイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSVファイルの修正
+敵の読み込み・配置処理
+コントローラの入力修正
+プレイヤー(コントローラ)の入力処理 修正
+モーションの修正
+マップツールの作成準備</t>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジュンビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2214,6 +2293,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2262,51 +2344,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2333,9 +2415,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2682,106 +2761,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2804,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -2851,91 +2930,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="35"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="38"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="35"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="35"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="39"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="36"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3012,85 +3091,85 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="35"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="35"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="38"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -3167,89 +3246,72 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="37"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="34"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="38"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="35"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="38"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="35"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="38"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="35"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="36"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -3266,6 +3328,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,13 +3471,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -3410,10 +3489,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
@@ -3425,8 +3504,8 @@
       <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
@@ -3438,8 +3517,8 @@
       <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
@@ -3451,8 +3530,8 @@
       <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
@@ -3464,8 +3543,8 @@
       <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
@@ -3477,8 +3556,8 @@
       <c r="D8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3521,10 +3600,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14">
@@ -4010,10 +4089,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="14">
@@ -4025,10 +4104,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="56"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -4046,10 +4125,10 @@
       <c r="D4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="14">
@@ -4061,10 +4140,10 @@
       <c r="D5" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="14">
@@ -4076,10 +4155,10 @@
       <c r="D6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="14">
@@ -4091,10 +4170,10 @@
       <c r="D7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="14">
@@ -4106,10 +4185,10 @@
       <c r="D8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="14">
@@ -4121,10 +4200,10 @@
       <c r="D9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="14">
@@ -4136,10 +4215,10 @@
       <c r="D10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="14">
@@ -4151,10 +4230,10 @@
       <c r="D11" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="14">
@@ -4166,10 +4245,10 @@
       <c r="D12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="14">
@@ -4177,8 +4256,8 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="14">
@@ -4186,8 +4265,8 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="14">
@@ -4195,8 +4274,8 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="14">
@@ -4204,8 +4283,8 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -4213,8 +4292,8 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -4222,8 +4301,8 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -4231,8 +4310,8 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -4240,8 +4319,8 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -4249,8 +4328,8 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -4258,8 +4337,8 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -4267,8 +4346,8 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -4276,8 +4355,8 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -4285,8 +4364,8 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -4294,8 +4373,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -4303,8 +4382,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -4312,8 +4391,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -4321,8 +4400,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -4330,8 +4409,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -4339,8 +4418,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -4348,8 +4427,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -4357,8 +4436,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -4366,8 +4445,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -4375,8 +4454,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -4384,8 +4463,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -4393,8 +4472,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -4402,8 +4481,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -4411,8 +4490,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -4420,8 +4499,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -4429,8 +4508,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -4438,8 +4517,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -4447,8 +4526,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -4456,8 +4535,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -4465,8 +4544,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="56"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -4474,8 +4553,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -4483,8 +4562,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -4492,8 +4571,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -4501,8 +4580,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="56"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -4510,8 +4589,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -4519,8 +4598,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -4528,17 +4607,44 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -4551,39 +4657,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C52">
@@ -4787,236 +4866,236 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="18">
         <v>0</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="18">
         <v>-400</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="18">
         <v>-40</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="18">
         <v>-400</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="18">
         <v>21</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="18">
         <v>1</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="18">
         <v>0</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="18">
         <v>-400</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="18">
         <v>320</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="18">
         <v>-440</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="18">
         <v>21</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="18">
         <v>1</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="18">
         <v>0</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="18">
         <v>-440</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="18">
         <v>320</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="18">
         <v>-440</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="18">
         <v>1</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="18">
         <v>0</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="18">
         <v>440</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="18">
         <v>320</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="18">
         <v>-440</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="18">
         <v>1</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="18">
         <v>0</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="18">
         <v>-400</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="18">
         <v>320</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="18">
         <v>440</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="18">
         <v>21</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="18">
         <v>1</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="18">
         <v>-400</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="18">
         <v>-40</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="18">
         <v>-440</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="18">
         <v>21</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="18">
         <v>9</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="18">
         <v>-440</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="18">
         <v>-40</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="18">
         <v>-440</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="18">
         <v>9</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="18">
         <v>1</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="18">
         <v>440</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="18">
         <v>-40</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="18">
         <v>-440</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="18">
         <v>9</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="18">
         <v>-400</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="18">
         <v>-40</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="18">
         <v>440</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="18">
         <v>21</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="18">
         <v>9</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="18">
         <v>1</v>
       </c>
     </row>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA78DDE-7859-4871-8189-B8A8C3FFEF2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3304DE-26DA-41BE-9D56-948BECBF7B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC357816-2D1D-4D0E-A50B-660417CD5712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEAD5E6-8160-4429-83E6-7FDAFC0BA6A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -1482,74 +1482,6 @@
     <t>壁・南</t>
   </si>
   <si>
-    <t>仮パーティクルの実装
-CSVファイルの修正
-敵の読み込み・配置処理
-モーションの修正</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コントローラの入力修正
-プレイヤー(コントローラ)の入力処理 修正
-マップツールの作成準備</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マップツールの作成</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>カメラの平行投影・透視投影の切り替え　</t>
     </r>
@@ -1676,6 +1608,124 @@
     </rPh>
     <rPh sb="62" eb="63">
       <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">エフェクト・パーティクル実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+敵とプレイヤーの当たり判定 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+敵の状態推移 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ジョウタイスイイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">モーションの修正
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップツールの作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コントローラの入力修正
+プレイヤー(コントローラ)の入力処理 修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSVファイルの修正
+敵の読み込み・配置処理
+ブロックのプレハブ作成</t>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1790,7 +1840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1827,6 +1877,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88888"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -2171,7 +2227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2337,6 +2393,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2390,9 +2452,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF88888"/>
+      <color rgb="FFE48578"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFFE285"/>
-      <color rgb="FFF88888"/>
       <color rgb="FFACF6FE"/>
     </mruColors>
   </colors>
@@ -2806,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -2833,10 +2896,10 @@
       <c r="F2" s="8">
         <v>45093</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="59">
         <v>45094</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="59">
         <v>45095</v>
       </c>
       <c r="I2" s="8">
@@ -2982,10 +3045,10 @@
       <c r="B11" s="7">
         <v>45100</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="60">
         <v>45101</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="60">
         <v>45102</v>
       </c>
       <c r="E11" s="7">
@@ -3003,10 +3066,10 @@
       <c r="I11" s="7">
         <v>45107</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="60">
         <v>45108</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="60">
         <v>45109</v>
       </c>
       <c r="L11" s="7">
@@ -3027,20 +3090,24 @@
         <v>119</v>
       </c>
       <c r="F12" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
       <c r="B13" s="39"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEAD5E6-8160-4429-83E6-7FDAFC0BA6A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D3945-D16B-43F4-824A-BBA30C8566F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1612,6 +1612,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t xml:space="preserve">モーションの修正
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップツールの作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コントローラの入力修正
+プレイヤー(コントローラ)の入力処理 修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CSVファイルの修正
+敵の読み込み・配置処理
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">エフェクト・パーティクル実装 </t>
     </r>
@@ -1677,6 +1697,31 @@
       </rPr>
       <t>済</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ブロックのプレハブ作成 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
     <rPh sb="12" eb="14">
       <t>ジッソウ</t>
     </rPh>
@@ -1704,28 +1749,8 @@
     <rPh sb="40" eb="41">
       <t>スミ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">モーションの修正
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マップツールの作成</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コントローラの入力修正
-プレイヤー(コントローラ)の入力処理 修正</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CSVファイルの修正
-敵の読み込み・配置処理
-ブロックのプレハブ作成</t>
-    <rPh sb="32" eb="34">
-      <t>サクセイ</t>
+    <rPh sb="54" eb="55">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2275,6 +2300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2323,6 +2354,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2332,18 +2381,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2356,18 +2399,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2393,12 +2424,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2747,106 +2772,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2869,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -2896,10 +2921,10 @@
       <c r="F2" s="8">
         <v>45093</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="19">
         <v>45094</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="19">
         <v>45095</v>
       </c>
       <c r="I2" s="8">
@@ -2916,91 +2941,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="51" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="39"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="46"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="39"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="46"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="39"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="46"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="40"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="47"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3045,10 +3070,10 @@
       <c r="B11" s="7">
         <v>45100</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="20">
         <v>45101</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="20">
         <v>45102</v>
       </c>
       <c r="E11" s="7">
@@ -3066,10 +3091,10 @@
       <c r="I11" s="7">
         <v>45107</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="20">
         <v>45108</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="20">
         <v>45109</v>
       </c>
       <c r="L11" s="7">
@@ -3077,89 +3102,89 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="41" t="s">
+      <c r="J12" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="49" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="39"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="46"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="39"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="46"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="39"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="46"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="40"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="47"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -3236,72 +3261,89 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="38"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="49"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="39"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="39"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="39"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="46"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="40"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="47"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -3318,23 +3360,6 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3461,13 +3486,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -3479,10 +3504,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
@@ -3494,8 +3519,8 @@
       <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
@@ -3507,8 +3532,8 @@
       <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
@@ -3520,8 +3545,8 @@
       <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
@@ -3533,8 +3558,8 @@
       <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
@@ -3546,8 +3571,8 @@
       <c r="D8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3590,10 +3615,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14">
@@ -4079,10 +4104,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="14">
@@ -4094,10 +4119,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="58"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -4115,10 +4140,10 @@
       <c r="D4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="14">
@@ -4130,10 +4155,10 @@
       <c r="D5" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="14">
@@ -4145,10 +4170,10 @@
       <c r="D6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="14">
@@ -4160,10 +4185,10 @@
       <c r="D7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="14">
@@ -4175,10 +4200,10 @@
       <c r="D8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="14">
@@ -4190,10 +4215,10 @@
       <c r="D9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="14">
@@ -4205,10 +4230,10 @@
       <c r="D10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="14">
@@ -4220,10 +4245,10 @@
       <c r="D11" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="14">
@@ -4235,10 +4260,10 @@
       <c r="D12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="14">
@@ -4246,8 +4271,8 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="14">
@@ -4255,8 +4280,8 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="14">
@@ -4264,8 +4289,8 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="14">
@@ -4273,8 +4298,8 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -4282,8 +4307,8 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -4291,8 +4316,8 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -4300,8 +4325,8 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -4309,8 +4334,8 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -4318,8 +4343,8 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -4327,8 +4352,8 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -4336,8 +4361,8 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -4345,8 +4370,8 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -4354,8 +4379,8 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -4363,8 +4388,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -4372,8 +4397,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -4381,8 +4406,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -4390,8 +4415,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -4399,8 +4424,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -4408,8 +4433,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -4417,8 +4442,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -4426,8 +4451,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -4435,8 +4460,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -4444,8 +4469,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -4453,8 +4478,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -4462,8 +4487,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -4471,8 +4496,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -4480,8 +4505,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -4489,8 +4514,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -4498,8 +4523,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -4507,8 +4532,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -4516,8 +4541,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -4525,8 +4550,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -4534,8 +4559,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="56"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -4543,8 +4568,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="56"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -4552,8 +4577,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -4561,8 +4586,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -4570,8 +4595,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -4579,8 +4604,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="58"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -4588,8 +4613,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="56"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -4597,20 +4622,41 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="56"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -4623,36 +4669,15 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C52">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D3945-D16B-43F4-824A-BBA30C8566F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4E287-A41B-4229-9A86-941E7585F5BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="モデル一覧" sheetId="13" r:id="rId6"/>
     <sheet name="未実装のモデル" sheetId="12" r:id="rId7"/>
     <sheet name="詳細" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -1612,20 +1613,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">モーションの修正
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マップツールの作成</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コントローラの入力修正
-プレイヤー(コントローラ)の入力処理 修正</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">CSVファイルの修正
 敵の読み込み・配置処理
 </t>
@@ -1753,6 +1740,178 @@
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コントローラの入力修正
+プレイヤー(コントローラ)の入力処理 修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">マップツールの仮実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーションの修正</t>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">csvファイルの修正 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マップツールの改良</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 済</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">csvファイルの入出力の改良 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マップツールver1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 完成</t>
+    </r>
+    <rPh sb="8" eb="11">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種類</t>
+  </si>
+  <si>
+    <t>位置 X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>個数 X</t>
+  </si>
+  <si>
+    <t>壁</t>
   </si>
 </sst>
 </file>
@@ -2354,13 +2513,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2373,18 +2532,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2398,6 +2545,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2894,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G16"/>
+    <sheetView topLeftCell="A15" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -2944,88 +3103,88 @@
       <c r="B3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="47" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
       <c r="B4" s="41"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
       <c r="B5" s="41"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
       <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="B7" s="42"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3102,89 +3261,91 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="47" t="s">
         <v>131</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="37" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
       <c r="B13" s="41"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
       <c r="B14" s="41"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
       <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
       <c r="B16" s="42"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -3261,89 +3422,80 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="40"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="37"/>
+      <c r="B21" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="41"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="41"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="41"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="42"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -3360,6 +3512,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4627,12 +4796,39 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -4645,39 +4841,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C52">
@@ -5118,4 +5287,434 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4FAB6-B40A-44AD-8539-65E422CE4514}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18">
+        <v>-320</v>
+      </c>
+      <c r="D2" s="18">
+        <v>-40</v>
+      </c>
+      <c r="E2" s="18">
+        <v>440</v>
+      </c>
+      <c r="F2" s="18">
+        <v>4</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>-320</v>
+      </c>
+      <c r="D3" s="18">
+        <v>160</v>
+      </c>
+      <c r="E3" s="18">
+        <v>440</v>
+      </c>
+      <c r="F3" s="18">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>-440</v>
+      </c>
+      <c r="D4" s="18">
+        <v>320</v>
+      </c>
+      <c r="E4" s="18">
+        <v>440</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>400</v>
+      </c>
+      <c r="D5" s="18">
+        <v>320</v>
+      </c>
+      <c r="E5" s="18">
+        <v>440</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-320</v>
+      </c>
+      <c r="D6" s="18">
+        <v>320</v>
+      </c>
+      <c r="E6" s="18">
+        <v>-440</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-320</v>
+      </c>
+      <c r="D7" s="18">
+        <v>-40</v>
+      </c>
+      <c r="E7" s="18">
+        <v>440</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4</v>
+      </c>
+      <c r="G7" s="18">
+        <v>5</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18">
+        <v>-440</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-40</v>
+      </c>
+      <c r="E8" s="18">
+        <v>440</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>9</v>
+      </c>
+      <c r="H8" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>400</v>
+      </c>
+      <c r="D9" s="18">
+        <v>-40</v>
+      </c>
+      <c r="E9" s="18">
+        <v>440</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
+        <v>9</v>
+      </c>
+      <c r="H9" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="18">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-320</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-40</v>
+      </c>
+      <c r="E10" s="18">
+        <v>-440</v>
+      </c>
+      <c r="F10" s="18">
+        <v>4</v>
+      </c>
+      <c r="G10" s="18">
+        <v>9</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-320</v>
+      </c>
+      <c r="D11" s="18">
+        <v>160</v>
+      </c>
+      <c r="E11" s="18">
+        <v>640</v>
+      </c>
+      <c r="F11" s="18">
+        <v>4</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-360</v>
+      </c>
+      <c r="D12" s="18">
+        <v>160</v>
+      </c>
+      <c r="E12" s="18">
+        <v>400</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="18">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18">
+        <v>-360</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>400</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>4</v>
+      </c>
+      <c r="H13" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
+        <v>-240</v>
+      </c>
+      <c r="D14" s="18">
+        <v>120</v>
+      </c>
+      <c r="E14" s="18">
+        <v>-400</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="18">
+        <v>4</v>
+      </c>
+      <c r="C15" s="18">
+        <v>-240</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>400</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>3</v>
+      </c>
+      <c r="H15" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>-40</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>400</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4E287-A41B-4229-9A86-941E7585F5BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196C0C9-47E5-4E49-818B-F4633FFA8ED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -920,20 +920,6 @@
   </si>
   <si>
     <t>grass000.x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>草ブロック 1×1</t>
-    <rPh sb="0" eb="1">
-      <t>クサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>土ブロック 1×1</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1912,6 +1898,148 @@
   </si>
   <si>
     <t>壁</t>
+  </si>
+  <si>
+    <t>grass001.x</t>
+  </si>
+  <si>
+    <t>grass002.x</t>
+  </si>
+  <si>
+    <t>grass003.x</t>
+  </si>
+  <si>
+    <t>grass004.x</t>
+  </si>
+  <si>
+    <t>soil001.x</t>
+  </si>
+  <si>
+    <t>soil002.x</t>
+  </si>
+  <si>
+    <t>soil003.x</t>
+  </si>
+  <si>
+    <t>soil004.x</t>
+  </si>
+  <si>
+    <t>土ブロック 1×1×1</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土ブロック 3×1×1</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土ブロック 5×1×1</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土ブロック 1×1×3</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土ブロック 1×1×5</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>soil005.x</t>
+  </si>
+  <si>
+    <t>soil006.x</t>
+  </si>
+  <si>
+    <t>土ブロック 5×5×1</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土ブロック 3×3×1</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+  </si>
+  <si>
+    <t>エフェクト</t>
+  </si>
+  <si>
+    <t>Ghost999.x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮エネミー</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Effct000.x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>粒子</t>
+    <rPh sb="0" eb="2">
+      <t>リュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草ブロック 5×5×1</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草ブロック 3×3×1</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草ブロック 5×1×1</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草ブロック 3×1×1</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草ブロック 1×1×1</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2589,7 +2717,133 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE285"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE285"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE285"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3125,13 +3379,13 @@
         <v>34</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
@@ -3262,7 +3516,7 @@
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
       <c r="B12" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>71</v>
@@ -3271,28 +3525,28 @@
         <v>71</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F12" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="43" t="s">
-        <v>128</v>
-      </c>
       <c r="H12" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="47" t="s">
         <v>129</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
@@ -3423,19 +3677,19 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
@@ -4250,10 +4504,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33585262-3460-4696-818B-42735907EE25}">
-  <dimension ref="B2:I52"/>
+  <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4263,7 +4517,7 @@
     <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:11">
       <c r="B2" s="16" t="s">
         <v>86</v>
       </c>
@@ -4278,7 +4532,7 @@
       </c>
       <c r="F2" s="60"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:11">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -4289,17 +4543,17 @@
         <v>109</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3">
         <v>0.25</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="14">
         <v>2</v>
       </c>
@@ -4307,14 +4561,14 @@
         <v>90</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="F4" s="58"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:11">
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -4322,215 +4576,365 @@
         <v>90</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F5" s="58"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:11">
       <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="F6" s="58"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="F7" s="58"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="H7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="14">
         <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="F8" s="58"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="H8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="H9" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="58"/>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="I9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="H10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="58"/>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="I10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="H11" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="I11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="14">
         <v>10</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="H12" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="58"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="I12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="57"/>
+      <c r="C13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>155</v>
+      </c>
       <c r="F13" s="58"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="H13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="14">
         <v>12</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>154</v>
+      </c>
       <c r="F14" s="58"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="H14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="14">
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="57"/>
+      <c r="C15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>38</v>
+      </c>
       <c r="F15" s="58"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:11">
       <c r="B16" s="14">
         <v>14</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="57"/>
+      <c r="C16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>97</v>
+      </c>
       <c r="F16" s="58"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
         <v>15</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="57"/>
+      <c r="C17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="F17" s="58"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="57"/>
+      <c r="C18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>99</v>
+      </c>
       <c r="F18" s="58"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
         <v>17</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="57"/>
+      <c r="C19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>100</v>
+      </c>
       <c r="F19" s="58"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
         <v>18</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="57"/>
+      <c r="C20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>101</v>
+      </c>
       <c r="F20" s="58"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
         <v>19</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="57"/>
+      <c r="C21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>102</v>
+      </c>
       <c r="F21" s="58"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
         <v>20</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="57"/>
+      <c r="C22" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>159</v>
+      </c>
       <c r="F22" s="58"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
         <v>21</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="57"/>
+      <c r="C23" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>161</v>
+      </c>
       <c r="F23" s="58"/>
     </row>
     <row r="24" spans="2:6">
@@ -4795,7 +5199,16 @@
       <c r="F52" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="60">
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E52:F52"/>
@@ -4849,24 +5262,84 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C3:C52">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="構造物">
+  <conditionalFormatting sqref="C3:C7 C9:C14 C22:C52">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="構造物">
       <formula>NOT(ISERROR(SEARCH("構造物",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="エフェクト">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="エフェクト">
       <formula>NOT(ISERROR(SEARCH("エフェクト",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="エネミー">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="エネミー">
       <formula>NOT(ISERROR(SEARCH("エネミー",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="キャラクター">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="キャラクター">
       <formula>NOT(ISERROR(SEARCH("キャラクター",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="武器">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="武器">
       <formula>NOT(ISERROR(SEARCH("武器",C3)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="地形">
+      <formula>NOT(ISERROR(SEARCH("地形",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H14">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="構造物">
+      <formula>NOT(ISERROR(SEARCH("構造物",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="エフェクト">
+      <formula>NOT(ISERROR(SEARCH("エフェクト",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="エネミー">
+      <formula>NOT(ISERROR(SEARCH("エネミー",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="キャラクター">
+      <formula>NOT(ISERROR(SEARCH("キャラクター",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="武器">
+      <formula>NOT(ISERROR(SEARCH("武器",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="地形">
+      <formula>NOT(ISERROR(SEARCH("地形",H6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="構造物">
+      <formula>NOT(ISERROR(SEARCH("構造物",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="エフェクト">
+      <formula>NOT(ISERROR(SEARCH("エフェクト",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="エネミー">
+      <formula>NOT(ISERROR(SEARCH("エネミー",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="キャラクター">
+      <formula>NOT(ISERROR(SEARCH("キャラクター",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="武器">
+      <formula>NOT(ISERROR(SEARCH("武器",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="地形">
+      <formula>NOT(ISERROR(SEARCH("地形",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C21">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="構造物">
+      <formula>NOT(ISERROR(SEARCH("構造物",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="エフェクト">
+      <formula>NOT(ISERROR(SEARCH("エフェクト",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="エネミー">
+      <formula>NOT(ISERROR(SEARCH("エネミー",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="キャラクター">
+      <formula>NOT(ISERROR(SEARCH("キャラクター",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="武器">
+      <formula>NOT(ISERROR(SEARCH("武器",C15)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="地形">
-      <formula>NOT(ISERROR(SEARCH("地形",C3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("地形",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4878,7 +5351,7 @@
           <x14:formula1>
             <xm:f>詳細!D$3:D$20</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C52</xm:sqref>
+          <xm:sqref>H6:H14 C3:C52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4976,7 +5449,7 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5050,238 +5523,94 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
-        <v>-400</v>
-      </c>
-      <c r="E10" s="18">
-        <v>-40</v>
-      </c>
-      <c r="F10" s="18">
-        <v>-400</v>
-      </c>
-      <c r="G10" s="18">
-        <v>21</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1</v>
-      </c>
-      <c r="I10" s="18">
-        <v>21</v>
-      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
-        <v>-400</v>
-      </c>
-      <c r="E11" s="18">
-        <v>320</v>
-      </c>
-      <c r="F11" s="18">
-        <v>-440</v>
-      </c>
-      <c r="G11" s="18">
-        <v>21</v>
-      </c>
-      <c r="H11" s="18">
-        <v>1</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
-        <v>-440</v>
-      </c>
-      <c r="E12" s="18">
-        <v>320</v>
-      </c>
-      <c r="F12" s="18">
-        <v>-440</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
-        <v>1</v>
-      </c>
-      <c r="I12" s="18">
-        <v>23</v>
-      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
-        <v>440</v>
-      </c>
-      <c r="E13" s="18">
-        <v>320</v>
-      </c>
-      <c r="F13" s="18">
-        <v>-440</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
-        <v>23</v>
-      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18">
-        <v>-400</v>
-      </c>
-      <c r="E14" s="18">
-        <v>320</v>
-      </c>
-      <c r="F14" s="18">
-        <v>440</v>
-      </c>
-      <c r="G14" s="18">
-        <v>21</v>
-      </c>
-      <c r="H14" s="18">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1</v>
-      </c>
-      <c r="D15" s="18">
-        <v>-400</v>
-      </c>
-      <c r="E15" s="18">
-        <v>-40</v>
-      </c>
-      <c r="F15" s="18">
-        <v>-440</v>
-      </c>
-      <c r="G15" s="18">
-        <v>21</v>
-      </c>
-      <c r="H15" s="18">
-        <v>9</v>
-      </c>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1</v>
-      </c>
-      <c r="D16" s="18">
-        <v>-440</v>
-      </c>
-      <c r="E16" s="18">
-        <v>-40</v>
-      </c>
-      <c r="F16" s="18">
-        <v>-440</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18">
-        <v>9</v>
-      </c>
-      <c r="I16" s="18">
-        <v>23</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="18">
-        <v>440</v>
-      </c>
-      <c r="E17" s="18">
-        <v>-40</v>
-      </c>
-      <c r="F17" s="18">
-        <v>-440</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18">
-        <v>9</v>
-      </c>
-      <c r="I17" s="18">
-        <v>23</v>
-      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="18">
-        <v>-400</v>
-      </c>
-      <c r="E18" s="18">
-        <v>-40</v>
-      </c>
-      <c r="F18" s="18">
-        <v>440</v>
-      </c>
-      <c r="G18" s="18">
-        <v>21</v>
-      </c>
-      <c r="H18" s="18">
-        <v>9</v>
-      </c>
-      <c r="I18" s="18">
-        <v>1</v>
-      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5293,8 +5622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4FAB6-B40A-44AD-8539-65E422CE4514}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5302,30 +5631,30 @@
     <row r="1" spans="1:8">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="G1" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="18">
         <v>2</v>
@@ -5351,7 +5680,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
@@ -5377,7 +5706,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -5403,7 +5732,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -5429,7 +5758,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
@@ -5455,7 +5784,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="18">
         <v>5</v>
@@ -5481,7 +5810,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="18">
         <v>3</v>
@@ -5507,7 +5836,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="18">
         <v>3</v>
@@ -5533,7 +5862,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="18">
         <v>5</v>
@@ -5559,7 +5888,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="18">
         <v>2</v>
@@ -5585,7 +5914,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
@@ -5611,7 +5940,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" s="18">
         <v>4</v>
@@ -5637,7 +5966,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="18">
         <v>1</v>
@@ -5663,7 +5992,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="18">
         <v>4</v>
@@ -5689,7 +6018,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B16" s="18">
         <v>0</v>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196C0C9-47E5-4E49-818B-F4633FFA8ED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B15109F-9748-42BB-A501-024858165243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -923,15 +923,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>石ブロック 1×1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>soil000.x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>stone000.x</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1451,9 +1443,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>data\\TEXTURE\\block.png</t>
-  </si>
-  <si>
     <t>地面</t>
   </si>
   <si>
@@ -1965,13 +1954,6 @@
     <t>soil006.x</t>
   </si>
   <si>
-    <t>土ブロック 5×5×1</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>土ブロック 3×3×1</t>
     <rPh sb="0" eb="1">
       <t>ツチ</t>
@@ -2038,6 +2020,26 @@
     <t>草ブロック 1×1×1</t>
     <rPh sb="0" eb="1">
       <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>soil007.x</t>
+  </si>
+  <si>
+    <t>soil008.x</t>
+  </si>
+  <si>
+    <t>土ブロック 5×1×5</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土ブロック 3×1×3</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2539,7 +2541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2713,11 +2715,183 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE285"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE285"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE285"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE285"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3379,13 +3553,13 @@
         <v>34</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
@@ -3516,7 +3690,7 @@
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
       <c r="B12" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>71</v>
@@ -3525,28 +3699,28 @@
         <v>71</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
@@ -3677,19 +3851,19 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
@@ -4507,7 +4681,7 @@
   <dimension ref="B2:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4543,15 +4717,12 @@
         <v>109</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3">
         <v>0.25</v>
       </c>
-      <c r="I3" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="14">
@@ -4561,10 +4732,10 @@
         <v>90</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F4" s="58"/>
     </row>
@@ -4576,10 +4747,10 @@
         <v>90</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F5" s="58"/>
     </row>
@@ -4591,16 +4762,16 @@
         <v>90</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F6" s="58"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -4610,22 +4781,16 @@
         <v>90</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="58"/>
-      <c r="H7" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="58"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -4635,22 +4800,16 @@
         <v>90</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F8" s="58"/>
-      <c r="H8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="58"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -4660,22 +4819,16 @@
         <v>90</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F9" s="58"/>
-      <c r="H9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="58"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -4685,22 +4838,16 @@
         <v>90</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F10" s="58"/>
-      <c r="H10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="58"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -4710,22 +4857,16 @@
         <v>90</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F11" s="58"/>
-      <c r="H11" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="58"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -4735,22 +4876,16 @@
         <v>90</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F12" s="58"/>
-      <c r="H12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="58"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -4760,22 +4895,16 @@
         <v>90</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F13" s="58"/>
-      <c r="H13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="58"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -4785,35 +4914,29 @@
         <v>90</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F14" s="58"/>
-      <c r="H14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="58"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
         <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="F15" s="58"/>
     </row>
@@ -4822,13 +4945,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F16" s="58"/>
     </row>
@@ -4837,13 +4960,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F17" s="58"/>
     </row>
@@ -4855,10 +4978,10 @@
         <v>92</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" s="58"/>
     </row>
@@ -4870,10 +4993,10 @@
         <v>92</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="58"/>
     </row>
@@ -4885,10 +5008,10 @@
         <v>92</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" s="58"/>
     </row>
@@ -4900,10 +5023,10 @@
         <v>92</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="58"/>
     </row>
@@ -4912,13 +5035,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="F22" s="58"/>
     </row>
@@ -4927,13 +5050,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="F23" s="58"/>
     </row>
@@ -4941,18 +5064,30 @@
       <c r="B24" s="14">
         <v>22</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="57"/>
+      <c r="C24" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>155</v>
+      </c>
       <c r="F24" s="58"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
         <v>23</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="57"/>
+      <c r="C25" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>157</v>
+      </c>
       <c r="F25" s="58"/>
     </row>
     <row r="26" spans="2:6">
@@ -5262,27 +5397,67 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C3:C7 C9:C14 C22:C52">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="構造物">
+  <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="構造物">
       <formula>NOT(ISERROR(SEARCH("構造物",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="エフェクト">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="エフェクト">
       <formula>NOT(ISERROR(SEARCH("エフェクト",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="エネミー">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="エネミー">
       <formula>NOT(ISERROR(SEARCH("エネミー",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="キャラクター">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="キャラクター">
       <formula>NOT(ISERROR(SEARCH("キャラクター",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="武器">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="武器">
       <formula>NOT(ISERROR(SEARCH("武器",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="地形">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="地形">
       <formula>NOT(ISERROR(SEARCH("地形",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H14">
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="構造物">
+      <formula>NOT(ISERROR(SEARCH("構造物",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="エフェクト">
+      <formula>NOT(ISERROR(SEARCH("エフェクト",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="エネミー">
+      <formula>NOT(ISERROR(SEARCH("エネミー",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="キャラクター">
+      <formula>NOT(ISERROR(SEARCH("キャラクター",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="武器">
+      <formula>NOT(ISERROR(SEARCH("武器",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="地形">
+      <formula>NOT(ISERROR(SEARCH("地形",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H14">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="構造物">
+      <formula>NOT(ISERROR(SEARCH("構造物",H13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="エフェクト">
+      <formula>NOT(ISERROR(SEARCH("エフェクト",H13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="エネミー">
+      <formula>NOT(ISERROR(SEARCH("エネミー",H13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="キャラクター">
+      <formula>NOT(ISERROR(SEARCH("キャラクター",H13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="武器">
+      <formula>NOT(ISERROR(SEARCH("武器",H13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="地形">
+      <formula>NOT(ISERROR(SEARCH("地形",H13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H12">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="構造物">
       <formula>NOT(ISERROR(SEARCH("構造物",H6)))</formula>
     </cfRule>
@@ -5302,44 +5477,44 @@
       <formula>NOT(ISERROR(SEARCH("地形",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C24:C25">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="構造物">
-      <formula>NOT(ISERROR(SEARCH("構造物",C8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("構造物",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="エフェクト">
-      <formula>NOT(ISERROR(SEARCH("エフェクト",C8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("エフェクト",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="エネミー">
-      <formula>NOT(ISERROR(SEARCH("エネミー",C8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("エネミー",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="キャラクター">
-      <formula>NOT(ISERROR(SEARCH("キャラクター",C8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("キャラクター",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="武器">
-      <formula>NOT(ISERROR(SEARCH("武器",C8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("武器",C24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="地形">
-      <formula>NOT(ISERROR(SEARCH("地形",C8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("地形",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C21">
+  <conditionalFormatting sqref="C17:C23">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="構造物">
-      <formula>NOT(ISERROR(SEARCH("構造物",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("構造物",C17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="エフェクト">
-      <formula>NOT(ISERROR(SEARCH("エフェクト",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("エフェクト",C17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="エネミー">
-      <formula>NOT(ISERROR(SEARCH("エネミー",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("エネミー",C17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="キャラクター">
-      <formula>NOT(ISERROR(SEARCH("キャラクター",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("キャラクター",C17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="武器">
-      <formula>NOT(ISERROR(SEARCH("武器",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("武器",C17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="地形">
-      <formula>NOT(ISERROR(SEARCH("地形",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("地形",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5631,30 +5806,30 @@
     <row r="1" spans="1:8">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="G1" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" s="18">
         <v>2</v>
@@ -5680,7 +5855,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
@@ -5706,7 +5881,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -5732,7 +5907,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -5758,7 +5933,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
@@ -5784,7 +5959,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="18">
         <v>5</v>
@@ -5810,7 +5985,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="18">
         <v>3</v>
@@ -5836,7 +6011,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="18">
         <v>3</v>
@@ -5862,7 +6037,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="18">
         <v>5</v>
@@ -5888,7 +6063,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B11" s="18">
         <v>2</v>
@@ -5914,7 +6089,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B12" s="18">
         <v>1</v>
@@ -5940,7 +6115,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" s="18">
         <v>4</v>
@@ -5966,7 +6141,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B14" s="18">
         <v>1</v>
@@ -5992,7 +6167,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15" s="18">
         <v>4</v>
@@ -6018,7 +6193,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B16" s="18">
         <v>0</v>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B15109F-9748-42BB-A501-024858165243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C41195-480A-44D4-8CB6-6B244F880F1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="モデル一覧" sheetId="13" r:id="rId6"/>
     <sheet name="未実装のモデル" sheetId="12" r:id="rId7"/>
     <sheet name="詳細" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -1443,21 +1442,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>地面</t>
-  </si>
-  <si>
-    <t>壁・北</t>
-  </si>
-  <si>
-    <t>壁・西</t>
-  </si>
-  <si>
-    <t>壁・東</t>
-  </si>
-  <si>
-    <t>壁・南</t>
-  </si>
-  <si>
     <r>
       <t>カメラの平行投影・透視投影の切り替え　</t>
     </r>
@@ -1869,24 +1853,6 @@
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>位置 X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>個数 X</t>
-  </si>
-  <si>
-    <t>壁</t>
   </si>
   <si>
     <t>grass001.x</t>
@@ -2595,6 +2561,7 @@
     <xf numFmtId="56" fontId="6" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2643,36 +2610,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2685,7 +2622,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2703,6 +2670,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2715,99 +2685,11 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE285"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE285"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -3359,106 +3241,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3528,91 +3410,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="41"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="41"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="48"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="42"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="49"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3689,91 +3571,91 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="41"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="48"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="41"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="48"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="48"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="49"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -3850,80 +3732,97 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="51"/>
+      <c r="B21" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="41"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="48"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="39"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="41"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="48"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="41"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="48"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="42"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="49"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -3940,23 +3839,6 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4083,13 +3965,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -4101,10 +3983,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
@@ -4116,8 +3998,8 @@
       <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
@@ -4129,8 +4011,8 @@
       <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
@@ -4142,8 +4024,8 @@
       <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
@@ -4155,8 +4037,8 @@
       <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
@@ -4168,8 +4050,8 @@
       <c r="D8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4212,10 +4094,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14">
@@ -4681,7 +4563,7 @@
   <dimension ref="B2:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4701,14 +4583,14 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>90</v>
@@ -4716,85 +4598,85 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="58"/>
+      <c r="E3" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="60"/>
       <c r="G3">
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="58"/>
+        <v>125</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="58"/>
+        <v>126</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="58"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+        <v>127</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="58"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+        <v>128</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>90</v>
@@ -4802,162 +4684,162 @@
       <c r="D8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="58"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="E8" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="58"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+        <v>129</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="58"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+        <v>130</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+        <v>132</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+        <v>138</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+        <v>139</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="58"/>
+        <v>152</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="58"/>
+        <v>153</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>91</v>
@@ -4965,14 +4847,14 @@
       <c r="D17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>92</v>
@@ -4980,14 +4862,14 @@
       <c r="D18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>92</v>
@@ -4995,14 +4877,14 @@
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>92</v>
@@ -5010,14 +4892,14 @@
       <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>92</v>
@@ -5025,14 +4907,14 @@
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>92</v>
@@ -5040,14 +4922,14 @@
       <c r="D22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>92</v>
@@ -5055,304 +4937,316 @@
       <c r="D23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="58"/>
+        <v>143</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="58"/>
+        <v>145</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="60"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="60"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="60"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="60"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="60"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="60"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="60"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="58"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="60"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="60"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -5365,75 +5259,63 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="構造物">
+    <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="構造物">
       <formula>NOT(ISERROR(SEARCH("構造物",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="エフェクト">
+    <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="エフェクト">
       <formula>NOT(ISERROR(SEARCH("エフェクト",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="エネミー">
+    <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="エネミー">
       <formula>NOT(ISERROR(SEARCH("エネミー",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="キャラクター">
+    <cfRule type="containsText" dxfId="32" priority="46" operator="containsText" text="キャラクター">
       <formula>NOT(ISERROR(SEARCH("キャラクター",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="武器">
+    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="武器">
       <formula>NOT(ISERROR(SEARCH("武器",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="地形">
+    <cfRule type="containsText" dxfId="30" priority="48" operator="containsText" text="地形">
       <formula>NOT(ISERROR(SEARCH("地形",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="構造物">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="構造物">
       <formula>NOT(ISERROR(SEARCH("構造物",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="エフェクト">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="エフェクト">
       <formula>NOT(ISERROR(SEARCH("エフェクト",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="エネミー">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="エネミー">
       <formula>NOT(ISERROR(SEARCH("エネミー",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="キャラクター">
+    <cfRule type="containsText" dxfId="26" priority="34" operator="containsText" text="キャラクター">
       <formula>NOT(ISERROR(SEARCH("キャラクター",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="武器">
+    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="武器">
       <formula>NOT(ISERROR(SEARCH("武器",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="地形">
+    <cfRule type="containsText" dxfId="24" priority="36" operator="containsText" text="地形">
       <formula>NOT(ISERROR(SEARCH("地形",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5539,7 +5421,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5624,7 +5506,7 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5791,434 +5673,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4FAB6-B40A-44AD-8539-65E422CE4514}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="18">
-        <v>2</v>
-      </c>
-      <c r="C2" s="18">
-        <v>-320</v>
-      </c>
-      <c r="D2" s="18">
-        <v>-40</v>
-      </c>
-      <c r="E2" s="18">
-        <v>440</v>
-      </c>
-      <c r="F2" s="18">
-        <v>4</v>
-      </c>
-      <c r="G2" s="18">
-        <v>1</v>
-      </c>
-      <c r="H2" s="18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="18">
-        <v>2</v>
-      </c>
-      <c r="C3" s="18">
-        <v>-320</v>
-      </c>
-      <c r="D3" s="18">
-        <v>160</v>
-      </c>
-      <c r="E3" s="18">
-        <v>440</v>
-      </c>
-      <c r="F3" s="18">
-        <v>4</v>
-      </c>
-      <c r="G3" s="18">
-        <v>1</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>-440</v>
-      </c>
-      <c r="D4" s="18">
-        <v>320</v>
-      </c>
-      <c r="E4" s="18">
-        <v>440</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="18">
-        <v>1</v>
-      </c>
-      <c r="H4" s="18">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="18">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18">
-        <v>400</v>
-      </c>
-      <c r="D5" s="18">
-        <v>320</v>
-      </c>
-      <c r="E5" s="18">
-        <v>440</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18">
-        <v>-320</v>
-      </c>
-      <c r="D6" s="18">
-        <v>320</v>
-      </c>
-      <c r="E6" s="18">
-        <v>-440</v>
-      </c>
-      <c r="F6" s="18">
-        <v>4</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="18">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18">
-        <v>-320</v>
-      </c>
-      <c r="D7" s="18">
-        <v>-40</v>
-      </c>
-      <c r="E7" s="18">
-        <v>440</v>
-      </c>
-      <c r="F7" s="18">
-        <v>4</v>
-      </c>
-      <c r="G7" s="18">
-        <v>5</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="18">
-        <v>3</v>
-      </c>
-      <c r="C8" s="18">
-        <v>-440</v>
-      </c>
-      <c r="D8" s="18">
-        <v>-40</v>
-      </c>
-      <c r="E8" s="18">
-        <v>440</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
-        <v>9</v>
-      </c>
-      <c r="H8" s="18">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="18">
-        <v>3</v>
-      </c>
-      <c r="C9" s="18">
-        <v>400</v>
-      </c>
-      <c r="D9" s="18">
-        <v>-40</v>
-      </c>
-      <c r="E9" s="18">
-        <v>440</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18">
-        <v>9</v>
-      </c>
-      <c r="H9" s="18">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="18">
-        <v>5</v>
-      </c>
-      <c r="C10" s="18">
-        <v>-320</v>
-      </c>
-      <c r="D10" s="18">
-        <v>-40</v>
-      </c>
-      <c r="E10" s="18">
-        <v>-440</v>
-      </c>
-      <c r="F10" s="18">
-        <v>4</v>
-      </c>
-      <c r="G10" s="18">
-        <v>9</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2</v>
-      </c>
-      <c r="C11" s="18">
-        <v>-320</v>
-      </c>
-      <c r="D11" s="18">
-        <v>160</v>
-      </c>
-      <c r="E11" s="18">
-        <v>640</v>
-      </c>
-      <c r="F11" s="18">
-        <v>4</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18">
-        <v>-360</v>
-      </c>
-      <c r="D12" s="18">
-        <v>160</v>
-      </c>
-      <c r="E12" s="18">
-        <v>400</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="18">
-        <v>4</v>
-      </c>
-      <c r="C13" s="18">
-        <v>-360</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>400</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>4</v>
-      </c>
-      <c r="H13" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="18">
-        <v>-240</v>
-      </c>
-      <c r="D14" s="18">
-        <v>120</v>
-      </c>
-      <c r="E14" s="18">
-        <v>-400</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="18">
-        <v>4</v>
-      </c>
-      <c r="C15" s="18">
-        <v>-240</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>400</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
-        <v>3</v>
-      </c>
-      <c r="H15" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="18">
-        <v>0</v>
-      </c>
-      <c r="C16" s="18">
-        <v>-40</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <v>400</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C41195-480A-44D4-8CB6-6B244F880F1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E21B94-9C19-4BE5-AF51-25463B3676E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="159">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -1708,11 +1708,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コントローラの入力修正
-プレイヤー(コントローラ)の入力処理 修正</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">マップツールの仮実装 </t>
     </r>
@@ -1736,13 +1731,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モーションの修正</t>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2007,6 +1995,112 @@
     <rPh sb="0" eb="1">
       <t>ツチ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>バグ修正　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一部修正</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>バグ修正　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一部修正</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>バグ修正　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一部修正</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>バグ修正　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済
+exe開けるようになった</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+コントローラの入力修正
+プレイヤー(コントローラ)の入力処理 修正</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2610,6 +2704,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2622,37 +2746,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2670,9 +2764,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2684,6 +2775,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3363,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C25"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="73" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -3410,91 +3504,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="38" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="48" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
       <c r="B4" s="42"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
       <c r="B5" s="42"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
       <c r="B6" s="42"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="B7" s="43"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3571,13 +3665,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="51" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="38" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="44" t="s">
@@ -3598,64 +3692,64 @@
       <c r="J12" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="38" t="s">
-        <v>121</v>
+      <c r="L12" s="48" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
       <c r="B13" s="42"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
       <c r="B14" s="42"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
       <c r="B15" s="42"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
       <c r="B16" s="43"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -3732,97 +3826,88 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="41" t="s">
-        <v>123</v>
+      <c r="B21" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47" t="s">
         <v>122</v>
       </c>
+      <c r="D21" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>156</v>
+      </c>
       <c r="H21" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
+        <v>157</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="42"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="42"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="42"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="43"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -3839,6 +3924,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3851,7 +3953,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4562,7 +4664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33585262-3460-4696-818B-42735907EE25}">
   <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -4583,10 +4685,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -4598,10 +4700,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="60"/>
+      <c r="E3" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="59"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -4614,12 +4716,12 @@
         <v>90</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="60"/>
+        <v>123</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14">
@@ -4629,12 +4731,12 @@
         <v>90</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="60"/>
+        <v>124</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14">
@@ -4644,16 +4746,16 @@
         <v>90</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="60"/>
+        <v>125</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="59"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -4663,16 +4765,16 @@
         <v>90</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="60"/>
+        <v>126</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="59"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -4684,14 +4786,14 @@
       <c r="D8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="60"/>
+      <c r="E8" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="59"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -4701,16 +4803,16 @@
         <v>90</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="60"/>
+        <v>127</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="59"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -4720,16 +4822,16 @@
         <v>90</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="60"/>
+        <v>128</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="59"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -4739,16 +4841,16 @@
         <v>90</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="60"/>
+        <v>129</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="59"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -4758,16 +4860,16 @@
         <v>90</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="59"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -4777,16 +4879,16 @@
         <v>90</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="60"/>
+        <v>136</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="59"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -4796,16 +4898,16 @@
         <v>90</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="60"/>
+        <v>137</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="59"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -4815,12 +4917,12 @@
         <v>90</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="60"/>
+        <v>150</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14">
@@ -4830,12 +4932,12 @@
         <v>90</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="60"/>
+        <v>151</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -4847,10 +4949,10 @@
       <c r="D17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -4862,10 +4964,10 @@
       <c r="D18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -4877,10 +4979,10 @@
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -4892,10 +4994,10 @@
       <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -4907,10 +5009,10 @@
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="59"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -4922,10 +5024,10 @@
       <c r="D22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -4937,40 +5039,40 @@
       <c r="D23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
         <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="60"/>
+      <c r="E24" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="59"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
         <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="60"/>
+        <v>143</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="59"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -4978,8 +5080,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -4987,8 +5089,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -4996,8 +5098,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -5005,8 +5107,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -5014,8 +5116,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -5023,8 +5125,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -5032,8 +5134,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -5041,8 +5143,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -5050,8 +5152,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -5059,8 +5161,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -5068,8 +5170,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -5077,8 +5179,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -5086,8 +5188,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -5095,8 +5197,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -5104,8 +5206,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -5113,8 +5215,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="60"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -5122,8 +5224,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -5131,8 +5233,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="60"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -5140,8 +5242,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="60"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -5149,8 +5251,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="60"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="59"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -5158,8 +5260,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="59"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -5167,8 +5269,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="60"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -5176,8 +5278,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="60"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="59"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -5185,8 +5287,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="60"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -5194,8 +5296,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -5203,8 +5305,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -5212,17 +5314,53 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="60"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -5235,48 +5373,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E21B94-9C19-4BE5-AF51-25463B3676E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05152776-BD8B-4D91-9BE8-C98FABA23442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="モデル一覧" sheetId="13" r:id="rId6"/>
     <sheet name="未実装のモデル" sheetId="12" r:id="rId7"/>
     <sheet name="詳細" sheetId="9" r:id="rId8"/>
+    <sheet name="ブロックの接触判定" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="162">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2098,9 +2099,91 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">
-コントローラの入力修正
-プレイヤー(コントローラ)の入力処理 修正</t>
+    <t>青ブロックの周囲に当たり判定を置き</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他のブロックが判定に触れているか調べる</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>コントローラの入力修正　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+プレイヤー(コントローラ)の入力処理 修正 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スミ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2108,7 +2191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2213,8 +2296,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2257,6 +2357,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -2601,7 +2719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2778,6 +2896,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3848,7 +3978,7 @@
         <v>157</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
@@ -5775,4 +5905,155 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCEB162-B53A-4D83-8D31-493DCEF42F5E}">
+  <dimension ref="B3:AC17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:29">
+      <c r="H3" s="64"/>
+      <c r="W3" s="64"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="N5" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="E6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="T6" s="64"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="66"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="H9" s="64"/>
+      <c r="W9" s="64"/>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="18"/>
+      <c r="Q11" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="18"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+    </row>
+    <row r="15" spans="2:29" ht="18" customHeight="1">
+      <c r="V15" s="68"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="22:24">
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N5:P7"/>
+    <mergeCell ref="B11:M12"/>
+    <mergeCell ref="Q11:AC12"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05152776-BD8B-4D91-9BE8-C98FABA23442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A7A02F-2524-40AA-8E59-ADFC6F261441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="163">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2182,6 +2182,39 @@
       <t>スミ</t>
     </rPh>
     <rPh sb="36" eb="37">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">弾・敵orブロックのすり抜けバグ修正 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2774,6 +2807,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2822,36 +2861,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2864,7 +2873,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2882,6 +2921,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2894,20 +2936,11 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3465,106 +3498,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3588,7 +3621,7 @@
   <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H12" zoomScale="73" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I25"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -3634,91 +3667,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="42" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="49"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="50"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3795,91 +3828,91 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="42" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="42"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="49"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="42"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="43"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="50"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -3956,88 +3989,107 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="51"/>
       <c r="L21" s="52"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="42"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="49"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="42"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="49"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="42"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="49"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="43"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="43"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="50"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -4054,23 +4106,6 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4197,13 +4232,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -4215,10 +4250,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
@@ -4230,8 +4265,8 @@
       <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
@@ -4243,8 +4278,8 @@
       <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
@@ -4256,8 +4291,8 @@
       <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
@@ -4269,8 +4304,8 @@
       <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
@@ -4282,8 +4317,8 @@
       <c r="D8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4326,10 +4361,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="57"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14">
@@ -4815,10 +4850,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -4830,10 +4865,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="64"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -4848,10 +4883,10 @@
       <c r="D4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14">
@@ -4863,10 +4898,10 @@
       <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14">
@@ -4878,10 +4913,10 @@
       <c r="D6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="64"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="62"/>
@@ -4897,10 +4932,10 @@
       <c r="D7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="64"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="62"/>
@@ -4916,10 +4951,10 @@
       <c r="D8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="64"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="62"/>
@@ -4935,10 +4970,10 @@
       <c r="D9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="64"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="62"/>
@@ -4954,10 +4989,10 @@
       <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="64"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="62"/>
@@ -4973,10 +5008,10 @@
       <c r="D11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="64"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="62"/>
@@ -4992,10 +5027,10 @@
       <c r="D12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="64"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="62"/>
@@ -5011,10 +5046,10 @@
       <c r="D13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="64"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="62"/>
@@ -5030,10 +5065,10 @@
       <c r="D14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="64"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="62"/>
@@ -5049,10 +5084,10 @@
       <c r="D15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14">
@@ -5064,10 +5099,10 @@
       <c r="D16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -5079,10 +5114,10 @@
       <c r="D17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="59"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -5094,10 +5129,10 @@
       <c r="D18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -5109,10 +5144,10 @@
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -5124,10 +5159,10 @@
       <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -5139,10 +5174,10 @@
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="59"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -5154,10 +5189,10 @@
       <c r="D22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="59"/>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -5169,10 +5204,10 @@
       <c r="D23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="64"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -5184,10 +5219,10 @@
       <c r="D24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="59"/>
+      <c r="F24" s="64"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -5199,10 +5234,10 @@
       <c r="D25" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="59"/>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -5210,8 +5245,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -5219,8 +5254,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -5228,8 +5263,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -5237,8 +5272,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -5246,8 +5281,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -5255,8 +5290,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -5264,8 +5299,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -5273,8 +5308,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -5282,8 +5317,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -5291,8 +5326,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -5300,8 +5335,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -5309,8 +5344,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -5318,8 +5353,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="59"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -5327,8 +5362,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -5336,8 +5371,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -5345,8 +5380,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="59"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -5354,8 +5389,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="59"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -5363,8 +5398,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="59"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -5372,8 +5407,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -5381,8 +5416,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="59"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="64"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -5390,8 +5425,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="59"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -5399,8 +5434,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="59"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -5408,8 +5443,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="59"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="64"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -5417,8 +5452,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="59"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="64"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -5426,8 +5461,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="59"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="64"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -5435,8 +5470,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="59"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="64"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -5444,29 +5479,41 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="59"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -5479,36 +5526,24 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
@@ -5918,122 +5953,122 @@
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:29">
-      <c r="H3" s="64"/>
-      <c r="W3" s="64"/>
+      <c r="H3" s="23"/>
+      <c r="W3" s="23"/>
     </row>
     <row r="5" spans="2:29">
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="N5" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
     </row>
     <row r="6" spans="2:29">
-      <c r="E6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="T6" s="64"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="66"/>
+      <c r="E6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="T6" s="23"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="24"/>
     </row>
     <row r="7" spans="2:29">
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
     </row>
     <row r="9" spans="2:29">
-      <c r="H9" s="64"/>
-      <c r="W9" s="64"/>
+      <c r="H9" s="23"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="11" spans="2:29">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
       <c r="N11" s="18"/>
-      <c r="Q11" s="65" t="s">
+      <c r="Q11" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
     </row>
     <row r="12" spans="2:29">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
       <c r="N12" s="18"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
     </row>
     <row r="15" spans="2:29" ht="18" customHeight="1">
-      <c r="V15" s="68"/>
+      <c r="V15" s="25"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
     </row>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A7A02F-2524-40AA-8E59-ADFC6F261441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE7E45E-1E8D-4BCC-AE5E-101930F2CE23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -3620,7 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="73" workbookViewId="0">
+    <sheetView topLeftCell="H12" zoomScale="73" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -5946,7 +5946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCEB162-B53A-4D83-8D31-493DCEF42F5E}">
   <dimension ref="B3:AC17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE7E45E-1E8D-4BCC-AE5E-101930F2CE23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2211684-683C-4517-B93A-3EEF9E8B4C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="163">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2057,33 +2057,6 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>一部修正</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>バグ修正　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>済
 exe開けるようになった</t>
     </r>
@@ -2216,6 +2189,33 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>バグ修正</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　一部修正</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2861,6 +2861,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2873,37 +2903,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2921,9 +2921,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2935,6 +2932,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3618,10 +3618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="H12" zoomScale="73" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -3667,91 +3667,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="42" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
       <c r="B4" s="46"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
       <c r="B5" s="46"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
       <c r="B6" s="46"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
       <c r="B7" s="47"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3828,13 +3828,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="42" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -3855,64 +3855,64 @@
       <c r="J12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
       <c r="B13" s="46"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
       <c r="B14" s="46"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
       <c r="B15" s="46"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
       <c r="B16" s="47"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -3966,10 +3966,10 @@
       <c r="E20" s="7">
         <v>45114</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="20">
         <v>45115</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="20">
         <v>45116</v>
       </c>
       <c r="H20" s="7">
@@ -3989,107 +3989,652 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="55" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="48" t="s">
-        <v>157</v>
-      </c>
       <c r="I21" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="K21" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="46"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="46"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="46"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="47"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="54"/>
+    </row>
+    <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B29" s="20">
+        <v>45122</v>
+      </c>
+      <c r="C29" s="20">
+        <v>45123</v>
+      </c>
+      <c r="D29" s="7">
+        <v>45124</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45125</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G29" s="7">
+        <v>45127</v>
+      </c>
+      <c r="H29" s="7">
+        <v>45128</v>
+      </c>
+      <c r="I29" s="20">
+        <v>45129</v>
+      </c>
+      <c r="J29" s="20">
+        <v>45130</v>
+      </c>
+      <c r="K29" s="7">
+        <v>45131</v>
+      </c>
+      <c r="L29" s="7">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="18" customHeight="1">
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B37" s="7">
+        <v>45133</v>
+      </c>
+      <c r="C37" s="7">
+        <v>45134</v>
+      </c>
+      <c r="D37" s="7">
+        <v>45135</v>
+      </c>
+      <c r="E37" s="20">
+        <v>45136</v>
+      </c>
+      <c r="F37" s="20">
+        <v>45137</v>
+      </c>
+      <c r="G37" s="7">
+        <v>45138</v>
+      </c>
+      <c r="H37" s="7">
+        <v>45139</v>
+      </c>
+      <c r="I37" s="7">
+        <v>45140</v>
+      </c>
+      <c r="J37" s="7">
+        <v>45141</v>
+      </c>
+      <c r="K37" s="7">
+        <v>45142</v>
+      </c>
+      <c r="L37" s="7">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+    </row>
+    <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+    </row>
+    <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B46" s="7">
+        <v>45144</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45145</v>
+      </c>
+      <c r="D46" s="7">
+        <v>45146</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45147</v>
+      </c>
+      <c r="F46" s="7">
+        <v>45148</v>
+      </c>
+      <c r="G46" s="7">
+        <v>45149</v>
+      </c>
+      <c r="H46" s="7">
+        <v>45150</v>
+      </c>
+      <c r="I46" s="7">
+        <v>45151</v>
+      </c>
+      <c r="J46" s="7">
+        <v>45152</v>
+      </c>
+      <c r="K46" s="7">
+        <v>45153</v>
+      </c>
+      <c r="L46" s="7">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+    </row>
+    <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+    </row>
+    <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B55" s="7">
+        <v>45155</v>
+      </c>
+      <c r="C55" s="7">
+        <v>45156</v>
+      </c>
+      <c r="D55" s="7">
+        <v>45157</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45158</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45159</v>
+      </c>
+      <c r="G55" s="7">
+        <v>45160</v>
+      </c>
+      <c r="H55" s="7">
+        <v>45161</v>
+      </c>
+      <c r="I55" s="7">
+        <v>45162</v>
+      </c>
+      <c r="J55" s="7">
+        <v>45163</v>
+      </c>
+      <c r="K55" s="7">
+        <v>45164</v>
+      </c>
+      <c r="L55" s="7">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+    </row>
+    <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+    </row>
+    <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B64" s="7">
+        <v>45166</v>
+      </c>
+      <c r="C64" s="7">
+        <v>45167</v>
+      </c>
+      <c r="D64" s="7">
+        <v>45168</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45169</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45170</v>
+      </c>
+      <c r="G64" s="7">
+        <v>45171</v>
+      </c>
+      <c r="H64" s="7">
+        <v>45172</v>
+      </c>
+      <c r="I64" s="7">
+        <v>45173</v>
+      </c>
+      <c r="J64" s="7">
+        <v>45174</v>
+      </c>
+      <c r="K64" s="7">
+        <v>45175</v>
+      </c>
+      <c r="L64" s="7">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+    </row>
+    <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
+  <mergeCells count="88">
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="K56:K60"/>
+    <mergeCell ref="L56:L60"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -4106,6 +4651,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4850,10 +5412,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -4865,10 +5427,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="63"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -4883,10 +5445,10 @@
       <c r="D4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14">
@@ -4898,10 +5460,10 @@
       <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="64"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14">
@@ -4913,14 +5475,14 @@
       <c r="D6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="64"/>
+      <c r="F6" s="63"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -4932,14 +5494,14 @@
       <c r="D7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="63"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -4951,14 +5513,14 @@
       <c r="D8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="64"/>
+      <c r="F8" s="63"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -4970,14 +5532,14 @@
       <c r="D9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="63"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -4989,14 +5551,14 @@
       <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="64"/>
+      <c r="F10" s="63"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -5008,14 +5570,14 @@
       <c r="D11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="64"/>
+      <c r="F11" s="63"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -5027,14 +5589,14 @@
       <c r="D12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="64"/>
+      <c r="F12" s="63"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -5046,14 +5608,14 @@
       <c r="D13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="63"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -5065,14 +5627,14 @@
       <c r="D14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="63"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -5084,10 +5646,10 @@
       <c r="D15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="64"/>
+      <c r="F15" s="63"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14">
@@ -5099,10 +5661,10 @@
       <c r="D16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="64"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -5114,10 +5676,10 @@
       <c r="D17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -5129,10 +5691,10 @@
       <c r="D18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="64"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -5144,10 +5706,10 @@
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="64"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -5159,10 +5721,10 @@
       <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="64"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -5174,10 +5736,10 @@
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="64"/>
+      <c r="F21" s="63"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -5189,10 +5751,10 @@
       <c r="D22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="64"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -5204,10 +5766,10 @@
       <c r="D23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="64"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -5219,10 +5781,10 @@
       <c r="D24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="64"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -5234,10 +5796,10 @@
       <c r="D25" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="63"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -5245,8 +5807,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -5254,8 +5816,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -5263,8 +5825,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -5272,8 +5834,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -5281,8 +5843,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -5290,8 +5852,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -5299,8 +5861,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -5308,8 +5870,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -5317,8 +5879,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -5326,8 +5888,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -5335,8 +5897,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -5344,8 +5906,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -5353,8 +5915,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -5362,8 +5924,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="64"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -5371,8 +5933,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="64"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -5380,8 +5942,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="63"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -5389,8 +5951,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="64"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="63"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -5398,8 +5960,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="63"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -5407,8 +5969,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="63"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -5416,8 +5978,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -5425,8 +5987,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -5434,8 +5996,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="63"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -5443,8 +6005,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="64"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="63"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -5452,8 +6014,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="63"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -5461,8 +6023,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="64"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="63"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -5470,8 +6032,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="64"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="63"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -5479,17 +6041,53 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="64"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -5502,48 +6100,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
@@ -5946,7 +6508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCEB162-B53A-4D83-8D31-493DCEF42F5E}">
   <dimension ref="B3:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
@@ -5961,7 +6523,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="N5" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O5" s="68"/>
       <c r="P5" s="68"/>
@@ -6009,7 +6571,7 @@
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
@@ -6024,7 +6586,7 @@
       <c r="M11" s="68"/>
       <c r="N11" s="18"/>
       <c r="Q11" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R11" s="68"/>
       <c r="S11" s="68"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2211684-683C-4517-B93A-3EEF9E8B4C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7872E67-0BE7-4AB5-AF05-9A09B755FCB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="164">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2216,6 +2216,73 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>リスト構造　一部バグあり　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+最初の弾を任意のタイミングで止める　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2752,7 +2819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2861,34 +2928,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2900,10 +2946,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2921,6 +2985,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2932,9 +2999,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3620,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E42"/>
+    <sheetView tabSelected="1" topLeftCell="K21" zoomScale="73" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -3667,91 +3731,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="51" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="46"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="53"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="53"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3828,13 +3892,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="51" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -3855,64 +3919,64 @@
       <c r="J12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="53"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="53"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -3989,22 +4053,22 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="42" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="51" t="s">
         <v>154</v>
       </c>
       <c r="H21" s="48" t="s">
@@ -4013,65 +4077,67 @@
       <c r="I21" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="L21" s="56"/>
+      <c r="L21" s="45" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="53"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="46"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="53"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="46"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="53"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="47"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="54"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4081,7 +4147,7 @@
       <c r="C29" s="20">
         <v>45123</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="20">
         <v>45124</v>
       </c>
       <c r="E29" s="7">
@@ -4110,69 +4176,69 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1">
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4211,69 +4277,69 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4312,69 +4378,69 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4413,69 +4479,69 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4514,83 +4580,133 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="L65:L69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
     <mergeCell ref="L47:L51"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="C56:C60"/>
@@ -4607,67 +4723,17 @@
     <mergeCell ref="H47:H51"/>
     <mergeCell ref="I47:I51"/>
     <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4794,13 +4860,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -4812,10 +4878,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
@@ -4827,8 +4893,8 @@
       <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
@@ -4840,8 +4906,8 @@
       <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
@@ -4853,8 +4919,8 @@
       <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
@@ -4866,8 +4932,8 @@
       <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
@@ -4879,8 +4945,8 @@
       <c r="D8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4923,10 +4989,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14">
@@ -5481,8 +5547,8 @@
       <c r="F6" s="63"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -5500,8 +5566,8 @@
       <c r="F7" s="63"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -5519,8 +5585,8 @@
       <c r="F8" s="63"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -5538,8 +5604,8 @@
       <c r="F9" s="63"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -5557,8 +5623,8 @@
       <c r="F10" s="63"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -5576,8 +5642,8 @@
       <c r="F11" s="63"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -5595,8 +5661,8 @@
       <c r="F12" s="63"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -5614,8 +5680,8 @@
       <c r="F13" s="63"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -5633,8 +5699,8 @@
       <c r="F14" s="63"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -6046,24 +6112,36 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -6076,36 +6154,24 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
@@ -6522,11 +6588,11 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
@@ -6540,9 +6606,9 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="K6" s="23"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
       <c r="T6" s="23"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
@@ -6555,9 +6621,9 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
@@ -6570,64 +6636,64 @@
       <c r="W9" s="23"/>
     </row>
     <row r="11" spans="2:29">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
       <c r="N11" s="18"/>
-      <c r="Q11" s="68" t="s">
+      <c r="Q11" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
     </row>
     <row r="12" spans="2:29">
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
       <c r="N12" s="18"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
     </row>
     <row r="15" spans="2:29" ht="18" customHeight="1">
       <c r="V15" s="25"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7872E67-0BE7-4AB5-AF05-9A09B755FCB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304676FE-9A70-4614-BE8A-43E96436DF8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="166">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2283,6 +2283,148 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>リスト構造の修正　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+当たり判定の調整　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+連続爆破の実装　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+任意の位置で配置する処理　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修正</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>レンゾクバクハ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2928,13 +3070,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2946,29 +3109,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2985,9 +3127,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2999,6 +3138,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3684,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K21" zoomScale="73" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:L25"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="73" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -3731,91 +3873,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="42" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="43"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="43"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -3892,13 +4034,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="42" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -3919,64 +4061,64 @@
       <c r="J12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="43"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="43"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="43"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="44"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -4053,22 +4195,22 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="55" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="42" t="s">
         <v>154</v>
       </c>
       <c r="H21" s="48" t="s">
@@ -4077,67 +4219,67 @@
       <c r="I21" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="52" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="43"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="43"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="43"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4176,69 +4318,77 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1">
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="B30" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4277,69 +4427,69 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4378,69 +4528,69 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4479,69 +4629,69 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4580,89 +4730,127 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="K56:K60"/>
+    <mergeCell ref="L56:L60"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -4679,61 +4867,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="I56:I60"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="K56:K60"/>
-    <mergeCell ref="L56:L60"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="L65:L69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5478,10 +5628,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -5493,10 +5643,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="63"/>
+      <c r="F3" s="62"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -5511,10 +5661,10 @@
       <c r="D4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14">
@@ -5526,10 +5676,10 @@
       <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14">
@@ -5541,14 +5691,14 @@
       <c r="D6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="62"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -5560,14 +5710,14 @@
       <c r="D7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="62"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -5579,14 +5729,14 @@
       <c r="D8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="63"/>
+      <c r="F8" s="62"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -5598,14 +5748,14 @@
       <c r="D9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="62"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -5617,14 +5767,14 @@
       <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="F10" s="62"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -5636,14 +5786,14 @@
       <c r="D11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="63"/>
+      <c r="F11" s="62"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -5655,14 +5805,14 @@
       <c r="D12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="62"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -5674,14 +5824,14 @@
       <c r="D13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="63"/>
+      <c r="F13" s="62"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -5693,14 +5843,14 @@
       <c r="D14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="63"/>
+      <c r="F14" s="62"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -5712,10 +5862,10 @@
       <c r="D15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="63"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14">
@@ -5727,10 +5877,10 @@
       <c r="D16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -5742,10 +5892,10 @@
       <c r="D17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -5757,10 +5907,10 @@
       <c r="D18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -5772,10 +5922,10 @@
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -5787,10 +5937,10 @@
       <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="63"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -5802,10 +5952,10 @@
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -5817,10 +5967,10 @@
       <c r="D22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="63"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -5832,10 +5982,10 @@
       <c r="D23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -5847,10 +5997,10 @@
       <c r="D24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="63"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -5862,10 +6012,10 @@
       <c r="D25" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -5873,8 +6023,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -5882,8 +6032,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -5891,8 +6041,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -5900,8 +6050,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -5909,8 +6059,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -5918,8 +6068,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -5927,8 +6077,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="63"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -5936,8 +6086,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -5945,8 +6095,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -5954,8 +6104,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="63"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -5963,8 +6113,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -5972,8 +6122,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="63"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -5981,8 +6131,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -5990,8 +6140,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="63"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -5999,8 +6149,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="63"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -6008,8 +6158,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="63"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -6017,8 +6167,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="63"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -6026,8 +6176,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -6035,8 +6185,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="63"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -6044,8 +6194,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="63"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -6053,8 +6203,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="63"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -6062,8 +6212,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="63"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -6071,8 +6221,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="63"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -6080,8 +6230,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="63"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -6089,8 +6239,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="63"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -6098,8 +6248,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -6107,17 +6257,53 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="63"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -6130,48 +6316,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304676FE-9A70-4614-BE8A-43E96436DF8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9FB65-53BA-4F58-8A6F-BE7D7E973512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -2384,6 +2384,31 @@
       </rPr>
       <t>修正</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+キューブの爆発で敵にダメージを与える </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
     <rPh sb="3" eb="5">
       <t>コウゾウ</t>
     </rPh>
@@ -2425,6 +2450,18 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3070,34 +3107,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3109,8 +3125,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3127,6 +3164,9 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3138,9 +3178,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3826,7 +3863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="73" workbookViewId="0">
+    <sheetView topLeftCell="D26" zoomScale="73" workbookViewId="0">
       <selection activeCell="E30" sqref="E30:E34"/>
     </sheetView>
   </sheetViews>
@@ -3873,91 +3910,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="51" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="46"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="53"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="53"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -4034,13 +4071,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="51" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -4061,64 +4098,64 @@
       <c r="J12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="53"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="53"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -4195,22 +4232,22 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="42" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="51" t="s">
         <v>154</v>
       </c>
       <c r="H21" s="48" t="s">
@@ -4219,67 +4256,67 @@
       <c r="I21" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="45" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="53"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="46"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="53"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="46"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="53"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="47"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="54"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4318,77 +4355,77 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4427,69 +4464,69 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4528,69 +4565,69 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4629,69 +4666,69 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4730,83 +4767,133 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="L65:L69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
     <mergeCell ref="L47:L51"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="C56:C60"/>
@@ -4823,67 +4910,17 @@
     <mergeCell ref="H47:H51"/>
     <mergeCell ref="I47:I51"/>
     <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5628,10 +5665,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -5643,10 +5680,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -5661,10 +5698,10 @@
       <c r="D4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14">
@@ -5676,10 +5713,10 @@
       <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14">
@@ -5691,14 +5728,14 @@
       <c r="D6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="63"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -5710,14 +5747,14 @@
       <c r="D7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="63"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -5729,14 +5766,14 @@
       <c r="D8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -5748,14 +5785,14 @@
       <c r="D9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="63"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -5767,14 +5804,14 @@
       <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -5786,14 +5823,14 @@
       <c r="D11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="63"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -5805,14 +5842,14 @@
       <c r="D12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="63"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -5824,14 +5861,14 @@
       <c r="D13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="63"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -5843,14 +5880,14 @@
       <c r="D14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="63"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -5862,10 +5899,10 @@
       <c r="D15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="63"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14">
@@ -5877,10 +5914,10 @@
       <c r="D16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -5892,10 +5929,10 @@
       <c r="D17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -5907,10 +5944,10 @@
       <c r="D18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -5922,10 +5959,10 @@
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -5937,10 +5974,10 @@
       <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -5952,10 +5989,10 @@
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="63"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -5967,10 +6004,10 @@
       <c r="D22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -5982,10 +6019,10 @@
       <c r="D23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -5997,10 +6034,10 @@
       <c r="D24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -6012,10 +6049,10 @@
       <c r="D25" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="63"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -6023,8 +6060,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -6032,8 +6069,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -6041,8 +6078,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -6050,8 +6087,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -6059,8 +6096,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -6068,8 +6105,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -6077,8 +6114,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -6086,8 +6123,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -6095,8 +6132,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -6104,8 +6141,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -6113,8 +6150,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -6122,8 +6159,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -6131,8 +6168,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -6140,8 +6177,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -6149,8 +6186,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -6158,8 +6195,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="63"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -6167,8 +6204,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="63"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -6176,8 +6213,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="63"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -6185,8 +6222,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="63"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -6194,8 +6231,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -6203,8 +6240,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -6212,8 +6249,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="63"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -6221,8 +6258,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="63"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -6230,8 +6267,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="63"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -6239,8 +6276,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="63"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -6248,8 +6285,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="63"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -6257,29 +6294,41 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -6292,36 +6341,24 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
@@ -6724,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCEB162-B53A-4D83-8D31-493DCEF42F5E}">
   <dimension ref="B3:AC17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9FB65-53BA-4F58-8A6F-BE7D7E973512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77ADD9A-2027-4A65-A9D4-CA9E9E0C236F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2072,41 +2072,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>青ブロックの周囲に当たり判定を置き</t>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他のブロックが判定に触れているか調べる</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>→</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2461,6 +2426,136 @@
       <t>アタ</t>
     </rPh>
     <rPh sb="67" eb="68">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロック(青)の周囲に当たり判定を置き</t>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他のブロック(緑)が判定に触れているか調べる</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１個目のキューブのみ</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">マルチメッシュシリンダー（背景：側面）の実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+メッシュフィールド（背景：天井）の実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソクメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2998,7 +3093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3107,13 +3202,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3125,35 +3241,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3163,9 +3252,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3178,6 +3264,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3863,8 +3952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" zoomScale="73" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:E34"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -3910,91 +3999,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="42" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="43"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="43"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -4071,13 +4160,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="42" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -4098,64 +4187,64 @@
       <c r="J12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="43"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="43"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="43"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="44"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -4232,91 +4321,91 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="55" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="42" t="s">
         <v>154</v>
       </c>
       <c r="H21" s="48" t="s">
         <v>156</v>
       </c>
       <c r="I21" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="L21" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="K21" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="43"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="43"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="43"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4355,77 +4444,79 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1">
-      <c r="B30" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="B30" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4464,69 +4555,69 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4565,69 +4656,69 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4666,69 +4757,69 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4767,89 +4858,127 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="K56:K60"/>
+    <mergeCell ref="L56:L60"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -4866,61 +4995,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="I56:I60"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="K56:K60"/>
-    <mergeCell ref="L56:L60"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="L65:L69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5033,10 +5124,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEC8416-3621-4557-8CDA-D6E2CC6057AF}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5044,16 +5135,17 @@
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -5065,10 +5157,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
@@ -5080,8 +5172,8 @@
       <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
@@ -5093,8 +5185,8 @@
       <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
@@ -5106,44 +5198,60 @@
       <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
+        <v>168</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E7:F7"/>
+  <mergeCells count="8">
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5176,10 +5284,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14">
@@ -5644,7 +5752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33585262-3460-4696-818B-42735907EE25}">
   <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -5665,10 +5773,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -5680,10 +5788,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="63"/>
+      <c r="F3" s="60"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -5698,10 +5806,10 @@
       <c r="D4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14">
@@ -5713,10 +5821,10 @@
       <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14">
@@ -5728,14 +5836,14 @@
       <c r="D6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="60"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -5747,14 +5855,14 @@
       <c r="D7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="60"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -5766,14 +5874,14 @@
       <c r="D8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="63"/>
+      <c r="F8" s="60"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -5785,14 +5893,14 @@
       <c r="D9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="60"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -5804,14 +5912,14 @@
       <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="F10" s="60"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -5823,14 +5931,14 @@
       <c r="D11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="63"/>
+      <c r="F11" s="60"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -5842,14 +5950,14 @@
       <c r="D12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="60"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -5861,14 +5969,14 @@
       <c r="D13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="63"/>
+      <c r="F13" s="60"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -5880,14 +5988,14 @@
       <c r="D14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="63"/>
+      <c r="F14" s="60"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -5899,10 +6007,10 @@
       <c r="D15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="63"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14">
@@ -5914,10 +6022,10 @@
       <c r="D16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -5929,10 +6037,10 @@
       <c r="D17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -5944,10 +6052,10 @@
       <c r="D18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -5959,10 +6067,10 @@
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -5974,10 +6082,10 @@
       <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="63"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -5989,10 +6097,10 @@
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -6004,10 +6112,10 @@
       <c r="D22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="63"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -6019,10 +6127,10 @@
       <c r="D23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -6034,10 +6142,10 @@
       <c r="D24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="63"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -6049,10 +6157,10 @@
       <c r="D25" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="60"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -6060,8 +6168,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -6069,8 +6177,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -6078,8 +6186,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -6087,8 +6195,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -6096,8 +6204,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -6105,8 +6213,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -6114,8 +6222,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="63"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -6123,8 +6231,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -6132,8 +6240,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -6141,8 +6249,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="63"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -6150,8 +6258,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -6159,8 +6267,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="63"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -6168,8 +6276,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -6177,8 +6285,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="63"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -6186,8 +6294,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="63"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -6195,8 +6303,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="63"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="60"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -6204,8 +6312,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="63"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -6213,8 +6321,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="60"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -6222,8 +6330,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="63"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="60"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -6231,8 +6339,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="63"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="60"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -6240,8 +6348,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="63"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -6249,8 +6357,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="63"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="60"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -6258,8 +6366,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="63"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -6267,8 +6375,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="63"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="60"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -6276,8 +6384,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="63"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="60"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -6285,8 +6393,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="60"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -6294,17 +6402,53 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="63"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -6317,48 +6461,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
@@ -6503,7 +6611,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6761,8 +6869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCEB162-B53A-4D83-8D31-493DCEF42F5E}">
   <dimension ref="B3:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18"/>
@@ -6775,11 +6883,11 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
-      <c r="N5" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
+      <c r="N5" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
@@ -6793,9 +6901,9 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="K6" s="23"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
       <c r="T6" s="23"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
@@ -6808,9 +6916,9 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
@@ -6823,64 +6931,64 @@
       <c r="W9" s="23"/>
     </row>
     <row r="11" spans="2:29">
-      <c r="B11" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
+      <c r="B11" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
       <c r="N11" s="18"/>
-      <c r="Q11" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
+      <c r="Q11" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
     </row>
     <row r="12" spans="2:29">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
       <c r="N12" s="18"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
     </row>
     <row r="15" spans="2:29" ht="18" customHeight="1">
       <c r="V15" s="25"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77ADD9A-2027-4A65-A9D4-CA9E9E0C236F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CBA681-267E-4311-A83F-FD797923BDEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2534,6 +2534,31 @@
       </rPr>
       <t>済</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+マップツール　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修正</t>
+    </r>
     <rPh sb="13" eb="15">
       <t>ハイケイ</t>
     </rPh>
@@ -2557,6 +2582,9 @@
     </rPh>
     <rPh sb="45" eb="46">
       <t>スミ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3953,7 +3981,7 @@
   <dimension ref="B1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E16" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F34"/>
+      <selection activeCell="G30" sqref="G30:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CBA681-267E-4311-A83F-FD797923BDEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0303CF3-20C9-4C28-AF48-B46937246B58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -3980,7 +3980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="73" workbookViewId="0">
+    <sheetView topLeftCell="E16" zoomScale="73" workbookViewId="0">
       <selection activeCell="G30" sqref="G30:G34"/>
     </sheetView>
   </sheetViews>
@@ -5780,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33585262-3460-4696-818B-42735907EE25}">
   <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0303CF3-20C9-4C28-AF48-B46937246B58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC43F19-EE17-4D45-847A-543FB64BF96A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="173">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2585,6 +2585,29 @@
     </rPh>
     <rPh sb="54" eb="56">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>軌跡</t>
+    <rPh sb="0" eb="2">
+      <t>キセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地面を歩いた時の土埃</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツチボコリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3230,34 +3253,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3269,8 +3271,35 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3281,10 +3310,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3292,9 +3318,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4027,91 +4050,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="51" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="46"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="53"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="53"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -4188,13 +4211,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="51" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -4215,64 +4238,64 @@
       <c r="J12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="53"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="53"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -4349,22 +4372,22 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="42" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="51" t="s">
         <v>154</v>
       </c>
       <c r="H21" s="48" t="s">
@@ -4373,67 +4396,67 @@
       <c r="I21" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="45" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="53"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="46"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="53"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="46"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="53"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="47"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="54"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4472,79 +4495,79 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4583,69 +4606,69 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4684,69 +4707,69 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4785,69 +4808,69 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4886,83 +4909,133 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="L65:L69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
     <mergeCell ref="L47:L51"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="C56:C60"/>
@@ -4979,67 +5052,17 @@
     <mergeCell ref="H47:H51"/>
     <mergeCell ref="I47:I51"/>
     <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5049,10 +5072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7E5AE-160F-450B-971C-941D281FA974}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5144,9 +5167,20 @@
         <v>68</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5167,13 +5201,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
@@ -5185,10 +5219,10 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
@@ -5200,8 +5234,8 @@
       <c r="D4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
@@ -5213,8 +5247,8 @@
       <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
@@ -5226,8 +5260,8 @@
       <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
@@ -5239,10 +5273,10 @@
       <c r="D7" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
@@ -5254,8 +5288,8 @@
       <c r="D8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="14" t="s">
@@ -5267,8 +5301,8 @@
       <c r="D9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5312,10 +5346,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14">
@@ -5780,7 +5814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33585262-3460-4696-818B-42735907EE25}">
   <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13:K13"/>
     </sheetView>
   </sheetViews>
@@ -5801,10 +5835,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -5816,10 +5850,10 @@
       <c r="D3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="57"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -5834,10 +5868,10 @@
       <c r="D4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="14">
@@ -5849,10 +5883,10 @@
       <c r="D5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14">
@@ -5864,14 +5898,14 @@
       <c r="D6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="60"/>
+      <c r="F6" s="57"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -5883,14 +5917,14 @@
       <c r="D7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="57"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -5902,14 +5936,14 @@
       <c r="D8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="57"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -5921,14 +5955,14 @@
       <c r="D9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="57"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -5940,14 +5974,14 @@
       <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="57"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -5959,14 +5993,14 @@
       <c r="D11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="57"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -5978,14 +6012,14 @@
       <c r="D12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="57"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -5997,14 +6031,14 @@
       <c r="D13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="57"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -6016,14 +6050,14 @@
       <c r="D14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="57"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -6035,10 +6069,10 @@
       <c r="D15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14">
@@ -6050,10 +6084,10 @@
       <c r="D16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14">
@@ -6065,10 +6099,10 @@
       <c r="D17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14">
@@ -6080,10 +6114,10 @@
       <c r="D18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14">
@@ -6095,10 +6129,10 @@
       <c r="D19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14">
@@ -6110,10 +6144,10 @@
       <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="14">
@@ -6125,10 +6159,10 @@
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="57"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14">
@@ -6140,10 +6174,10 @@
       <c r="D22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="14">
@@ -6155,10 +6189,10 @@
       <c r="D23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14">
@@ -6170,10 +6204,10 @@
       <c r="D24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="60"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="14">
@@ -6185,10 +6219,10 @@
       <c r="D25" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="14">
@@ -6196,8 +6230,8 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="14">
@@ -6205,8 +6239,8 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="14">
@@ -6214,8 +6248,8 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="14">
@@ -6223,8 +6257,8 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="14">
@@ -6232,8 +6266,8 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="14">
@@ -6241,8 +6275,8 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="14">
@@ -6250,8 +6284,8 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="14">
@@ -6259,8 +6293,8 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="14">
@@ -6268,8 +6302,8 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="14">
@@ -6277,8 +6311,8 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="14">
@@ -6286,8 +6320,8 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="14">
@@ -6295,8 +6329,8 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="14">
@@ -6304,8 +6338,8 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="14">
@@ -6313,8 +6347,8 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="14">
@@ -6322,8 +6356,8 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="14">
@@ -6331,8 +6365,8 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="60"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="14">
@@ -6340,8 +6374,8 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="14">
@@ -6349,8 +6383,8 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="60"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="14">
@@ -6358,8 +6392,8 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="60"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="14">
@@ -6367,8 +6401,8 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="60"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="14">
@@ -6376,8 +6410,8 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="14">
@@ -6385,8 +6419,8 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="60"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="57"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="14">
@@ -6394,8 +6428,8 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="60"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="14">
@@ -6403,8 +6437,8 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="60"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="57"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="14">
@@ -6412,8 +6446,8 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="57"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="14">
@@ -6421,8 +6455,8 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="14">
@@ -6430,29 +6464,41 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="60"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -6465,36 +6511,24 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC43F19-EE17-4D45-847A-543FB64BF96A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BA713B-5782-4FD5-82AB-241C86A3CC37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2608,6 +2608,33 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ツチボコリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>シャドウマトリックスの実装(平面)　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘイメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4003,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" zoomScale="73" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G34"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="73" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -4510,7 +4537,9 @@
       <c r="F30" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="42"/>
+      <c r="G30" s="42" t="s">
+        <v>173</v>
+      </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -5074,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7E5AE-160F-450B-971C-941D281FA974}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BA713B-5782-4FD5-82AB-241C86A3CC37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E5C8C-245D-43DD-8106-F282D01F55B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="176">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2634,6 +2634,108 @@
       <t>ヘイメン</t>
     </rPh>
     <rPh sb="18" eb="19">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>画面推移（タイトル・ゲーム・リザルト）　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+仮の移動モーション　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+仮のモーション切り替え </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>ガメンスイイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3280,13 +3382,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3298,29 +3421,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3337,14 +3439,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4030,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="73" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -4077,91 +4179,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="42" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="43"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="43"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -4238,13 +4340,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="42" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -4265,64 +4367,64 @@
       <c r="J12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="43"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="43"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="43"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="44"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -4399,22 +4501,22 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="55" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="42" t="s">
         <v>154</v>
       </c>
       <c r="H21" s="48" t="s">
@@ -4423,67 +4525,67 @@
       <c r="I21" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="52" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="43"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="43"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="43"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4522,81 +4624,89 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="H30" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4635,69 +4745,69 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4736,69 +4846,69 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4837,69 +4947,69 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4938,89 +5048,127 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="K56:K60"/>
+    <mergeCell ref="L56:L60"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -5037,61 +5185,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="I56:I60"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="K56:K60"/>
-    <mergeCell ref="L56:L60"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="L65:L69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5864,10 +5974,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -5933,8 +6043,8 @@
       <c r="F6" s="57"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -5952,8 +6062,8 @@
       <c r="F7" s="57"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -5971,8 +6081,8 @@
       <c r="F8" s="57"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -5990,8 +6100,8 @@
       <c r="F9" s="57"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -6009,8 +6119,8 @@
       <c r="F10" s="57"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -6028,8 +6138,8 @@
       <c r="F11" s="57"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -6047,8 +6157,8 @@
       <c r="F12" s="57"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -6066,8 +6176,8 @@
       <c r="F13" s="57"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -6085,8 +6195,8 @@
       <c r="F14" s="57"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -6498,12 +6608,48 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -6516,48 +6662,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E5C8C-245D-43DD-8106-F282D01F55B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B5BE4B-8079-46FA-BEFA-C83BD3E5A360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="178">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2736,6 +2736,91 @@
       <t>カ</t>
     </rPh>
     <rPh sb="46" eb="47">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">フェード 実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">画面推移の修正 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガメンスイイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ttfを使ったテキストの実装！Ver1.0　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -4132,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="73" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:K34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -4654,7 +4739,9 @@
       <c r="K30" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="L30" s="55"/>
+      <c r="L30" s="55" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="46"/>
@@ -4745,7 +4832,9 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="55"/>
+      <c r="B38" s="55" t="s">
+        <v>177</v>
+      </c>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B5BE4B-8079-46FA-BEFA-C83BD3E5A360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFEA363-BB1C-47E7-9ADD-6A309ED38000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2814,6 +2814,19 @@
       </rPr>
       <t>済</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ゲーム性のアイディア出し</t>
+    </r>
     <rPh sb="4" eb="5">
       <t>ツカ</t>
     </rPh>
@@ -2822,6 +2835,12 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>スミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4218,7 +4237,7 @@
   <dimension ref="B1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B42"/>
+      <selection activeCell="C38" sqref="C38:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFEA363-BB1C-47E7-9ADD-6A309ED38000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117622AB-8A20-458E-860A-7D96970DF682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2812,7 +2812,31 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>済</t>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仮の入力催促</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　済</t>
     </r>
     <r>
       <rPr>
@@ -2836,10 +2860,22 @@
     <rPh sb="22" eb="23">
       <t>スミ</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="24" eb="25">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイソク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
       <t>セイ</t>
     </rPh>
-    <rPh sb="34" eb="35">
+    <rPh sb="43" eb="44">
       <t>ダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -4237,7 +4273,7 @@
   <dimension ref="B1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C42"/>
+      <selection activeCell="B38" sqref="B38:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117622AB-8A20-458E-860A-7D96970DF682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B7AB56-4446-4614-A5A4-21DAB7CE4A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="179">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2877,6 +2877,138 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲーム開始時の仮演出　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+フォントテキストの修正　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+当たり判定の修正　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>キューブ配置の修正　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3522,34 +3654,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3561,8 +3672,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3579,14 +3711,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4273,7 +4405,7 @@
   <dimension ref="B1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -4319,91 +4451,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="51" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="46"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="53"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="53"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -4480,13 +4612,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="51" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -4507,64 +4639,64 @@
       <c r="J12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="53"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="53"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -4641,22 +4773,22 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="42" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="51" t="s">
         <v>154</v>
       </c>
       <c r="H21" s="48" t="s">
@@ -4665,67 +4797,67 @@
       <c r="I21" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="45" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="53"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="46"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="53"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="46"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="53"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="47"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="54"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4764,91 +4896,91 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="I30" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="L30" s="55" t="s">
+      <c r="L30" s="42" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4887,71 +5019,73 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
+      <c r="C38" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4990,69 +5124,69 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5091,69 +5225,69 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5192,83 +5326,133 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="L65:L69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
     <mergeCell ref="L47:L51"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="C56:C60"/>
@@ -5285,67 +5469,17 @@
     <mergeCell ref="H47:H51"/>
     <mergeCell ref="I47:I51"/>
     <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6118,10 +6252,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -6187,8 +6321,8 @@
       <c r="F6" s="57"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -6206,8 +6340,8 @@
       <c r="F7" s="57"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -6225,8 +6359,8 @@
       <c r="F8" s="57"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -6244,8 +6378,8 @@
       <c r="F9" s="57"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -6263,8 +6397,8 @@
       <c r="F10" s="57"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -6282,8 +6416,8 @@
       <c r="F11" s="57"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -6301,8 +6435,8 @@
       <c r="F12" s="57"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -6320,8 +6454,8 @@
       <c r="F13" s="57"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -6339,8 +6473,8 @@
       <c r="F14" s="57"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -6752,24 +6886,36 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -6782,36 +6928,24 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B7AB56-4446-4614-A5A4-21DAB7CE4A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B2256-EC69-4222-B3EC-E86EB1B8C67B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="189">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -3011,6 +3011,63 @@
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">キューブの重複配置の修正 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.3</t>
+  </si>
+  <si>
+    <t>No.4</t>
+  </si>
+  <si>
+    <t>No.5</t>
+  </si>
+  <si>
+    <t>No.6</t>
+  </si>
+  <si>
+    <t>No.7</t>
+  </si>
+  <si>
+    <t>No.8</t>
+  </si>
+  <si>
+    <t>No.9</t>
+  </si>
+  <si>
+    <t>No.10</t>
+  </si>
+  <si>
+    <t>No.11</t>
   </si>
 </sst>
 </file>
@@ -4404,8 +4461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A26" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -5025,7 +5082,9 @@
       <c r="C38" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="42" t="s">
+        <v>179</v>
+      </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -7087,81 +7146,243 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35C9-75AF-4587-A9BB-6FF718ECB1B7}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="F1" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="18">
+        <v>0</v>
+      </c>
+      <c r="H1" s="18">
+        <v>0</v>
+      </c>
+      <c r="I1" s="18">
+        <v>-200</v>
+      </c>
+      <c r="J1" s="18">
+        <v>-15</v>
+      </c>
+      <c r="K1" s="18">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="F2" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>-100</v>
+      </c>
+      <c r="J2" s="18">
+        <v>-15</v>
+      </c>
+      <c r="K2" s="18">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="F3" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>-15</v>
+      </c>
+      <c r="K3" s="18">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="F4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>100</v>
+      </c>
+      <c r="J4" s="18">
+        <v>-15</v>
+      </c>
+      <c r="K4" s="18">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="F5" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>200</v>
+      </c>
+      <c r="J5" s="18">
+        <v>-15</v>
+      </c>
+      <c r="K5" s="18">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="F6" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>300</v>
+      </c>
+      <c r="J6" s="18">
+        <v>-15</v>
+      </c>
+      <c r="K6" s="18">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="F7" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>400</v>
+      </c>
+      <c r="J7" s="18">
+        <v>-15</v>
+      </c>
+      <c r="K7" s="18">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="F8" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>-500</v>
+      </c>
+      <c r="J8" s="18">
+        <v>-15</v>
+      </c>
+      <c r="K8" s="18">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>57</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>500</v>
+      </c>
+      <c r="J9" s="18">
+        <v>-15</v>
+      </c>
+      <c r="K9" s="18">
+        <v>-200</v>
       </c>
     </row>
   </sheetData>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B2256-EC69-4222-B3EC-E86EB1B8C67B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C055D-0C75-41FA-965B-08F1EF373F93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="191">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -592,13 +592,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ポーズ処理</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エネミーの移動処理</t>
     <rPh sb="5" eb="7">
       <t>イドウ</t>
@@ -2589,13 +2582,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>軌跡</t>
-    <rPh sb="0" eb="2">
-      <t>キセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>地面を歩いた時の土埃</t>
     <rPh sb="0" eb="2">
       <t>ジメン</t>
@@ -3068,6 +3054,71 @@
   </si>
   <si>
     <t>No.11</t>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ポーズの実装　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップのアイデア探し</t>
+    <rPh sb="8" eb="9">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>タイル。ポーズメニューの仮実装　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3711,13 +3762,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3729,29 +3801,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3768,14 +3819,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4461,8 +4512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D42"/>
+    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="73" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -4508,91 +4559,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="42" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="43"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="43"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -4669,91 +4720,91 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="48" t="s">
+      <c r="F12" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="G12" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="43"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="43"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="43"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="44"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -4830,91 +4881,91 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="F21" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>156</v>
-      </c>
       <c r="I21" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="K21" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="L21" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="45" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="43"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="43"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="43"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -4953,91 +5004,91 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="42" t="s">
+      <c r="F30" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="L30" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="I30" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="J30" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="L30" s="42" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5076,75 +5127,85 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="E38" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5183,69 +5244,69 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5284,69 +5345,69 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5385,89 +5446,127 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="K56:K60"/>
+    <mergeCell ref="L56:L60"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
@@ -5484,61 +5583,23 @@
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="I56:I60"/>
-    <mergeCell ref="J56:J60"/>
-    <mergeCell ref="K56:K60"/>
-    <mergeCell ref="L56:L60"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="L65:L69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5548,10 +5609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7E5AE-160F-450B-971C-941D281FA974}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5570,7 +5631,7 @@
         <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5580,7 +5641,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5635,22 +5696,12 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5705,77 +5756,77 @@
         <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="57"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="57"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="57"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="56" t="s">
         <v>168</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>169</v>
       </c>
       <c r="F7" s="57"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="57"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="57"/>
@@ -5814,7 +5865,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>25</v>
@@ -6303,7 +6354,7 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>25</v>
@@ -6311,23 +6362,23 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
         <v>0</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3">
@@ -6339,13 +6390,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="57"/>
     </row>
@@ -6354,13 +6405,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="57"/>
     </row>
@@ -6369,184 +6420,184 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="57"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="57"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="57"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="57"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="57"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="57"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="57"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" s="57"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" s="57"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="57"/>
     </row>
@@ -6555,13 +6606,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="57"/>
     </row>
@@ -6570,10 +6621,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="56" t="s">
         <v>38</v>
@@ -6585,13 +6636,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="57"/>
     </row>
@@ -6600,13 +6651,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="57"/>
     </row>
@@ -6615,13 +6666,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="57"/>
     </row>
@@ -6630,13 +6681,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="57"/>
     </row>
@@ -6645,13 +6696,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="57"/>
     </row>
@@ -6660,13 +6711,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="57"/>
     </row>
@@ -6675,13 +6726,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="56" t="s">
         <v>141</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>142</v>
       </c>
       <c r="F24" s="57"/>
     </row>
@@ -6690,13 +6741,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="56" t="s">
         <v>143</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>144</v>
       </c>
       <c r="F25" s="57"/>
     </row>
@@ -6945,12 +6996,48 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -6963,48 +7050,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
@@ -7148,7 +7199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35C9-75AF-4587-A9BB-6FF718ECB1B7}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -7156,13 +7207,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G1" s="18">
         <v>0</v>
@@ -7185,10 +7236,10 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="18">
         <v>0</v>
@@ -7208,13 +7259,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G3" s="18">
         <v>0</v>
@@ -7234,13 +7285,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G4" s="18">
         <v>0</v>
@@ -7260,13 +7311,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="18">
         <v>0</v>
@@ -7286,13 +7337,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G6" s="18">
         <v>0</v>
@@ -7312,13 +7363,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G7" s="18">
         <v>0</v>
@@ -7338,13 +7389,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
@@ -7364,10 +7415,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G9" s="18">
         <v>0</v>
@@ -7411,10 +7462,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -7422,10 +7473,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -7434,7 +7485,7 @@
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -7443,7 +7494,7 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -7452,21 +7503,21 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -7584,7 +7635,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="N5" s="64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O5" s="65"/>
       <c r="P5" s="65"/>
@@ -7632,7 +7683,7 @@
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
@@ -7647,7 +7698,7 @@
       <c r="M11" s="65"/>
       <c r="N11" s="18"/>
       <c r="Q11" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R11" s="65"/>
       <c r="S11" s="65"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C055D-0C75-41FA-965B-08F1EF373F93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA8272-38EC-4505-B892-F7544475D6B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3109,6 +3109,19 @@
       </rPr>
       <t>済</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+チュートリアルの実装中</t>
+    </r>
     <rPh sb="12" eb="13">
       <t>カリ</t>
     </rPh>
@@ -3117,6 +3130,12 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>スミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA8272-38EC-4505-B892-F7544475D6B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457C8018-2F06-4252-8AC6-E04575BE1DE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="193">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -3136,6 +3136,40 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>仮のチュートリアル実装　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3781,34 +3815,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3820,8 +3833,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3838,14 +3872,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4531,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513DF50-F1BB-46D8-B3A3-5F1128EC79F1}">
   <dimension ref="B1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="73" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:I42"/>
+    <sheetView tabSelected="1" topLeftCell="J29" zoomScale="73" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18"/>
@@ -4578,91 +4612,91 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="51" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="45" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="46"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="53"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="53"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="12" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="17"/>
@@ -4739,13 +4773,13 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="42" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="51" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -4766,64 +4800,64 @@
       <c r="J12" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="45" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="53"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" ht="19.95" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="53"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="17"/>
@@ -4900,22 +4934,22 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="42" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="51" t="s">
         <v>153</v>
       </c>
       <c r="H21" s="48" t="s">
@@ -4924,67 +4958,67 @@
       <c r="I21" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="45" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="53"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="46"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="53"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="46"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="53"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B25" s="47"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="54"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="29" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5023,91 +5057,91 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="I30" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="L30" s="55" t="s">
+      <c r="L30" s="42" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="37" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5141,94 +5175,100 @@
       <c r="K37" s="7">
         <v>45142</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="20">
         <v>45143</v>
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="55" t="s">
+      <c r="F38" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="55" t="s">
+      <c r="H38" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="I38" s="55" t="s">
+      <c r="I38" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
+      <c r="J38" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="L38" s="42" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1">
-      <c r="B46" s="7">
+      <c r="B46" s="20">
         <v>45144</v>
       </c>
       <c r="C46" s="7">
@@ -5263,69 +5303,73 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
+      <c r="B47" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="55" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5364,69 +5408,69 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1"/>
     <row r="64" spans="2:12" ht="20.399999999999999" thickBot="1">
@@ -5465,83 +5509,133 @@
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="L65:L69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
     <mergeCell ref="L47:L51"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="C56:C60"/>
@@ -5558,67 +5652,17 @@
     <mergeCell ref="H47:H51"/>
     <mergeCell ref="I47:I51"/>
     <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="L65:L69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6381,10 +6425,10 @@
       <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="14">
@@ -6450,8 +6494,8 @@
       <c r="F6" s="57"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14">
@@ -6469,8 +6513,8 @@
       <c r="F7" s="57"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14">
@@ -6488,8 +6532,8 @@
       <c r="F8" s="57"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14">
@@ -6507,8 +6551,8 @@
       <c r="F9" s="57"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14">
@@ -6526,8 +6570,8 @@
       <c r="F10" s="57"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14">
@@ -6545,8 +6589,8 @@
       <c r="F11" s="57"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14">
@@ -6564,8 +6608,8 @@
       <c r="F12" s="57"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14">
@@ -6583,8 +6627,8 @@
       <c r="F13" s="57"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14">
@@ -6602,8 +6646,8 @@
       <c r="F14" s="57"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14">
@@ -7015,24 +7059,36 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -7045,36 +7101,24 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DF4BF8-4612-494B-B2F6-012FDAFD24E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D0B058-98CF-4D64-AAEB-91BD6306DCC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="163">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2963,6 +2963,39 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">仮のランキング実装 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3633,6 +3666,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="12" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="12" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="12" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="12" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3681,6 +3741,99 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3696,140 +3849,20 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="12" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="12" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="12" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="12" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4387,106 +4420,106 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:8" ht="29.4" thickBot="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:8" ht="25.05" customHeight="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:8" s="6" customFormat="1" ht="25.05" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:8" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="2:8" s="5" customFormat="1" ht="100.05" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4510,7 +4543,7 @@
   <dimension ref="B2:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:C79"/>
+      <selection activeCell="D75" sqref="D75:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4520,1092 +4553,1182 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="2:8" s="44" customFormat="1" ht="27" thickBot="1">
-      <c r="B3" s="55" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="2:8" s="18" customFormat="1" ht="27" thickBot="1">
+      <c r="B3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B4" s="58">
+      <c r="B4" s="22">
         <v>45088</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="23">
         <v>45089</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="23">
         <v>45090</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="23">
         <v>45091</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="23">
         <v>45092</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="23">
         <v>45093</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="24">
         <v>45094</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="73" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="56"/>
     </row>
     <row r="10" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B10" s="58">
+      <c r="B10" s="22">
         <v>45095</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="23">
         <v>45096</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="23">
         <v>45097</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="23">
         <v>45098</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="23">
         <v>45099</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="23">
         <v>45100</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="24">
         <v>45101</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B16" s="58">
+      <c r="B16" s="22">
         <v>45102</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="23">
         <v>45103</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="23">
         <v>45104</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="23">
         <v>45105</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="23">
         <v>45106</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="23">
         <v>45107</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="24">
         <v>45108</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="66" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="46" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="70"/>
     </row>
     <row r="22" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-    </row>
-    <row r="23" spans="2:8" s="44" customFormat="1" ht="27" thickBot="1">
-      <c r="B23" s="55" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+    </row>
+    <row r="23" spans="2:8" s="18" customFormat="1" ht="27" thickBot="1">
+      <c r="B23" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B24" s="58">
+      <c r="B24" s="22">
         <v>45109</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="23">
         <v>45110</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="23">
         <v>45111</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="23">
         <v>45112</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="23">
         <v>45113</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="23">
         <v>45114</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="24">
         <v>45115</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="65" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B30" s="58">
+      <c r="B30" s="22">
         <v>45116</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="23">
         <v>45117</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="23">
         <v>45118</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="23">
         <v>45119</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="23">
         <v>45120</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="23">
         <v>45121</v>
       </c>
-      <c r="H30" s="60">
+      <c r="H30" s="24">
         <v>45122</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="54" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="55"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="55"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="51"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="63"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="56"/>
     </row>
     <row r="36" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B36" s="58">
+      <c r="B36" s="22">
         <v>45123</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="25">
         <v>45124</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="23">
         <v>45125</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="23">
         <v>45126</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="23">
         <v>45127</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="23">
         <v>45128</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="24">
         <v>45129</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="66" t="s">
+      <c r="G37" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="67" t="s">
+      <c r="H37" s="54" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="51"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="55"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="51"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="55"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="51"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="55"/>
     </row>
     <row r="41" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="63"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="56"/>
     </row>
     <row r="42" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B42" s="58">
+      <c r="B42" s="22">
         <v>45130</v>
       </c>
-      <c r="C42" s="59">
+      <c r="C42" s="23">
         <v>45131</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="23">
         <v>45132</v>
       </c>
-      <c r="E42" s="59">
+      <c r="E42" s="23">
         <v>45133</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="23">
         <v>45134</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="23">
         <v>45135</v>
       </c>
-      <c r="H42" s="60">
+      <c r="H42" s="24">
         <v>45136</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="66" t="s">
+      <c r="F43" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="66" t="s">
+      <c r="G43" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="54" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="51"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="55"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="51"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="55"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="51"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="55"/>
     </row>
     <row r="47" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B47" s="61"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="55"/>
     </row>
     <row r="48" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B48" s="58">
+      <c r="B48" s="22">
         <v>45137</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="26">
         <v>45138</v>
       </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="76"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="76"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="76"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="61"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="76"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="76"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="78"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="63"/>
     </row>
     <row r="54" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
     </row>
     <row r="55" spans="2:8" ht="27" thickBot="1">
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="56" t="s">
+      <c r="D55" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="56" t="s">
+      <c r="E55" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G55" s="56" t="s">
+      <c r="G55" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H55" s="57" t="s">
+      <c r="H55" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B56" s="58">
+      <c r="B56" s="22">
         <v>45137</v>
       </c>
-      <c r="C56" s="59">
+      <c r="C56" s="23">
         <v>45138</v>
       </c>
-      <c r="D56" s="59">
+      <c r="D56" s="23">
         <v>45139</v>
       </c>
-      <c r="E56" s="59">
+      <c r="E56" s="23">
         <v>45140</v>
       </c>
-      <c r="F56" s="59">
+      <c r="F56" s="23">
         <v>45141</v>
       </c>
-      <c r="G56" s="59">
+      <c r="G56" s="23">
         <v>45142</v>
       </c>
-      <c r="H56" s="60">
+      <c r="H56" s="24">
         <v>45143</v>
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="66" t="s">
+      <c r="E57" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F57" s="66" t="s">
+      <c r="F57" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G57" s="66" t="s">
+      <c r="G57" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="67" t="s">
+      <c r="H57" s="54" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="51"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="55"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="51"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="55"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="55"/>
     </row>
     <row r="61" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="63"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="56"/>
     </row>
     <row r="62" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B62" s="58">
+      <c r="B62" s="22">
         <v>45144</v>
       </c>
-      <c r="C62" s="59">
+      <c r="C62" s="23">
         <v>45145</v>
       </c>
-      <c r="D62" s="59">
+      <c r="D62" s="23">
         <v>45146</v>
       </c>
-      <c r="E62" s="59">
+      <c r="E62" s="23">
         <v>45147</v>
       </c>
-      <c r="F62" s="59">
+      <c r="F62" s="23">
         <v>45148</v>
       </c>
-      <c r="G62" s="59">
+      <c r="G62" s="23">
         <v>45149</v>
       </c>
-      <c r="H62" s="60">
+      <c r="H62" s="24">
         <v>45150</v>
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="66" t="s">
+      <c r="D63" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="67"/>
+      <c r="E63" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="49"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="51"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="55"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="49"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="51"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="55"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="51"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="55"/>
     </row>
     <row r="67" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B67" s="61"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="63"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="56"/>
     </row>
     <row r="68" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B68" s="58">
+      <c r="B68" s="22">
         <v>45151</v>
       </c>
-      <c r="C68" s="59">
+      <c r="C68" s="23">
         <v>45152</v>
       </c>
-      <c r="D68" s="59">
+      <c r="D68" s="23">
         <v>45153</v>
       </c>
-      <c r="E68" s="59">
+      <c r="E68" s="23">
         <v>45154</v>
       </c>
-      <c r="F68" s="59">
+      <c r="F68" s="23">
         <v>45155</v>
       </c>
-      <c r="G68" s="59">
+      <c r="G68" s="23">
         <v>45156</v>
       </c>
-      <c r="H68" s="60">
+      <c r="H68" s="24">
         <v>45157</v>
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="71"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="67"/>
+      <c r="B69" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="54" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="49"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="51"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="55"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="49"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="51"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="55"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="49"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="51"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="55"/>
     </row>
     <row r="73" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="63"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="56"/>
     </row>
     <row r="74" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B74" s="58">
+      <c r="B74" s="22">
         <v>45158</v>
       </c>
-      <c r="C74" s="59">
+      <c r="C74" s="23">
         <v>45159</v>
       </c>
-      <c r="D74" s="59">
+      <c r="D74" s="23">
         <v>45160</v>
       </c>
-      <c r="E74" s="59">
+      <c r="E74" s="23">
         <v>45161</v>
       </c>
-      <c r="F74" s="59">
+      <c r="F74" s="23">
         <v>45162</v>
       </c>
-      <c r="G74" s="59">
+      <c r="G74" s="23">
         <v>45163</v>
       </c>
-      <c r="H74" s="60">
+      <c r="H74" s="24">
         <v>45164</v>
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="71"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="67"/>
+      <c r="B75" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="54"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="51"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="55"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="49"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="51"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="55"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="49"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="51"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="55"/>
     </row>
     <row r="79" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B79" s="61"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="51"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="55"/>
     </row>
     <row r="80" spans="2:8" ht="19.8" thickBot="1">
-      <c r="B80" s="58">
+      <c r="B80" s="22">
         <v>45165</v>
       </c>
-      <c r="C80" s="59">
+      <c r="C80" s="23">
         <v>45166</v>
       </c>
-      <c r="D80" s="59">
+      <c r="D80" s="23">
         <v>45167</v>
       </c>
-      <c r="E80" s="59">
+      <c r="E80" s="23">
         <v>45168</v>
       </c>
-      <c r="F80" s="73">
+      <c r="F80" s="26">
         <v>45169</v>
       </c>
-      <c r="G80" s="79"/>
-      <c r="H80" s="81"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="50"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="71"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="81"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="50"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="80"/>
-      <c r="H82" s="81"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="50"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="49"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="81"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="50"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="49"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="81"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B85" s="52"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="83"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="E81:E85"/>
-    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D48:H53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="G63:G67"/>
+    <mergeCell ref="H63:H67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="H57:H61"/>
     <mergeCell ref="G80:H85"/>
     <mergeCell ref="H69:H73"/>
     <mergeCell ref="B75:B79"/>
@@ -5621,78 +5744,15 @@
     <mergeCell ref="D69:D73"/>
     <mergeCell ref="F69:F73"/>
     <mergeCell ref="G69:G73"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="G63:G67"/>
-    <mergeCell ref="H63:H67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D48:H53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="H57:H61"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="E81:E85"/>
+    <mergeCell ref="F81:F85"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5713,13 +5773,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -5731,10 +5791,10 @@
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="9" t="s">
@@ -5746,8 +5806,8 @@
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
@@ -5759,8 +5819,8 @@
       <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
@@ -5772,8 +5832,8 @@
       <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
@@ -5785,10 +5845,10 @@
       <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
@@ -5800,8 +5860,8 @@
       <c r="D8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
@@ -5813,8 +5873,8 @@
       <c r="D9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5858,10 +5918,10 @@
       <c r="D2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="9">
@@ -6347,10 +6407,10 @@
       <c r="D2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="9">
@@ -6362,10 +6422,10 @@
       <c r="D3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="75"/>
       <c r="G3">
         <v>0.25</v>
       </c>
@@ -6380,10 +6440,10 @@
       <c r="D4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="9">
@@ -6395,10 +6455,10 @@
       <c r="D5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="9">
@@ -6410,14 +6470,14 @@
       <c r="D6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="F6" s="75"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="9">
@@ -6429,14 +6489,14 @@
       <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="75"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="9">
@@ -6448,14 +6508,14 @@
       <c r="D8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="75"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="9">
@@ -6467,14 +6527,14 @@
       <c r="D9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="75"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="9">
@@ -6486,14 +6546,14 @@
       <c r="D10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="75"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="9">
@@ -6505,14 +6565,14 @@
       <c r="D11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="35"/>
+      <c r="F11" s="75"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="9">
@@ -6524,14 +6584,14 @@
       <c r="D12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="75"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="9">
@@ -6543,14 +6603,14 @@
       <c r="D13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="75"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9">
@@ -6562,14 +6622,14 @@
       <c r="D14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="75"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="9">
@@ -6581,10 +6641,10 @@
       <c r="D15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="9">
@@ -6596,10 +6656,10 @@
       <c r="D16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="9">
@@ -6611,10 +6671,10 @@
       <c r="D17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="9">
@@ -6626,10 +6686,10 @@
       <c r="D18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="9">
@@ -6641,10 +6701,10 @@
       <c r="D19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="75"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="9">
@@ -6656,10 +6716,10 @@
       <c r="D20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="75"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="9">
@@ -6671,10 +6731,10 @@
       <c r="D21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="35"/>
+      <c r="F21" s="75"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="9">
@@ -6686,10 +6746,10 @@
       <c r="D22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="75"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="9">
@@ -6701,10 +6761,10 @@
       <c r="D23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="35"/>
+      <c r="F23" s="75"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="9">
@@ -6716,10 +6776,10 @@
       <c r="D24" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="35"/>
+      <c r="F24" s="75"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="9">
@@ -6731,10 +6791,10 @@
       <c r="D25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="35"/>
+      <c r="F25" s="75"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="9">
@@ -6742,8 +6802,8 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="9">
@@ -6751,8 +6811,8 @@
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="9">
@@ -6760,8 +6820,8 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="9">
@@ -6769,8 +6829,8 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="9">
@@ -6778,8 +6838,8 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="9">
@@ -6787,8 +6847,8 @@
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="9">
@@ -6796,8 +6856,8 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="9">
@@ -6805,8 +6865,8 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="9">
@@ -6814,8 +6874,8 @@
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="9">
@@ -6823,8 +6883,8 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="9">
@@ -6832,8 +6892,8 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="9">
@@ -6841,8 +6901,8 @@
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="9">
@@ -6850,8 +6910,8 @@
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="9">
@@ -6859,8 +6919,8 @@
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="9">
@@ -6868,8 +6928,8 @@
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="75"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="9">
@@ -6877,8 +6937,8 @@
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="9">
@@ -6886,8 +6946,8 @@
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="9">
@@ -6895,8 +6955,8 @@
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="9">
@@ -6904,8 +6964,8 @@
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="9">
@@ -6913,8 +6973,8 @@
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="9">
@@ -6922,8 +6982,8 @@
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="9">
@@ -6931,8 +6991,8 @@
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="9">
@@ -6940,8 +7000,8 @@
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="9">
@@ -6949,8 +7009,8 @@
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="75"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="9">
@@ -6958,8 +7018,8 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="75"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="9">
@@ -6967,8 +7027,8 @@
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="75"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="9">
@@ -6976,29 +7036,41 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -7011,36 +7083,24 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
@@ -7372,11 +7432,11 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
@@ -7390,9 +7450,9 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="K6" s="15"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
       <c r="T6" s="15"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
@@ -7405,9 +7465,9 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
@@ -7420,64 +7480,64 @@
       <c r="W9" s="15"/>
     </row>
     <row r="11" spans="2:29">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
       <c r="N11" s="12"/>
-      <c r="Q11" s="43" t="s">
+      <c r="Q11" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
     </row>
     <row r="12" spans="2:29">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
       <c r="N12" s="12"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
     </row>
     <row r="15" spans="2:29" ht="18" customHeight="1">
       <c r="V15" s="17"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D0B058-98CF-4D64-AAEB-91BD6306DCC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD1B2D2-487D-4BC6-8705-7A8517F802BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="164">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2996,6 +2996,32 @@
     <t>無し</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ランキング　名前入力(英語)　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="6" eb="10">
+      <t>ナマエニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4543,7 +4569,7 @@
   <dimension ref="B2:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75:D79"/>
+      <selection activeCell="E75" sqref="E75:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5552,7 +5578,9 @@
       <c r="C75" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="46"/>
+      <c r="D75" s="46" t="s">
+        <v>163</v>
+      </c>
       <c r="E75" s="46"/>
       <c r="F75" s="46"/>
       <c r="G75" s="46"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD1B2D2-487D-4BC6-8705-7A8517F802BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B381AF36-137C-4233-8AD2-70BBCFDDAE72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="172">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -3024,6 +3024,31 @@
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あいうえお</t>
+  </si>
+  <si>
+    <t>かきくけこ</t>
+  </si>
+  <si>
+    <t>さしすせそ</t>
+  </si>
+  <si>
+    <t>たちつてと</t>
+  </si>
+  <si>
+    <t>なにぬねの</t>
+  </si>
+  <si>
+    <t>はひふへほ</t>
+  </si>
+  <si>
+    <t>まみむめも</t>
+  </si>
+  <si>
+    <t>らりるれろ</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3767,23 +3792,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3800,66 +3885,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3875,14 +3900,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4568,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52984727-BAB6-4E0C-841C-47343DD8464C}">
   <dimension ref="B2:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75:E79"/>
+    <sheetView topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4579,11 +4604,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="2:8" s="18" customFormat="1" ht="27" thickBot="1">
       <c r="B3" s="19" t="s">
@@ -4632,61 +4657,61 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="55"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="44"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="44"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="55"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="56"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="19.8" thickBot="1">
       <c r="B10" s="22">
@@ -4712,63 +4737,63 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="56" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="44"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="55"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="44"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="55"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="44"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="55"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="56"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="2:8" ht="19.8" thickBot="1">
       <c r="B16" s="22">
@@ -4794,70 +4819,70 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="56" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="44"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="55"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="44"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="55"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="44"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="55"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B21" s="45"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="70"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="2:8" s="18" customFormat="1" ht="27" thickBot="1">
       <c r="B23" s="19" t="s">
@@ -4906,63 +4931,63 @@
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="65" t="s">
+      <c r="H25" s="62" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="44"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="55"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="44"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="55"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="55"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="56"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="2:8" ht="19.8" thickBot="1">
       <c r="B30" s="22">
@@ -4988,63 +5013,63 @@
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="56" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="44"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="55"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="44"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="55"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="44"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="55"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="56"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="2:8" ht="19.8" thickBot="1">
       <c r="B36" s="22">
@@ -5070,63 +5095,63 @@
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="56" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="44"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="55"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="47"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="44"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="55"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="44"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="55"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="47"/>
     </row>
     <row r="41" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B41" s="57"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="56"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="2:8" ht="19.8" thickBot="1">
       <c r="B42" s="22">
@@ -5152,63 +5177,63 @@
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="54" t="s">
+      <c r="H43" s="56" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="44"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="55"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="47"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="44"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="55"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="47"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="44"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="55"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="47"/>
     </row>
     <row r="47" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="55"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="47"/>
     </row>
     <row r="48" spans="2:8" ht="19.8" thickBot="1">
       <c r="B48" s="22">
@@ -5217,67 +5242,67 @@
       <c r="C48" s="26">
         <v>45138</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="61"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="66"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="44"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="44"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="66"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="44"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="61"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="66"/>
     </row>
     <row r="53" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B53" s="45"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="63"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="68"/>
     </row>
     <row r="54" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
     </row>
     <row r="55" spans="2:8" ht="27" thickBot="1">
       <c r="B55" s="19" t="s">
@@ -5326,63 +5351,63 @@
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="54" t="s">
+      <c r="H57" s="56" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="44"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="55"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="47"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="44"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="55"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="47"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="44"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="55"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="47"/>
     </row>
     <row r="61" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B61" s="57"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="56"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="2:8" ht="19.8" thickBot="1">
       <c r="B62" s="22">
@@ -5408,63 +5433,63 @@
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="G63" s="46" t="s">
+      <c r="G63" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="H63" s="54" t="s">
+      <c r="H63" s="56" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="44"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="55"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="47"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="44"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="55"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="47"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="44"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="55"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B67" s="57"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="56"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="48"/>
     </row>
     <row r="68" spans="2:8" ht="19.8" thickBot="1">
       <c r="B68" s="22">
@@ -5490,63 +5515,63 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G69" s="46" t="s">
+      <c r="G69" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="54" t="s">
+      <c r="H69" s="56" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="44"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="55"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="47"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="44"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="55"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="47"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="44"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="55"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="47"/>
     </row>
     <row r="73" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B73" s="57"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="56"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="2:8" ht="19.8" thickBot="1">
       <c r="B74" s="22">
@@ -5572,55 +5597,55 @@
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="54"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="56"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="44"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="55"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="47"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="44"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="55"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="47"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="44"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="55"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B79" s="57"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="55"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="47"/>
     </row>
     <row r="80" spans="2:8" ht="19.8" thickBot="1">
       <c r="B80" s="22">
@@ -5638,125 +5663,60 @@
       <c r="F80" s="26">
         <v>45169</v>
       </c>
-      <c r="G80" s="49"/>
-      <c r="H80" s="50"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="70"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="43"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="50"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="70"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="44"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="70"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="44"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="70"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="44"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="70"/>
     </row>
     <row r="85" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B85" s="45"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="53"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D48:H53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="G63:G67"/>
-    <mergeCell ref="H63:H67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="H57:H61"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="E81:E85"/>
+    <mergeCell ref="F81:F85"/>
     <mergeCell ref="G80:H85"/>
     <mergeCell ref="H69:H73"/>
     <mergeCell ref="B75:B79"/>
@@ -5773,10 +5733,75 @@
     <mergeCell ref="F69:F73"/>
     <mergeCell ref="G69:G73"/>
     <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="E81:E85"/>
-    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="G63:G67"/>
+    <mergeCell ref="H63:H67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="H57:H61"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D48:H53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6435,10 +6460,10 @@
       <c r="D2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="9">
@@ -6504,8 +6529,8 @@
       <c r="F6" s="75"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="9">
@@ -6523,8 +6548,8 @@
       <c r="F7" s="75"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="9">
@@ -6542,8 +6567,8 @@
       <c r="F8" s="75"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="9">
@@ -6561,8 +6586,8 @@
       <c r="F9" s="75"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="9">
@@ -6580,8 +6605,8 @@
       <c r="F10" s="75"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="9">
@@ -6599,8 +6624,8 @@
       <c r="F11" s="75"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="9">
@@ -6618,8 +6643,8 @@
       <c r="F12" s="75"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="9">
@@ -6637,8 +6662,8 @@
       <c r="F13" s="75"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9">
@@ -6656,8 +6681,8 @@
       <c r="F14" s="75"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="9">
@@ -7069,12 +7094,48 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -7087,48 +7148,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
@@ -7272,8 +7297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81ED12A-57EE-499C-8835-D7AAF7A83610}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7293,6 +7318,12 @@
       <c r="D2" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="F2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="9" t="s">
@@ -7304,6 +7335,12 @@
       <c r="D3" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="F3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="12">
+        <v>900</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="9" t="s">
@@ -7313,6 +7350,12 @@
       <c r="D4" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="F4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="12">
+        <v>800</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="9" t="s">
@@ -7322,6 +7365,12 @@
       <c r="D5" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="F5" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="12">
+        <v>700</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="8" t="s">
@@ -7330,6 +7379,12 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
         <v>54</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="12">
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -7338,12 +7393,32 @@
       <c r="D7" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="F7" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="12">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
         <v>56</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="F9" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="12">
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="2:9">

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B381AF36-137C-4233-8AD2-70BBCFDDAE72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D7F8B7-8B94-44FC-A2B0-9D3858793793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="173">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -3000,6 +3000,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>あいうえお</t>
+  </si>
+  <si>
+    <t>かきくけこ</t>
+  </si>
+  <si>
+    <t>さしすせそ</t>
+  </si>
+  <si>
+    <t>たちつてと</t>
+  </si>
+  <si>
+    <t>なにぬねの</t>
+  </si>
+  <si>
+    <t>はひふへほ</t>
+  </si>
+  <si>
+    <t>まみむめも</t>
+  </si>
+  <si>
+    <t>らりるれろ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <t>ランキング　名前入力(英語)　</t>
     </r>
@@ -3013,42 +3038,65 @@
         <charset val="128"/>
       </rPr>
       <t>済</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ランキング　名前入力（日本語） </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">済
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カメラの回転修正</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　済</t>
     </r>
     <rPh sb="6" eb="10">
       <t>ナマエニュウリョク</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="11" eb="14">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
       <t>スミ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>あいうえお</t>
-  </si>
-  <si>
-    <t>かきくけこ</t>
-  </si>
-  <si>
-    <t>さしすせそ</t>
-  </si>
-  <si>
-    <t>たちつてと</t>
-  </si>
-  <si>
-    <t>なにぬねの</t>
-  </si>
-  <si>
-    <t>はひふへほ</t>
-  </si>
-  <si>
-    <t>まみむめも</t>
-  </si>
-  <si>
-    <t>らりるれろ</t>
-    <phoneticPr fontId="3"/>
+    <rPh sb="22" eb="24">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4593,8 +4641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52984727-BAB6-4E0C-841C-47343DD8464C}">
   <dimension ref="B2:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81:D85"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5604,9 +5652,11 @@
         <v>29</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E75" s="55"/>
+        <v>171</v>
+      </c>
+      <c r="E75" s="55" t="s">
+        <v>172</v>
+      </c>
       <c r="F75" s="55"/>
       <c r="G75" s="55"/>
       <c r="H75" s="56"/>
@@ -7297,7 +7347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81ED12A-57EE-499C-8835-D7AAF7A83610}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -7319,7 +7369,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="12">
         <v>1000</v>
@@ -7336,7 +7386,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="12">
         <v>900</v>
@@ -7351,7 +7401,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" s="12">
         <v>800</v>
@@ -7366,7 +7416,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" s="12">
         <v>700</v>
@@ -7381,7 +7431,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="12">
         <v>600</v>
@@ -7394,7 +7444,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" s="12">
         <v>500</v>
@@ -7407,7 +7457,7 @@
         <v>56</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" s="12">
         <v>400</v>
@@ -7415,7 +7465,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="F9" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="12">
         <v>300</v>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D7F8B7-8B94-44FC-A2B0-9D3858793793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F016479-3594-4311-B734-B79785CC0454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -349,13 +349,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>弾</t>
     <rPh sb="0" eb="1">
       <t>タマ</t>
@@ -363,13 +356,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>視点</t>
     <rPh sb="0" eb="2">
       <t>シテン</t>
@@ -576,13 +562,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>grass001.x</t>
   </si>
   <si>
@@ -742,13 +721,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ブロック(青)の周囲に当たり判定を置き</t>
     <rPh sb="5" eb="6">
       <t>アオ</t>
@@ -812,20 +784,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マップのアイデア探し</t>
     <rPh sb="8" eb="9">
       <t>サガ</t>
@@ -833,20 +791,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>６月</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -1579,32 +1523,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">プロトタイプ版　提出日
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>無し</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>テイシュツビ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="9"/>
@@ -2032,7 +1950,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">弾・敵orブロックのすり抜けバグ修正 </t>
+      <t>バグ修正</t>
     </r>
     <r>
       <rPr>
@@ -2043,28 +1961,22 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>済</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+      <t>　一部修正</t>
+    </r>
+    <rPh sb="2" eb="4">
       <t>シュウセイ</t>
     </rPh>
-    <rPh sb="19" eb="20">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>バグ修正</t>
+    <rPh sb="5" eb="7">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>リスト構造の修正　</t>
     </r>
     <r>
       <rPr>
@@ -2075,22 +1987,19 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>　一部修正</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>リスト構造　一部バグあり　</t>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+当たり判定の調整　</t>
     </r>
     <r>
       <rPr>
@@ -2113,7 +2022,7 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-最初の弾を任意のタイミングで止める　</t>
+連続爆破の実装　</t>
     </r>
     <r>
       <rPr>
@@ -2126,143 +2035,56 @@
       </rPr>
       <t>済</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+任意の位置で配置する処理　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>修正</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+キューブの爆発で敵にダメージを与える </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>済</t>
+    </r>
     <rPh sb="3" eb="5">
       <t>コウゾウ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>リスト構造の修正　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-当たり判定の調整　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-連続爆破の実装　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-任意の位置で配置する処理　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>修正</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-キューブの爆発で敵にダメージを与える </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
       <t>シュウセイ</t>
     </rPh>
     <rPh sb="9" eb="10">
@@ -2311,548 +2133,6 @@
       <t>アタ</t>
     </rPh>
     <rPh sb="67" eb="68">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">マルチメッシュシリンダー（背景：側面）の実装 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-メッシュフィールド（背景：天井）の実装 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-マップツール　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>修正</t>
-    </r>
-    <rPh sb="13" eb="15">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソクメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>テンジョウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>シャドウマトリックスの実装(平面)　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <rPh sb="11" eb="13">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘイメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>画面推移（タイトル・ゲーム・リザルト）　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-仮の移動モーション　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-仮のモーション切り替え </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <rPh sb="0" eb="4">
-      <t>ガメンスイイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">フェード 実装 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">済
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">画面推移の修正 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ガメンスイイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>ttfを使ったテキストの実装！Ver1.0　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">済
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>仮の入力催促</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-ゲーム性のアイディア出し</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サイソク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲーム開始時の仮演出　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-フォントテキストの修正　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-当たり判定の修正　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">済
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>キューブ配置の修正　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <rPh sb="3" eb="6">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>α版提出日</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-キューブの重複配置の修正 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>テイシュツビ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウフク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>ポーズの実装　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2865,8 +2145,64 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>タイル。ポーズメニューの仮実装　</t>
+    <t>あいうえお</t>
+  </si>
+  <si>
+    <t>かきくけこ</t>
+  </si>
+  <si>
+    <t>さしすせそ</t>
+  </si>
+  <si>
+    <t>たちつてと</t>
+  </si>
+  <si>
+    <t>なにぬねの</t>
+  </si>
+  <si>
+    <t>はひふへほ</t>
+  </si>
+  <si>
+    <t>まみむめも</t>
+  </si>
+  <si>
+    <t>らりるれろ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッシュシリンダーの外部ファイル化</t>
+    <rPh sb="10" eb="12">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッシュフィールドの実装
+メッシュフィールドの外部ファイル化
+プレイヤー移動の修正</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ランキング　名前入力（日本語</t>
     </r>
     <r>
       <rPr>
@@ -2877,7 +2213,106 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>済</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カメラの回転修正</t>
+    </r>
+    <rPh sb="6" eb="10">
+      <t>ナマエニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オサム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング　名前入力(英語)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮のランキング実装</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮のチュートリアル実装
+カメラの向きのプレイヤーの移動の改良</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポーズの実装</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイル。ポーズメニューの仮実装
+チュートリアルの実装中</t>
+    <rPh sb="12" eb="13">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>フェード 実装</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -2888,29 +2323,43 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">
-チュートリアルの実装中</t>
-    </r>
-    <rPh sb="12" eb="13">
+      <t>画面推移の修正</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンスイイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面推移（タイトル・ゲーム・リザルト）
+仮の移動モーション
+仮のモーション切り替え</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンスイイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
       <t>カリ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>仮のチュートリアル実装　</t>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ttfを使ったテキストの実装！Ver1.0</t>
     </r>
     <r>
       <rPr>
@@ -2921,7 +2370,18 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>済</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮の入力催促</t>
     </r>
     <r>
       <rPr>
@@ -2933,7 +2393,36 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-カメラの向きのプレイヤーの移動　</t>
+ゲーム性のアイディア出し</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイソク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲーム開始時の仮演出
+フォントテキストの修正
+当たり判定の修正</t>
     </r>
     <r>
       <rPr>
@@ -2944,32 +2433,50 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>改良</t>
-    </r>
-    <rPh sb="0" eb="1">
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キューブ配置の修正</t>
+    </r>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>カリ</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">仮のランキング実装 </t>
-    </r>
+    <rPh sb="8" eb="10">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2979,54 +2486,75 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>済</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+      <t>α版提出日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+キューブの重複配置の修正</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テイシュツビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リスト構造　一部バグあり
+最初の弾を任意のタイミングで止める</t>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャドウマトリックスの実装(平面)</t>
+    <rPh sb="11" eb="13">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>あいうえお</t>
-  </si>
-  <si>
-    <t>かきくけこ</t>
-  </si>
-  <si>
-    <t>さしすせそ</t>
-  </si>
-  <si>
-    <t>たちつてと</t>
-  </si>
-  <si>
-    <t>なにぬねの</t>
-  </si>
-  <si>
-    <t>はひふへほ</t>
-  </si>
-  <si>
-    <t>まみむめも</t>
-  </si>
-  <si>
-    <t>らりるれろ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>ランキング　名前入力(英語)　</t>
+    <rPh sb="14" eb="16">
+      <t>ヘイメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>マルチメッシュシリンダー（背景：側面）の実装 
+メッシュフィールド（背景：天井）の実装
+マップツール　</t>
     </r>
     <r>
       <rPr>
@@ -3037,64 +2565,44 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>済</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ランキング　名前入力（日本語） </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">済
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>カメラの回転修正</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　済</t>
-    </r>
-    <rPh sb="6" eb="10">
-      <t>ナマエニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
+      <t>修正</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソクメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
       <t>シュウセイ</t>
     </rPh>
-    <rPh sb="27" eb="28">
-      <t>スミ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾・敵orブロックのすり抜けバグ修正</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3840,99 +3348,99 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3948,14 +3456,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4641,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52984727-BAB6-4E0C-841C-47343DD8464C}">
   <dimension ref="B2:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75:E79"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4652,33 +4160,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D2" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="2:8" s="18" customFormat="1" ht="27" thickBot="1">
       <c r="B3" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="19.8" thickBot="1">
@@ -4705,61 +4213,57 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="50"/>
-      <c r="C5" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="51"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="51"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
-      <c r="H7" s="47"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="51"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="52"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="48"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="53"/>
     </row>
     <row r="10" spans="2:8" ht="19.8" thickBot="1">
       <c r="B10" s="22">
@@ -4785,63 +4289,57 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>31</v>
-      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="47"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="51"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="47"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="52"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="48"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="2:8" ht="19.8" thickBot="1">
       <c r="B16" s="22">
@@ -4867,92 +4365,86 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>73</v>
-      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="69"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="51"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
-      <c r="H19" s="47"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
-      <c r="H20" s="47"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B21" s="60"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="59"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="70"/>
     </row>
     <row r="22" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D22" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="D22" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" spans="2:8" s="18" customFormat="1" ht="27" thickBot="1">
       <c r="B23" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="19.8" thickBot="1">
@@ -4979,63 +4471,61 @@
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="62" t="s">
-        <v>143</v>
+      <c r="B25" s="67"/>
+      <c r="C25" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="51"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
-      <c r="H26" s="47"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="51"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
-      <c r="H27" s="47"/>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="51"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
-      <c r="H28" s="47"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B29" s="52"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="48"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="53"/>
     </row>
     <row r="30" spans="2:8" ht="19.8" thickBot="1">
       <c r="B30" s="22">
@@ -5061,63 +4551,61 @@
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="56" t="s">
-        <v>106</v>
-      </c>
+      <c r="B31" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="51"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
-      <c r="H32" s="47"/>
+      <c r="H32" s="52"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="51"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
-      <c r="H33" s="47"/>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="51"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
-      <c r="H34" s="47"/>
+      <c r="H34" s="52"/>
     </row>
     <row r="35" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B35" s="52"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="48"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="19.8" thickBot="1">
       <c r="B36" s="22">
@@ -5143,63 +4631,55 @@
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="56" t="s">
-        <v>113</v>
-      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="51"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="51"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
-      <c r="H38" s="47"/>
+      <c r="H38" s="52"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="51"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
-      <c r="H39" s="47"/>
+      <c r="H39" s="52"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="51"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="E40" s="44"/>
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
-      <c r="H40" s="47"/>
+      <c r="H40" s="52"/>
     </row>
     <row r="41" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B41" s="52"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="48"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="53"/>
     </row>
     <row r="42" spans="2:8" ht="19.8" thickBot="1">
       <c r="B42" s="22">
@@ -5225,63 +4705,59 @@
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" s="55" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="56" t="s">
-        <v>114</v>
-      </c>
+      <c r="E43" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="51"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="51"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
-      <c r="H44" s="47"/>
+      <c r="H44" s="52"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="51"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="47"/>
+      <c r="H45" s="52"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="51"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="47"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B47" s="52"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="47"/>
+      <c r="H47" s="52"/>
     </row>
     <row r="48" spans="2:8" ht="19.8" thickBot="1">
       <c r="B48" s="22">
@@ -5290,89 +4766,87 @@
       <c r="C48" s="26">
         <v>45138</v>
       </c>
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="66"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="66"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="51"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="44"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="66"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="61"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="51"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="44"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="66"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="51"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="44"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="66"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B53" s="60"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="68"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="63"/>
     </row>
     <row r="54" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D54" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
+      <c r="D54" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
     </row>
     <row r="55" spans="2:8" ht="27" thickBot="1">
       <c r="B55" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="19.8" thickBot="1">
@@ -5399,63 +4873,55 @@
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="F57" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="G57" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="56" t="s">
-        <v>116</v>
-      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="51"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="44"/>
       <c r="D58" s="44"/>
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="47"/>
+      <c r="H58" s="52"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="51"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
-      <c r="H59" s="47"/>
+      <c r="H59" s="52"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="51"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="44"/>
       <c r="D60" s="44"/>
       <c r="E60" s="44"/>
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
-      <c r="H60" s="47"/>
+      <c r="H60" s="52"/>
     </row>
     <row r="61" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B61" s="52"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="48"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="19.8" thickBot="1">
       <c r="B62" s="22">
@@ -5481,63 +4947,53 @@
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="G63" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="H63" s="56" t="s">
-        <v>29</v>
-      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="51"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="51"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
       <c r="E64" s="44"/>
       <c r="F64" s="44"/>
       <c r="G64" s="44"/>
-      <c r="H64" s="47"/>
+      <c r="H64" s="52"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="51"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
       <c r="E65" s="44"/>
       <c r="F65" s="44"/>
       <c r="G65" s="44"/>
-      <c r="H65" s="47"/>
+      <c r="H65" s="52"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="51"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
-      <c r="H66" s="47"/>
+      <c r="H66" s="52"/>
     </row>
     <row r="67" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B67" s="52"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="48"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="53"/>
     </row>
     <row r="68" spans="2:8" ht="19.8" thickBot="1">
       <c r="B68" s="22">
@@ -5563,63 +5019,49 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="56" t="s">
-        <v>29</v>
-      </c>
+      <c r="B69" s="54"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="51"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="51"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="44"/>
       <c r="D70" s="44"/>
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
-      <c r="H70" s="47"/>
+      <c r="H70" s="52"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="51"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="44"/>
       <c r="D71" s="44"/>
       <c r="E71" s="44"/>
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
-      <c r="H71" s="47"/>
+      <c r="H71" s="52"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="51"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
       <c r="E72" s="44"/>
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
-      <c r="H72" s="47"/>
+      <c r="H72" s="52"/>
     </row>
     <row r="73" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B73" s="52"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="48"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="53"/>
     </row>
     <row r="74" spans="2:8" ht="19.8" thickBot="1">
       <c r="B74" s="22">
@@ -5645,57 +5087,57 @@
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="56"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="H75" s="51"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="51"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="44"/>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
-      <c r="H76" s="47"/>
+      <c r="H76" s="52"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="51"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
-      <c r="H77" s="47"/>
+      <c r="H77" s="52"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="51"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
-      <c r="H78" s="47"/>
+      <c r="H78" s="52"/>
     </row>
     <row r="79" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B79" s="52"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="44"/>
-      <c r="H79" s="47"/>
+      <c r="H79" s="52"/>
     </row>
     <row r="80" spans="2:8" ht="19.8" thickBot="1">
       <c r="B80" s="22">
@@ -5713,75 +5155,111 @@
       <c r="F80" s="26">
         <v>45169</v>
       </c>
-      <c r="G80" s="69"/>
-      <c r="H80" s="70"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="47"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="63"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="70"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="47"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="51"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
       <c r="E82" s="44"/>
       <c r="F82" s="44"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="70"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="47"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="51"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="44"/>
       <c r="D83" s="44"/>
       <c r="E83" s="44"/>
       <c r="F83" s="44"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="70"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="47"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="51"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="44"/>
       <c r="D84" s="44"/>
       <c r="E84" s="44"/>
       <c r="F84" s="44"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="70"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B85" s="60"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="73"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="E81:E85"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="G80:H85"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D48:H53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
     <mergeCell ref="B81:B85"/>
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="C57:C61"/>
@@ -5797,61 +5275,25 @@
     <mergeCell ref="F57:F61"/>
     <mergeCell ref="G57:G61"/>
     <mergeCell ref="H57:H61"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D48:H53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="E81:E85"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="G80:H85"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5904,77 +5346,77 @@
         <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="75"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="75"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="75"/>
@@ -6013,7 +5455,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>24</v>
@@ -6502,7 +5944,7 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>24</v>
@@ -6510,23 +5952,23 @@
       <c r="D2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F3" s="75"/>
       <c r="G3">
@@ -6538,13 +5980,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F4" s="75"/>
     </row>
@@ -6553,13 +5995,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" s="75"/>
     </row>
@@ -6568,184 +6010,184 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F6" s="75"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F7" s="75"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="9">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="75"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="9">
         <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9" s="75"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="9">
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10" s="75"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="9">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11" s="75"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="9">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="75"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="9">
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F13" s="75"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9">
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F14" s="75"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="9">
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15" s="75"/>
     </row>
@@ -6754,13 +6196,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="75"/>
     </row>
@@ -6769,13 +6211,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="75"/>
     </row>
@@ -6784,13 +6226,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="75"/>
     </row>
@@ -6799,13 +6241,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="75"/>
     </row>
@@ -6814,13 +6256,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" s="75"/>
     </row>
@@ -6829,13 +6271,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="75"/>
     </row>
@@ -6844,13 +6286,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="75"/>
     </row>
@@ -6859,13 +6301,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F23" s="75"/>
     </row>
@@ -6874,13 +6316,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="74" t="s">
         <v>90</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>93</v>
       </c>
       <c r="F24" s="75"/>
     </row>
@@ -6889,13 +6331,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="E25" s="74" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F25" s="75"/>
     </row>
@@ -7144,24 +6586,36 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -7174,36 +6628,24 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:C7 C26:C52 C9:C16">
@@ -7363,13 +6805,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="G2" s="12">
         <v>1000</v>
@@ -7380,13 +6822,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G3" s="12">
         <v>900</v>
@@ -7398,10 +6840,10 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G4" s="12">
         <v>800</v>
@@ -7413,10 +6855,10 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G5" s="12">
         <v>700</v>
@@ -7428,10 +6870,10 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="G6" s="12">
         <v>600</v>
@@ -7441,10 +6883,10 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="G7" s="12">
         <v>500</v>
@@ -7454,10 +6896,10 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="G8" s="12">
         <v>400</v>
@@ -7465,7 +6907,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="F9" s="12" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G9" s="12">
         <v>300</v>
@@ -7586,7 +7028,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="N5" s="82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O5" s="83"/>
       <c r="P5" s="83"/>
@@ -7634,7 +7076,7 @@
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="83" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C11" s="83"/>
       <c r="D11" s="83"/>
@@ -7649,7 +7091,7 @@
       <c r="M11" s="83"/>
       <c r="N11" s="12"/>
       <c r="Q11" s="83" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R11" s="83"/>
       <c r="S11" s="83"/>

--- a/data/ゲームデータ.xlsx
+++ b/data/ゲームデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F016479-3594-4311-B734-B79785CC0454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B31C18-17EC-436C-959E-C0CB54AE136C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
   <si>
     <t>３Dゲーム・仕様書</t>
     <rPh sb="6" eb="9">
@@ -2603,6 +2603,16 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォントテキストの影　実装</t>
+    <rPh sb="9" eb="10">
+      <t>カゲ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3348,15 +3358,84 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3372,75 +3451,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3456,14 +3466,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4149,8 +4159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52984727-BAB6-4E0C-841C-47343DD8464C}">
   <dimension ref="B2:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4160,11 +4170,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="35.4" thickBot="1">
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="2:8" s="18" customFormat="1" ht="27" thickBot="1">
       <c r="B3" s="19" t="s">
@@ -4213,57 +4223,57 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="73"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="55"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="52"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="55"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
-      <c r="H7" s="52"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="55"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
-      <c r="H8" s="52"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="2:8" ht="19.8" thickBot="1">
       <c r="B10" s="22">
@@ -4289,57 +4299,57 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="67"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="55" t="s">